--- a/search/link.xlsx
+++ b/search/link.xlsx
@@ -43,10 +43,55 @@
     <t>Email Verified</t>
   </si>
   <si>
-    <t>espn.com</t>
-  </si>
-  <si>
-    <t>https://www.espn.com/chalk/story/_/id/35186403/notable-bets-ohio-state-georgia-opening-line</t>
+    <t>mightytips.com</t>
+  </si>
+  <si>
+    <t>https://www.mightytips.com/bookmakers/georgia-betting-sites/</t>
+  </si>
+  <si>
+    <t>cbssports.com</t>
+  </si>
+  <si>
+    <t>https://www.cbssports.com/promotions/sports-betting-in-georgia-when-it-will-be-legalized-how-to-bet-online-where-to-get-picks-betting-promos/#:~:text=There%20was%20a%20strong%20effort,Georgia%20sports%20betting%20is%20%3Dunclear.</t>
+  </si>
+  <si>
+    <t>gamingtoday.com</t>
+  </si>
+  <si>
+    <t>https://www.gamingtoday.com/georgia/#:~:text=Georgia%20Sports%20Betting%20FAQs&amp;text=No%2C%20online%20sports%20betting%20is,within%20the%20State%20of%20Georgia.</t>
+  </si>
+  <si>
+    <t>betgeorgia.com</t>
+  </si>
+  <si>
+    <t>https://www.betgeorgia.com/sports-betting-apps</t>
+  </si>
+  <si>
+    <t>https://www.betgeorgia.com/bet365#:~:text=No%2C%20the%20bet365%20Sportsbook%20is,yet%20to%20pass%20any%20legislation.</t>
+  </si>
+  <si>
+    <t>thesportsgeek.com</t>
+  </si>
+  <si>
+    <t>https://www.thesportsgeek.com/sportsbooks/us/georgia/</t>
+  </si>
+  <si>
+    <t>gamblingsites.org</t>
+  </si>
+  <si>
+    <t>https://www.gamblingsites.org/sports-betting/us/georgia/</t>
+  </si>
+  <si>
+    <t>bookmakers.bet</t>
+  </si>
+  <si>
+    <t>https://www.bookmakers.bet/43983/betting-sites-georgia/</t>
+  </si>
+  <si>
+    <t>onlinesportsbetting.net</t>
+  </si>
+  <si>
+    <t>https://www.onlinesportsbetting.net/usa/georgia/</t>
   </si>
   <si>
     <t>sportslens.com</t>
@@ -55,46 +100,46 @@
     <t>https://sportslens.com/georgia/betting-apps/</t>
   </si>
   <si>
-    <t>georgiarecorder.com</t>
-  </si>
-  <si>
-    <t>https://georgiarecorder.com/2023/03/19/online-sports-betting-back-on-the-table-as-georgia-lawmakers-hijack-soapbox-derby-bill/</t>
-  </si>
-  <si>
     <t>basketballinsiders.com</t>
   </si>
   <si>
-    <t>https://www.basketballinsiders.com/ga/betting-apps/</t>
-  </si>
-  <si>
-    <t>bookmakers.bet</t>
-  </si>
-  <si>
-    <t>https://www.bookmakers.bet/43983/betting-sites-georgia/</t>
-  </si>
-  <si>
-    <t>lineups.com</t>
-  </si>
-  <si>
-    <t>https://www.lineups.com/betting/georgia-sports-betting/</t>
-  </si>
-  <si>
-    <t>forbes.com</t>
-  </si>
-  <si>
-    <t>https://www.forbes.com/sites/danielwallach/2023/03/05/georgia-sports-betting-by-next-super-bowl-a-path-forward-is-becoming-clear/</t>
-  </si>
-  <si>
-    <t>cbsnews.com</t>
-  </si>
-  <si>
-    <t>https://www.cbsnews.com/atlanta/news/all-bets-are-off-georgia-lawmakers-nix-legal-sports-betting/</t>
-  </si>
-  <si>
-    <t>foxsports.com</t>
-  </si>
-  <si>
-    <t>https://www.foxsports.com/stories/college-football/cfp-championship-game-odds-tcu-vs-georgia-best-bets</t>
+    <t>https://www.basketballinsiders.com/ga/</t>
+  </si>
+  <si>
+    <t>nypost.com</t>
+  </si>
+  <si>
+    <t>https://nypost.com/article/best-georgia-sports-betting-sites/</t>
+  </si>
+  <si>
+    <t>sportsbetting.legal</t>
+  </si>
+  <si>
+    <t>https://sportsbetting.legal/states/georgia/</t>
+  </si>
+  <si>
+    <t>gaming.net</t>
+  </si>
+  <si>
+    <t>https://www.gaming.net/georgia-sports-betting/</t>
+  </si>
+  <si>
+    <t>allnigeriasoccer.com</t>
+  </si>
+  <si>
+    <t>https://www.allnigeriasoccer.com/read_news.php?nid=46712</t>
+  </si>
+  <si>
+    <t>talksport.com</t>
+  </si>
+  <si>
+    <t>https://talksport.com/betting/1262504/betting-apps/</t>
+  </si>
+  <si>
+    <t>books.google.com.ng</t>
+  </si>
+  <si>
+    <t>https://books.google.com.ng/books?id=sCTLH8d-W6sC&amp;pg=PA422&amp;lpg=PA422&amp;dq=sports+betting+sites+in+Georgia&amp;source=bl&amp;ots=zW7wJnWmFk&amp;sig=ACfU3U2GVVgA93ESt0kubgQYSK6wUoKmwA&amp;hl=en&amp;sa=X&amp;ved=2ahUKEwiUq9mJ_7X_AhUyjokEHbgCBGU4eBDoAXoECAMQAw</t>
   </si>
 </sst>
 </file>
@@ -222,10 +267,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -233,10 +278,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -244,10 +289,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -255,10 +300,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -266,12 +311,1079 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="J10" t="b">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" t="s">
+        <v>36</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" t="s">
+        <v>38</v>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="J102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" t="s">
+        <v>24</v>
+      </c>
+      <c r="J104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>38</v>
+      </c>
+      <c r="J107" t="b">
         <v>0</v>
       </c>
     </row>

--- a/search/link.xlsx
+++ b/search/link.xlsx
@@ -43,622 +43,1507 @@
     <t>Email Verified</t>
   </si>
   <si>
+    <t>onlinesportsbetting.net</t>
+  </si>
+  <si>
+    <t>https://www.onlinesportsbetting.net/usa/california/</t>
+  </si>
+  <si>
+    <t>google.com</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://support.google.com/websearch?p%3Dfeatured_snippets%26hl%3Den-NG&amp;rct=j&amp;q=&amp;esrc=s&amp;usg=AOvVaw24K20dJBEEiPoZzuf-yYvv&amp;hl=en-NG&amp;sa=X&amp;ved=2ahUKEwi0vdzb9cL_AhXknVwKHRFgB1YQrpwBegQIDhAB</t>
+  </si>
+  <si>
+    <t>betonit.org</t>
+  </si>
+  <si>
+    <t>https://www.betonit.org/california-sports-betting/#:~:text=California%2C%20like%20the%20majority%20of,regulated%20outside%20of%20the%20State.</t>
+  </si>
+  <si>
+    <t>americangambler.com</t>
+  </si>
+  <si>
+    <t>https://www.americangambler.com/betting_app/ca-betting-apps/</t>
+  </si>
+  <si>
+    <t>dailyfantasycafe.com</t>
+  </si>
+  <si>
+    <t>https://www.dailyfantasycafe.com/california-sports-betting-apps#:~:text=The%20general%20rule%20is%20that,connected%20to%20a%20physical%20sportsbook.</t>
+  </si>
+  <si>
+    <t>cbssports.com</t>
+  </si>
+  <si>
+    <t>https://www.cbssports.com/promotions/sports-betting-in-california-when-it-will-be-legal-how-to-bet-online-where-to-find-picks-exclusive-promos/</t>
+  </si>
+  <si>
+    <t>wsn.com</t>
+  </si>
+  <si>
+    <t>https://www.wsn.com/sports-betting-usa/california/</t>
+  </si>
+  <si>
+    <t>eastbaytimes.com</t>
+  </si>
+  <si>
+    <t>https://www.eastbaytimes.com/2023/04/06/9-best-california-online-sports-betting-sites-compare-california-sportsbooks/</t>
+  </si>
+  <si>
+    <t>thesportsgeek.com</t>
+  </si>
+  <si>
+    <t>https://www.thesportsgeek.com/sportsbooks/us/california/</t>
+  </si>
+  <si>
+    <t>vegasinsider.com</t>
+  </si>
+  <si>
+    <t>https://www.vegasinsider.com/sportsbooks/california/</t>
+  </si>
+  <si>
+    <t>nj.com</t>
+  </si>
+  <si>
+    <t>https://www.nj.com/betting/online-sports-betting/california-sports-betting-sites.html</t>
+  </si>
+  <si>
+    <t>betcalifornia.com</t>
+  </si>
+  <si>
+    <t>https://www.betcalifornia.com/</t>
+  </si>
+  <si>
+    <t>basketballinsiders.com</t>
+  </si>
+  <si>
+    <t>https://www.basketballinsiders.com/ca/</t>
+  </si>
+  <si>
+    <t>oddsshark.com</t>
+  </si>
+  <si>
+    <t>https://www.oddsshark.com/usa/california</t>
+  </si>
+  <si>
+    <t>gamblingsites.org</t>
+  </si>
+  <si>
+    <t>https://www.gamblingsites.org/sports-betting/us/california/</t>
+  </si>
+  <si>
+    <t>mytopsportsbooks.com</t>
+  </si>
+  <si>
+    <t>https://www.mytopsportsbooks.com/usa/california/</t>
+  </si>
+  <si>
+    <t>legalsportsbetting.com</t>
+  </si>
+  <si>
+    <t>https://www.legalsportsbetting.com/california/</t>
+  </si>
+  <si>
+    <t>legalsportsreport.com</t>
+  </si>
+  <si>
+    <t>https://www.legalsportsreport.com/california/</t>
+  </si>
+  <si>
+    <t>sportsbetting18.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsbetting18.com/states/ca/</t>
+  </si>
+  <si>
     <t>wrtv.com</t>
   </si>
   <si>
     <t>https://www.wrtv.com/california-sports-betting</t>
   </si>
   <si>
-    <t>google.com</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://support.google.com/websearch?p%3Dfeatured_snippets%26hl%3Den-NG&amp;rct=j&amp;q=&amp;esrc=s&amp;usg=AOvVaw24K20dJBEEiPoZzuf-yYvv&amp;hl=en-NG&amp;sa=X&amp;ved=2ahUKEwi0qeCOj8D_AhXJfMAKHX7BBAIQrpwBegQIChAB</t>
-  </si>
-  <si>
-    <t>betcalifornia.com</t>
-  </si>
-  <si>
-    <t>https://www.betcalifornia.com/#:~:text=You%20are%20not%20allowed%20to,both%20measures%20failed%20to%20pass.</t>
-  </si>
-  <si>
-    <t>americangambler.com</t>
-  </si>
-  <si>
-    <t>https://www.americangambler.com/betting_app/ca-betting-apps/</t>
+    <t>newsdirect.com</t>
+  </si>
+  <si>
+    <t>https://www.newsdirect.com/guest-content/california-sports-betting</t>
+  </si>
+  <si>
+    <t>gamingtoday.com</t>
+  </si>
+  <si>
+    <t>https://www.gamingtoday.com/california/</t>
+  </si>
+  <si>
+    <t>playca.com</t>
+  </si>
+  <si>
+    <t>https://www.playca.com/sports-betting/</t>
+  </si>
+  <si>
+    <t>covers.com</t>
+  </si>
+  <si>
+    <t>https://www.covers.com/betting/usa/california</t>
+  </si>
+  <si>
+    <t>gamblingsites.com</t>
+  </si>
+  <si>
+    <t>https://www.gamblingsites.com/us/california/</t>
+  </si>
+  <si>
+    <t>lineups.com</t>
+  </si>
+  <si>
+    <t>https://www.lineups.com/betting/california-sports-betting/</t>
+  </si>
+  <si>
+    <t>gambling.com</t>
+  </si>
+  <si>
+    <t>https://www.gambling.com/us/online-casinos/california</t>
+  </si>
+  <si>
+    <t>actionnetwork.com</t>
+  </si>
+  <si>
+    <t>https://www.actionnetwork.com/online-sports-betting/california</t>
+  </si>
+  <si>
+    <t>betonline.ag</t>
+  </si>
+  <si>
+    <t>https://www.betonline.ag/</t>
+  </si>
+  <si>
+    <t>business2community.com</t>
+  </si>
+  <si>
+    <t>https://www.business2community.com/gambling/california-sports-betting</t>
   </si>
   <si>
     <t>sacbee.com</t>
   </si>
   <si>
-    <t>https://www.sacbee.com/betting/casinos/article270289967.html#:~:text=The%20state%20does%20not%20permit,money%20prizes%20and%20gift%20cards.</t>
-  </si>
-  <si>
-    <t>cloudwards.net</t>
-  </si>
-  <si>
-    <t>https://www.cloudwards.net/draftkings-sportsbook-vpn/#:~:text=Yes%2C%20you%20can.,it%20may%20be%20otherwise%20illegal.</t>
-  </si>
-  <si>
-    <t>dailyfantasycafe.com</t>
-  </si>
-  <si>
-    <t>https://www.dailyfantasycafe.com/california-sports-betting-apps#:~:text=The%20general%20rule%20is%20that,connected%20to%20a%20physical%20sportsbook.</t>
-  </si>
-  <si>
-    <t>betonit.org</t>
-  </si>
-  <si>
-    <t>https://www.betonit.org/california-sports-betting/#:~:text=California%2C%20like%20the%20majority%20of,regulated%20outside%20of%20the%20State.</t>
-  </si>
-  <si>
-    <t>eastbaytimes.com</t>
-  </si>
-  <si>
-    <t>https://www.eastbaytimes.com/2023/04/06/9-best-california-online-sports-betting-sites-compare-california-sportsbooks/</t>
-  </si>
-  <si>
-    <t>thesportsgeek.com</t>
-  </si>
-  <si>
-    <t>https://www.thesportsgeek.com/sportsbooks/us/california/</t>
-  </si>
-  <si>
-    <t>basketballinsiders.com</t>
-  </si>
-  <si>
-    <t>https://www.basketballinsiders.com/ca/</t>
-  </si>
-  <si>
-    <t>onlinesportsbetting.net</t>
-  </si>
-  <si>
-    <t>https://www.onlinesportsbetting.net/usa/california/</t>
-  </si>
-  <si>
-    <t>mytopsportsbooks.com</t>
-  </si>
-  <si>
-    <t>https://www.mytopsportsbooks.com/usa/california/</t>
-  </si>
-  <si>
-    <t>gamblingsites.org</t>
-  </si>
-  <si>
-    <t>https://www.gamblingsites.org/sports-betting/us/california/</t>
-  </si>
-  <si>
-    <t>vegasinsider.com</t>
-  </si>
-  <si>
-    <t>https://www.vegasinsider.com/sportsbooks/california/</t>
-  </si>
-  <si>
-    <t>newsdirect.com</t>
-  </si>
-  <si>
-    <t>https://www.newsdirect.com/guest-content/california-sports-betting</t>
-  </si>
-  <si>
-    <t>cbssports.com</t>
+    <t>https://www.sacbee.com/betting/casinos/article270289967.html</t>
+  </si>
+  <si>
+    <t>playusa.com</t>
+  </si>
+  <si>
+    <t>https://www.playusa.com/california/</t>
+  </si>
+  <si>
+    <t>fanduel.com</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/sportsbook-ca</t>
+  </si>
+  <si>
+    <t>letsgambleusa.com</t>
+  </si>
+  <si>
+    <t>https://www.letsgambleusa.com/california/</t>
+  </si>
+  <si>
+    <t>online-gambling.com</t>
+  </si>
+  <si>
+    <t>https://www.online-gambling.com/us/california/</t>
+  </si>
+  <si>
+    <t>casino.org</t>
+  </si>
+  <si>
+    <t>https://www.casino.org/us/ca/</t>
+  </si>
+  <si>
+    <t>cleveland.com</t>
+  </si>
+  <si>
+    <t>https://www.cleveland.com/betting/2023/05/how-to-bet-the-kentucky-derby-online-in-california.html</t>
+  </si>
+  <si>
+    <t>laweekly.com</t>
+  </si>
+  <si>
+    <t>https://www.laweekly.com/best-sportsbooks-california-sports-betting-online-ca/</t>
+  </si>
+  <si>
+    <t>esports.net</t>
+  </si>
+  <si>
+    <t>https://www.esports.net/fantasy/is-draftkings-legal/california/</t>
+  </si>
+  <si>
+    <t>theguardian.com</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/us-news/2022/sep/21/california-sports-betting-prop-26-27</t>
+  </si>
+  <si>
+    <t>npr.org</t>
+  </si>
+  <si>
+    <t>https://www.npr.org/2022/11/09/1133986282/california-gambling-prop-26-27-midterm-results</t>
+  </si>
+  <si>
+    <t>usracing.com</t>
+  </si>
+  <si>
+    <t>https://www.usracing.com/california</t>
+  </si>
+  <si>
+    <t>wsj.com</t>
+  </si>
+  <si>
+    <t>https://www.wsj.com/articles/draftkings-others-pull-back-on-ads-to-legalize-california-online-sports-betting-11665403202</t>
+  </si>
+  <si>
+    <t>betting.us</t>
+  </si>
+  <si>
+    <t>https://www.betting.us/california/</t>
+  </si>
+  <si>
+    <t>legitgamblingsites.com</t>
+  </si>
+  <si>
+    <t>https://www.legitgamblingsites.com/blog/can-you-legally-bet-on-sports-if-you-live-in-california/</t>
+  </si>
+  <si>
+    <t>latimes.com</t>
+  </si>
+  <si>
+    <t>https://www.latimes.com/sports/story/2022-01-30/super-bowl-2022-betting-illegal-in-california</t>
+  </si>
+  <si>
+    <t>canadasportsbetting.ca</t>
+  </si>
+  <si>
+    <t>https://www.canadasportsbetting.ca/</t>
+  </si>
+  <si>
+    <t>californiacasinos.com</t>
+  </si>
+  <si>
+    <t>https://www.californiacasinos.com/horse-betting/</t>
+  </si>
+  <si>
+    <t>sportybet.com</t>
+  </si>
+  <si>
+    <t>https://www.sportybet.com/</t>
+  </si>
+  <si>
+    <t>olg.ca</t>
+  </si>
+  <si>
+    <t>https://www.olg.ca/en/sports.html</t>
+  </si>
+  <si>
+    <t>youtube.com</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QOEOEUTitQ4</t>
+  </si>
+  <si>
+    <t>saturdaydownsouth.com</t>
+  </si>
+  <si>
+    <t>https://www.saturdaydownsouth.com/dfs/underdog-fantasy/california/</t>
+  </si>
+  <si>
+    <t>kcra.com</t>
+  </si>
+  <si>
+    <t>https://www.kcra.com/article/fact-checking-proposition-27-california-sports-betting/40645691</t>
+  </si>
+  <si>
+    <t>sportingferret.com</t>
+  </si>
+  <si>
+    <t>https://www.sportingferret.com/2022/09/16/how-to-bet-on-nfl-games-in-california/</t>
+  </si>
+  <si>
+    <t>usnews.com</t>
+  </si>
+  <si>
+    <t>https://www.usnews.com/news/politics/articles/2022-11-10/bet-on-it-sports-gambling-effort-in-california-is-not-over</t>
+  </si>
+  <si>
+    <t>shouselaw.com</t>
+  </si>
+  <si>
+    <t>https://www.shouselaw.com/ca/defense/penal-code/330/</t>
+  </si>
+  <si>
+    <t>kqed.org</t>
+  </si>
+  <si>
+    <t>https://www.kqed.org/voterguide/proposition-27-sports-betting-online</t>
+  </si>
+  <si>
+    <t>10news.com</t>
+  </si>
+  <si>
+    <t>https://www.10news.com/news/local-news/your-voice-your-vote/in-depth-whats-the-difference-between-prop-26-and-prop-27</t>
+  </si>
+  <si>
+    <t>jackpotbetonline.com</t>
+  </si>
+  <si>
+    <t>https://www.jackpotbetonline.com/best-california-sports-betting-apps-mobile-sites/</t>
+  </si>
+  <si>
+    <t>bonus.com</t>
+  </si>
+  <si>
+    <t>https://www.bonus.com/california/</t>
+  </si>
+  <si>
+    <t>bovada.lv</t>
+  </si>
+  <si>
+    <t>https://www.bovada.lv/login</t>
+  </si>
+  <si>
+    <t>comparitech.com</t>
+  </si>
+  <si>
+    <t>https://www.comparitech.com/blog/vpn-privacy/vpn-gambling-abroad/</t>
+  </si>
+  <si>
+    <t>oddschecker.com</t>
+  </si>
+  <si>
+    <t>https://www.oddschecker.com/us/free-bets</t>
+  </si>
+  <si>
+    <t>bettingusa.com</t>
+  </si>
+  <si>
+    <t>https://www.bettingusa.com/states/nv/</t>
+  </si>
+  <si>
+    <t>pokereagles.com</t>
+  </si>
+  <si>
+    <t>https://www.pokereagles.com/query/is-betonline-legal-in-california</t>
+  </si>
+  <si>
+    <t>politico.com</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/news/2022/03/30/sports-betting-gambling-casinos-card-rooms-00020319</t>
+  </si>
+  <si>
+    <t>forbes.com</t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/betting/sports-betting/how-much-taxes-do-you-pay-sports-betting/</t>
+  </si>
+  <si>
+    <t>washingtonpost.com</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/sports/2022/08/29/sports-betting-laws-by-state/</t>
+  </si>
+  <si>
+    <t>cbc.ca</t>
+  </si>
+  <si>
+    <t>https://www.cbc.ca/news/canada/calgary/sports-gambling-online-nhl-nba-1.6465574</t>
+  </si>
+  <si>
+    <t>aerlawgroup.com</t>
+  </si>
+  <si>
+    <t>https://www.aerlawgroup.com/blog/is-it-legal-to-gamble-online-in-every-state-in-the-usa/</t>
+  </si>
+  <si>
+    <t>agco.ca</t>
+  </si>
+  <si>
+    <t>https://www.agco.ca/lottery-and-gaming/player-support-information-online-gambling-igaming-and-sport-and-event-betting</t>
+  </si>
+  <si>
+    <t>betus.com.pa</t>
+  </si>
+  <si>
+    <t>https://www.betus.com.pa/</t>
+  </si>
+  <si>
+    <t>axios.com</t>
+  </si>
+  <si>
+    <t>https://www.axios.com/2023/05/14/sports-betting-online-gambling-supreme-court</t>
+  </si>
+  <si>
+    <t>bestonlinesportsbooks.info</t>
+  </si>
+  <si>
+    <t>https://www.bestonlinesportsbooks.info/usa-sportsbooks/california</t>
+  </si>
+  <si>
+    <t>businessinsider.com</t>
+  </si>
+  <si>
+    <t>https://www.businessinsider.com/proposition-26-27-the-california-ballot-initiatives-on-legalizing-gambling-2022-9</t>
+  </si>
+  <si>
+    <t>digitaltrends.com</t>
+  </si>
+  <si>
+    <t>https://www.digitaltrends.com/movies/super-bowl-2023-how-to-legally-bet-online/</t>
+  </si>
+  <si>
+    <t>northstarbets.ca</t>
+  </si>
+  <si>
+    <t>https://www.northstarbets.ca/sportsbook</t>
+  </si>
+  <si>
+    <t>williamhill.com</t>
+  </si>
+  <si>
+    <t>https://www.williamhill.com/ca</t>
+  </si>
+  <si>
+    <t>onlinecricketbetting.net</t>
+  </si>
+  <si>
+    <t>https://www.onlinecricketbetting.net/country/usa/</t>
+  </si>
+  <si>
+    <t>playsmart.ca</t>
+  </si>
+  <si>
+    <t>https://www.playsmart.ca/sports-betting/proline/how-to-play/proline-in-store-101/</t>
+  </si>
+  <si>
+    <t>rivalry.com</t>
+  </si>
+  <si>
+    <t>https://www.rivalry.com/</t>
+  </si>
+  <si>
+    <t>888sport.ca</t>
+  </si>
+  <si>
+    <t>https://www.888sport.ca/</t>
+  </si>
+  <si>
+    <t>betano.ca</t>
+  </si>
+  <si>
+    <t>https://www.betano.ca/</t>
+  </si>
+  <si>
+    <t>northbaybusinessjournal.com</t>
+  </si>
+  <si>
+    <t>https://www.northbaybusinessjournal.com/article/article/california-tribal-casinos-put-millions-on-the-table-for-november-ballot-mea/</t>
+  </si>
+  <si>
+    <t>egattorneys.com</t>
+  </si>
+  <si>
+    <t>https://www.egattorneys.com/illegal-gambling-penal-code-330</t>
+  </si>
+  <si>
+    <t>nytimes.com</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2022/11/20/business/caesars-sports-betting-universities-colleges.html</t>
+  </si>
+  <si>
+    <t>investopedia.com</t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/sports-betting-laws-by-state-5219064</t>
+  </si>
+  <si>
+    <t>gambling911.com</t>
+  </si>
+  <si>
+    <t>https://www.gambling911.com/Is-Bovada-Legal-to-Bet-on-From-California.html</t>
+  </si>
+  <si>
+    <t>mgmresorts.com</t>
+  </si>
+  <si>
+    <t>https://www.mgmresorts.com/en/casino/sportsbooks.html</t>
+  </si>
+  <si>
+    <t>thelines.com</t>
+  </si>
+  <si>
+    <t>https://www.thelines.com/kentucky-derby-bet-online-phone/</t>
+  </si>
+  <si>
+    <t>twinspires.com</t>
+  </si>
+  <si>
+    <t>https://www.twinspires.com/states</t>
+  </si>
+  <si>
+    <t>ballybet.ca</t>
+  </si>
+  <si>
+    <t>https://www.ballybet.ca/</t>
+  </si>
+  <si>
+    <t>uclagamblingprogram.org</t>
+  </si>
+  <si>
+    <t>http://www.uclagamblingprogram.org/</t>
+  </si>
+  <si>
+    <t>tvg.com</t>
+  </si>
+  <si>
+    <t>https://www.tvg.com/</t>
+  </si>
+  <si>
+    <t>pechanga.com</t>
+  </si>
+  <si>
+    <t>https://www.pechanga.com/</t>
+  </si>
+  <si>
+    <t>rotowire.com</t>
+  </si>
+  <si>
+    <t>https://www.rotowire.com/betting/faq/can-you-bet-on-sports-if-you-are-under-21-years-old-8a4376aa</t>
+  </si>
+  <si>
+    <t>wynnbet.com</t>
+  </si>
+  <si>
+    <t>https://www.wynnbet.com/</t>
+  </si>
+  <si>
+    <t>baltimoresun.com</t>
+  </si>
+  <si>
+    <t>https://www.baltimoresun.com/gambling/sns-actnet-online-sports-betting-states-traveling-promos-20201124-2wqx3fwgszeuhligchdejdcuaq-story.html</t>
+  </si>
+  <si>
+    <t>caesars.com</t>
+  </si>
+  <si>
+    <t>https://www.caesars.com/sportsbook-and-casino</t>
+  </si>
+  <si>
+    <t>cmcdefense.com</t>
+  </si>
+  <si>
+    <t>https://www.cmcdefense.com/blog/2018/march/where-is-online-sports-betting-legal-/</t>
+  </si>
+  <si>
+    <t>chumashcasino.com</t>
+  </si>
+  <si>
+    <t>https://www.chumashcasino.com/</t>
+  </si>
+  <si>
+    <t>bodog.eu</t>
+  </si>
+  <si>
+    <t>https://www.bodog.eu/</t>
+  </si>
+  <si>
+    <t>economist.com</t>
+  </si>
+  <si>
+    <t>https://www.economist.com/britain/2023/06/10/britain-leads-the-world-in-online-gambling</t>
+  </si>
+  <si>
+    <t>skrill.com</t>
+  </si>
+  <si>
+    <t>https://www.skrill.com/en/</t>
+  </si>
+  <si>
+    <t>eonline.com</t>
+  </si>
+  <si>
+    <t>https://www.eonline.com/ca/news/1376736/the-bet-award-nominations-2023-are-finally-here-see-the-full-list</t>
+  </si>
+  <si>
+    <t>sportsnet.ca</t>
+  </si>
+  <si>
+    <t>https://www.sportsnet.ca/</t>
+  </si>
+  <si>
+    <t>wcnc.com</t>
+  </si>
+  <si>
+    <t>https://www.wcnc.com/article/news/local/nc-senate-passes-sports-betting-bill-returns-to-house-for-approval-north-carolina-raleigh-sports-betting-in-nc-football-baseball-basketball-gambling/275-cb69667c-c5a0-4872-b0d9-3bc868f206eb</t>
+  </si>
+  <si>
+    <t>courthousenews.com</t>
+  </si>
+  <si>
+    <t>https://www.courthousenews.com/sports-betting-proposition-headed-for-the-california-ballot-in-2022/</t>
+  </si>
+  <si>
+    <t>anaheim.net</t>
+  </si>
+  <si>
+    <t>https://www.anaheim.net/</t>
+  </si>
+  <si>
+    <t>bloomberg.com</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/graphics/2021-opinion-online-sports-betting-future-of-american-gambling/</t>
+  </si>
+  <si>
+    <t>knotts.com</t>
+  </si>
+  <si>
+    <t>https://www.knotts.com/</t>
+  </si>
+  <si>
+    <t>sfgate.com</t>
+  </si>
+  <si>
+    <t>https://www.sfgate.com/sports/article/pro-leagues-balance-profit-integrity-risks-in-18151462.php</t>
+  </si>
+  <si>
+    <t>calottery.com</t>
+  </si>
+  <si>
+    <t>https://www.calottery.com/draw-games/hot-spot</t>
+  </si>
+  <si>
+    <t>myvetstore.ca</t>
+  </si>
+  <si>
+    <t>https://www.myvetstore.ca/</t>
+  </si>
+  <si>
+    <t>https://www.legalsportsreport.com/illinois/#:~:text=Illinois%20sports%20betting%20is%20live,launch%20a%20mobile%20betting%20app.</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?sa=X&amp;biw=884&amp;bih=591&amp;sxsrf=APwXEde44oGRwOusTezaot8j4yFsZpgUrQ:1686751380662&amp;q=Are+there+sportsbooks+in+Illinois%3F&amp;ved=2ahUKEwiEpPnG9sL_AhVhQUEAHZ-SCEoQzmd6BAgbEAY</t>
+  </si>
+  <si>
+    <t>usbets.com</t>
+  </si>
+  <si>
+    <t>https://www.usbets.com/illinois-sports-betting/#:~:text=Age%20Limit,or%20sports%20betting%2C%20is%2021.</t>
+  </si>
+  <si>
+    <t>playillinois.com</t>
+  </si>
+  <si>
+    <t>https://www.playillinois.com/#:~:text=Can%20you%20play%20online%20casinos,online%20casinos%20legalized%20in%202023.</t>
+  </si>
+  <si>
+    <t>bookies.com</t>
+  </si>
+  <si>
+    <t>https://www.bookies.com/</t>
+  </si>
+  <si>
+    <t>bleachernation.com</t>
+  </si>
+  <si>
+    <t>https://www.bleachernation.com/illinois-online-sports-betting/</t>
+  </si>
+  <si>
+    <t>https://www.vegasinsider.com/sportsbooks/illinois/</t>
+  </si>
+  <si>
+    <t>https://www.gambling.com/us/sports-betting/illinois</t>
+  </si>
+  <si>
+    <t>https://www.lineups.com/betting/illinois-sports-betting/</t>
+  </si>
+  <si>
+    <t>https://www.covers.com/betting/usa/illinois</t>
+  </si>
+  <si>
+    <t>illinoisbet.com</t>
+  </si>
+  <si>
+    <t>https://www.illinoisbet.com/</t>
+  </si>
+  <si>
+    <t>https://www.rotowire.com/betting/illinois</t>
+  </si>
+  <si>
+    <t>https://www.actionnetwork.com/online-sports-betting/illinois</t>
+  </si>
+  <si>
+    <t>https://www.gamingtoday.com/illinois/</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/sportsbook-il</t>
+  </si>
+  <si>
+    <t>usatoday.com</t>
+  </si>
+  <si>
+    <t>https://www.usatoday.com/betting/sports/illinois/apps</t>
+  </si>
+  <si>
+    <t>miamiherald.com</t>
+  </si>
+  <si>
+    <t>https://www.miamiherald.com/betting/article257663278.html</t>
+  </si>
+  <si>
+    <t>https://www.cbssports.com/promotions/sports-betting-in-illinois-online-sports-betting-promo-caesars-sportsbook-mobile-app-plus-betting-sites/</t>
+  </si>
+  <si>
+    <t>https://www.wsn.com/sports-betting-usa/illinois/</t>
+  </si>
+  <si>
+    <t>sportsbookreview.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsbookreview.com/best-sportsbooks-illinois/</t>
+  </si>
+  <si>
+    <t>https://www.bettingusa.com/states/il/</t>
+  </si>
+  <si>
+    <t>tipico.com</t>
+  </si>
+  <si>
+    <t>https://www.tipico.com/us/illinois</t>
+  </si>
+  <si>
+    <t>https://www.thelines.com/illinois/</t>
+  </si>
+  <si>
+    <t>sportsmockery.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsmockery.com/william-hill-illinois-sportsbook/</t>
+  </si>
+  <si>
+    <t>https://www.sportsbetting18.com/states/il/</t>
+  </si>
+  <si>
+    <t>https://www.onlinesportsbetting.net/usa/illinois/</t>
+  </si>
+  <si>
+    <t>igb.illinois.gov</t>
+  </si>
+  <si>
+    <t>https://www.igb.illinois.gov/SportsLists.aspx</t>
+  </si>
+  <si>
+    <t>sportsbettingdime.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsbettingdime.com/us/illinois/barstool/</t>
+  </si>
+  <si>
+    <t>https://www.nj.com/betting/online-sports-betting/illinois-sports-betting-sites.html</t>
+  </si>
+  <si>
+    <t>olbg.com</t>
+  </si>
+  <si>
+    <t>https://www.olbg.com/us/sportsbooks/il</t>
+  </si>
+  <si>
+    <t>bnd.com</t>
+  </si>
+  <si>
+    <t>https://www.bnd.com/betting/article258875808.html</t>
+  </si>
+  <si>
+    <t>https://www.americangambler.com/state/illinois-online-gambling/</t>
+  </si>
+  <si>
+    <t>https://www.legalsportsbetting.com/illinois/</t>
+  </si>
+  <si>
+    <t>lines.com</t>
+  </si>
+  <si>
+    <t>https://www.lines.com/betting-guides/illinois</t>
+  </si>
+  <si>
+    <t>the-sun.com</t>
+  </si>
+  <si>
+    <t>https://www.the-sun.com/betting/8043791/illinois-sports-betting/</t>
+  </si>
+  <si>
+    <t>dimers.com</t>
+  </si>
+  <si>
+    <t>https://www.dimers.com/best-books/illinois</t>
+  </si>
+  <si>
+    <t>facebook.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PointsBetIL/</t>
+  </si>
+  <si>
+    <t>riverscasino.com</t>
+  </si>
+  <si>
+    <t>https://www.riverscasino.com/desplaines/casino/sportsbook</t>
+  </si>
+  <si>
+    <t>chicagotribune.com</t>
+  </si>
+  <si>
+    <t>https://www.chicagotribune.com/sports/betting/ct-fanduel-sportsbook-history-review-promo-code-20230411-zhgg5twllvfk3b4tmgm5mnhqzi-story.html</t>
+  </si>
+  <si>
+    <t>https://www.basketballinsiders.com/il/</t>
+  </si>
+  <si>
+    <t>hoosierstatebets.com</t>
+  </si>
+  <si>
+    <t>https://www.hoosierstatebets.com/illinois-sportsbooks/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tABA6mVNThk</t>
+  </si>
+  <si>
+    <t>https://www.bonus.com/illinois/sports-betting/</t>
+  </si>
+  <si>
+    <t>thetelegraph.com</t>
+  </si>
+  <si>
+    <t>https://www.thetelegraph.com/news/article/November-sports-bets-set-record-17714315.php</t>
+  </si>
+  <si>
+    <t>williamhill.us</t>
+  </si>
+  <si>
+    <t>https://www.williamhill.us/william-hill-opens-its-first-illinois-sports-book-at-grand-victoria-casino-elgin/</t>
+  </si>
+  <si>
+    <t>yogonet.com</t>
+  </si>
+  <si>
+    <t>https://www.yogonet.com/international/news/2021/03/17/56877-fanduel-opens-second-retail-sportsbook-in-illinois</t>
+  </si>
+  <si>
+    <t>businesswire.com</t>
+  </si>
+  <si>
+    <t>https://www.businesswire.com/news/home/20210309006006/en/Penn-National-Gaming-to-Launch-Barstool-Sportsbook-Mobile-App-in-Illinois</t>
+  </si>
+  <si>
+    <t>gamblingnews.com</t>
+  </si>
+  <si>
+    <t>https://www.gamblingnews.com/news/circa-sports-joins-licensed-sportsbook-operators-in-illinois/</t>
+  </si>
+  <si>
+    <t>usaonlinesportsbooks.com</t>
+  </si>
+  <si>
+    <t>https://www.usaonlinesportsbooks.com/states/illinois.html</t>
+  </si>
+  <si>
+    <t>us-bookies.com</t>
+  </si>
+  <si>
+    <t>https://www.us-bookies.com/sports-betting/illinois-online-sports-betting/</t>
+  </si>
+  <si>
+    <t>gamingintelligence.com</t>
+  </si>
+  <si>
+    <t>https://www.gamingintelligence.com/products/sports/167802-pointsbet-and-hawthorne-race-course-open-4th-retail-sportsbook-in-illinois/</t>
+  </si>
+  <si>
+    <t>https://www.thesportsgeek.com/news/hard-rock-applies-for-sports-betting-license-in-illinois/</t>
+  </si>
+  <si>
+    <t>techopedia.com</t>
+  </si>
+  <si>
+    <t>https://www.techopedia.com/gambling/illinois/betmgm</t>
+  </si>
+  <si>
+    <t>https://www.casino.org/news/circa-sports-eyes-2023-illinois-debut-considers-other-markets/</t>
+  </si>
+  <si>
+    <t>https://www.betting.us/illinois/</t>
+  </si>
+  <si>
+    <t>ctbaonline.org</t>
+  </si>
+  <si>
+    <t>https://www.ctbaonline.org/press-room/gamblers-sports-betting-losses-generate-122-million-illinois-two-years</t>
+  </si>
+  <si>
+    <t>https://www.playusa.com/illinois-april-sports-gambling-revenue-tops-81-million/</t>
+  </si>
+  <si>
+    <t>howtobet.com</t>
+  </si>
+  <si>
+    <t>https://www.howtobet.com/illinois-online-sports-betting/</t>
+  </si>
+  <si>
+    <t>circasports.com</t>
+  </si>
+  <si>
+    <t>https://www.circasports.com/blog/press-release-las-vegas-circa-sports-to-enter-illinois-sports-betting-market-through-partnership-with-new-american-place-casino</t>
+  </si>
+  <si>
+    <t>prnewswire.com</t>
+  </si>
+  <si>
+    <t>https://www.prnewswire.com/news-releases/caesars-sportsbook-launches-mobile-sports-betting-across-illinois-301499102.html</t>
+  </si>
+  <si>
+    <t>crossingbroad.com</t>
+  </si>
+  <si>
+    <t>https://www.crossingbroad.com/2020/06/illinois-online-sports-betting.html</t>
+  </si>
+  <si>
+    <t>reddit.com</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/sportsbook/comments/t719ea/illinois_sportsbooks_megathread/</t>
+  </si>
+  <si>
+    <t>bettingodds.com</t>
+  </si>
+  <si>
+    <t>https://www.bettingodds.com/us/sportsbooks/illinois/payment-options</t>
+  </si>
+  <si>
+    <t>jdsupra.com</t>
+  </si>
+  <si>
+    <t>https://www.jdsupra.com/legalnews/illinois-lifts-in-person-registration-9710184/</t>
+  </si>
+  <si>
+    <t>barstoolsportsbook.com</t>
+  </si>
+  <si>
+    <t>https://www.barstoolsportsbook.com/</t>
+  </si>
+  <si>
+    <t>rrstar.com</t>
+  </si>
+  <si>
+    <t>https://www.rrstar.com/story/news/2023/06/14/hard-rock-casino-rockford-looks-to-add-sportsbook-to-temporary-casino/70308015007/</t>
+  </si>
+  <si>
+    <t>playpicks.com</t>
+  </si>
+  <si>
+    <t>https://www.playpicks.com/843812/best-draftkings-sportsbook-promo-code-today-illinois-bet-on-nba-finals-receive-up-to-100-profit-boost-2/</t>
+  </si>
+  <si>
+    <t>https://www.dailyfantasycafe.com/illinois-sports-betting-apps</t>
+  </si>
+  <si>
+    <t>fairmountpark.com</t>
+  </si>
+  <si>
+    <t>https://www.fairmountpark.com/</t>
+  </si>
+  <si>
+    <t>mlive.com</t>
+  </si>
+  <si>
+    <t>https://www.mlive.com/betting/2023/06/fanduel-promo-code-earns-2500-for-nascar-enjoy-illinois-300-today.html</t>
+  </si>
+  <si>
+    <t>newsweek.com</t>
+  </si>
+  <si>
+    <t>https://www.newsweek.com/caesars-nfl-promo-code-1806371</t>
+  </si>
+  <si>
+    <t>thechampaignroom.com</t>
+  </si>
+  <si>
+    <t>https://www.thechampaignroom.com/2023/6/8/23754755/illinois-will-play-northwestern-purdue-forever-and-ever-fighting-illini-ncaa-big-ten-schedule</t>
+  </si>
+  <si>
+    <t>unibet.com</t>
+  </si>
+  <si>
+    <t>https://www.unibet.com/</t>
+  </si>
+  <si>
+    <t>dailymotion.com</t>
+  </si>
+  <si>
+    <t>https://www.dailymotion.com/video/x8ldgdy</t>
+  </si>
+  <si>
+    <t>circalasvegas.com</t>
+  </si>
+  <si>
+    <t>https://www.circalasvegas.com/sportsbook/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?sxsrf=APwXEdeC5dnWtQxNtCjWoqhLrZ19t3b9kQ:1686751367214&amp;q=How+can+you+bet+online+in+California%3F&amp;sa=X&amp;ved=2ahUKEwjcu8TA9sL_AhWbFMAKHbaKDBAQ3rMBegQIERAC</t>
+  </si>
+  <si>
+    <t>https://www.betcalifornia.com/#:~:text=No%2C%20legal%20California%20sports%20betting,to%20launch%20in%20the%20state.</t>
+  </si>
+  <si>
+    <t>https://www.sacbee.com/betting/casinos/article270289967.html#:~:text=The%20state%20does%20not%20permit,visit%20a%20social%20casino%20site.</t>
+  </si>
+  <si>
+    <t>https://www.skrill.com/en/pay-online/bet-online/</t>
+  </si>
+  <si>
+    <t>https://www.actionnetwork.com/legal-online-sports-betting/online-sports-betting-states-deposit-withdraw-promos-traveling</t>
+  </si>
+  <si>
+    <t>betway.com.ng</t>
+  </si>
+  <si>
+    <t>https://www.betway.com.ng/</t>
+  </si>
+  <si>
+    <t>https://www.legalsportsreport.com/sports-betting/</t>
+  </si>
+  <si>
+    <t>nerdwallet.com</t>
+  </si>
+  <si>
+    <t>https://www.nerdwallet.com/article/credit-cards/use-credit-card-for-online-gambling</t>
+  </si>
+  <si>
+    <t>https://www.gamingtoday.com/sports-betting/</t>
+  </si>
+  <si>
+    <t>https://www.bettingusa.com/banking/credit-card/</t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/advisor/credit-cards/sports-betting/</t>
+  </si>
+  <si>
+    <t>https://www.cleveland.com/betting/2023/05/how-to-bet-the-preakness-in-california-online.html</t>
+  </si>
+  <si>
+    <t>bettingpros.com</t>
+  </si>
+  <si>
+    <t>https://www.bettingpros.com/articles/how-to-make-an-online-sports-bet/</t>
+  </si>
+  <si>
+    <t>ilotbet.com</t>
+  </si>
+  <si>
+    <t>https://www.ilotbet.com/</t>
+  </si>
+  <si>
+    <t>findlaw.com</t>
+  </si>
+  <si>
+    <t>https://www.findlaw.com/legalblogs/tarnished-twenty/if-you-win-a-sports-bet-how-can-you-get-paid/</t>
+  </si>
+  <si>
+    <t>https://www.cbc.ca/news/business/canada-sports-betting-1.6138865</t>
+  </si>
+  <si>
+    <t>https://www.dailyfantasycafe.com/california-sports-betting-apps</t>
+  </si>
+  <si>
+    <t>msport.com</t>
+  </si>
+  <si>
+    <t>https://www.msport.com/ng</t>
+  </si>
+  <si>
+    <t>betpawa.ng</t>
+  </si>
+  <si>
+    <t>https://www.betpawa.ng/</t>
+  </si>
+  <si>
+    <t>quora.com</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/Is-it-possible-to-legally-bet-on-sports-online-in-the-US</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/</t>
+  </si>
+  <si>
+    <t>https://www.thelines.com/betting/</t>
+  </si>
+  <si>
+    <t>spectrum.net</t>
+  </si>
+  <si>
+    <t>https://www.spectrum.net/support/account-and-billing/pay-my-bill</t>
+  </si>
+  <si>
+    <t>debt.org</t>
+  </si>
+  <si>
+    <t>https://www.debt.org/advice/gambling/</t>
+  </si>
+  <si>
+    <t>stnsports.com</t>
+  </si>
+  <si>
+    <t>https://www.stnsports.com/</t>
+  </si>
+  <si>
+    <t>https://www.tvg.com/promos/horse-racing-betting-guide/</t>
+  </si>
+  <si>
+    <t>https://www.gamblingnews.com/blog/prepaid-cards-that-work-for-online-gambling/</t>
+  </si>
+  <si>
+    <t>https://www.playca.com/horse-racing/</t>
+  </si>
+  <si>
+    <t>rd.com</t>
+  </si>
+  <si>
+    <t>https://www.rd.com/list/weird-things-to-bet-on/</t>
+  </si>
+  <si>
+    <t>https://www.williamhill.com/</t>
+  </si>
+  <si>
+    <t>playnow.com</t>
+  </si>
+  <si>
+    <t>https://www.playnow.com/</t>
+  </si>
+  <si>
+    <t>https://www.caesars.com/sportsbook-and-casino/how-to-bet/deposit-and-withdraws/</t>
+  </si>
+  <si>
+    <t>ballybet.com</t>
+  </si>
+  <si>
+    <t>https://www.ballybet.com/</t>
+  </si>
+  <si>
+    <t>espn.com</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/chalk/story/_/id/24744967/fanduel-pay-man-full-82000-disputed-bet</t>
+  </si>
+  <si>
+    <t>spglobal.com</t>
+  </si>
+  <si>
+    <t>https://www.spglobal.com/marketintelligence/en/news-insights/latest-news-headlines/online-wagering-engaged-fans-key-to-sports-betting-growth-66575074</t>
+  </si>
+  <si>
+    <t>https://www.wsj.com/articles/gambling-taxes-sports-betting-f43e7378</t>
+  </si>
+  <si>
+    <t>optimum.net</t>
+  </si>
+  <si>
+    <t>https://www.optimum.net/</t>
+  </si>
+  <si>
+    <t>sportsbettingexperts.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsbettingexperts.com/betonline/banking/</t>
+  </si>
+  <si>
+    <t>bookmaker.eu</t>
+  </si>
+  <si>
+    <t>https://www.bookmaker.eu/</t>
+  </si>
+  <si>
+    <t>authorize.net</t>
+  </si>
+  <si>
+    <t>https://www.authorize.net/</t>
+  </si>
+  <si>
+    <t>justice.gov</t>
+  </si>
+  <si>
+    <t>https://www.justice.gov/usao-cdca/pr/federal-authorities-announce-charges-related-multi-million-dollar-sport-gambling</t>
+  </si>
+  <si>
+    <t>michigan.gov</t>
+  </si>
+  <si>
+    <t>https://www.michigan.gov/mdhhs/doing-business/vitalrecords/order-a-record-online</t>
+  </si>
+  <si>
+    <t>cbs17.com</t>
+  </si>
+  <si>
+    <t>https://www.cbs17.com/news/north-carolina-news/general-assembly-oks-online-sports-betting-bill-awaits-gov-coopers-signature/</t>
+  </si>
+  <si>
+    <t>https://www.sportsbettingdime.com/sportsbooks/</t>
+  </si>
+  <si>
+    <t>irs.gov</t>
+  </si>
+  <si>
+    <t>https://www.irs.gov/publications/p505</t>
+  </si>
+  <si>
+    <t>healthnet.com</t>
+  </si>
+  <si>
+    <t>https://www.healthnet.com/content/healthnet/en_us/login.html</t>
+  </si>
+  <si>
+    <t>att.com</t>
+  </si>
+  <si>
+    <t>https://www.att.com/</t>
+  </si>
+  <si>
+    <t>clubwpt.com</t>
+  </si>
+  <si>
+    <t>https://www.clubwpt.com/</t>
+  </si>
+  <si>
+    <t>thelotter.com</t>
+  </si>
+  <si>
+    <t>https://www.thelotter.com/</t>
+  </si>
+  <si>
+    <t>https://www.pokereagles.com/query/can-you-use-betonline-in-california</t>
+  </si>
+  <si>
+    <t>wnct.com</t>
+  </si>
+  <si>
+    <t>https://www.wnct.com/news/politics/nc-sports-betting-bill-to-be-signed-into-law-wednesday-governors-office-says/</t>
+  </si>
+  <si>
+    <t>https://www.saturdaydownsouth.com/sports/bet365-iowa-promo-code-bet-1-get-365-for-nba-finals-game-5/</t>
+  </si>
+  <si>
+    <t>sls.net</t>
+  </si>
+  <si>
+    <t>https://www.sls.net/manage-your-account/make-a-payment</t>
+  </si>
+  <si>
+    <t>keeneland.com</t>
+  </si>
+  <si>
+    <t>https://www.keeneland.com/select</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=sports+and+casino+blogs+in+california&amp;sxsrf=APwXEdeC5dnWtQxNtCjWoqhLrZ19t3b9kQ%3A1686751367214&amp;ei=h8iJZJzcDJupgAa2lbKAAQ&amp;ved=0ahUKEwjcu8TA9sL_AhWbFMAKHbaKDBAQ4dUDCBA&amp;uact=5&amp;oq=sports+and+casino+blogs+in+california&amp;gs_lcp=Cgxnd3Mtd2l6LXNlcnAQAzIFCAAQogQyBQgAEKIEMgUIABCiBDIFCAAQogQ6EAguEIoFEMcBENEDENQCEEM6DgguEIoFEMcBENEDEJECOhEILhCABBCxAxCDARDHARDRAzoICAAQgAQQsQM6DgguEIAEELEDEMcBENEDOgsIABCABBCxAxCDAToeCC4QigUQxwEQ0QMQ1AIQQxCXBRDcBBDeBBDgBBgBOhMILhCKBRCxAxCDARDHARDRAxBDOg0ILhCKBRDHARDRAxBDOgcIABCKBRBDOgsILhCABBCxAxCDAToWCC4QigUQsQMQgwEQxwEQ0QMQ1AIQQzoUCC4QigUQsQMQgwEQxwEQ0QMQkQI6DQgAEIAEEBQQhwIQsQM6CAguEIAEELEDOiQILhCKBRCxAxCDARDHARDRAxDUAhBDEJcFENwEEN4EEOAEGAE6CAgAEIoFEJECOgoILhCKBRCxAxBDOgoIABCKBRCxAxBDOgcIIxDqAhAnOg8IABCKBRDqAhC0AhBDGAI6DwguEIoFEOoCELQCEEMYAjoPCAAQAxCPARDqAhC0AhgDOgQIIxAnOgcIIxCKBRAnOhEILhCDARDHARCxAxDRAxCABDoJCAAQigUQChBDOg0IABCKBRCxAxCDARBDOhAILhCABBAUEIcCEMcBENEDOhMILhCABBAUEIcCELEDEMcBENEDOgsIABCKBRCxAxCRAjoLCAAQigUQyQMQkQI6BQgAEIAEOgUILhCABDoLCC4QgAQQxwEQrwE6CggAEIAEEBQQhwI6BggAEBYQHjoICAAQFhAeEA86CAgAEIoFEIYDOgUIIRCgAToFCCEQqwI6CAghEBYQHhAdOgoIIRAWEB4QDxAdOggIABCJBRCiBEoECEEYAFAAWN_pAWCCiAJoCXAAeACAAYoRiAG2kAGSAQwzLTQwLjMuMy45LTGYAQCgAQGwARTAAQHaAQYIARABGBTaAQYIAhABGAHaAQYIAxABGAo&amp;sclient=gws-wiz-serp#</t>
+  </si>
+  <si>
+    <t>https://www.thesportsgeek.com/blog/best-california-tribal-casinos/</t>
+  </si>
+  <si>
+    <t>visionprooptical.com</t>
+  </si>
+  <si>
+    <t>https://www.visionprooptical.com/blog/types-of-gambling-in-california</t>
+  </si>
+  <si>
+    <t>https://www.sacbee.com/betting/casinos/article270289967.html#:~:text=Coins%20for%20%249.99-,Is%20Online%20Gambling%20Legal%20in%20California%3F,is%20not%20one%20of%20them.</t>
+  </si>
+  <si>
+    <t>wikihow.com</t>
+  </si>
+  <si>
+    <t>https://www.wikihow.com/Win-at-the-Casino-with-$20</t>
   </si>
   <si>
     <t>https://www.cbssports.com/promotions/sports-betting-in-california-when-it-will-be-legal-how-to-bet-online-where-to-find-picks-exclusive-promos/#:~:text=Right%20now%2C%202024%20is%20the,if%20online%20sportsbooks%20get%20legalized.</t>
   </si>
   <si>
-    <t>legalsportsreport.com</t>
-  </si>
-  <si>
-    <t>https://www.legalsportsreport.com/california/#:~:text=Aside%20from%20betting%20on%20horse,jurisdiction%20to%20legally%20accept%20wagers.</t>
-  </si>
-  <si>
-    <t>oddsshark.com</t>
-  </si>
-  <si>
-    <t>https://www.oddsshark.com/usa/california</t>
-  </si>
-  <si>
-    <t>laweekly.com</t>
-  </si>
-  <si>
-    <t>https://www.laweekly.com/best-sportsbooks-california-sports-betting-online-ca/</t>
-  </si>
-  <si>
-    <t>sportsbettingsites.com</t>
-  </si>
-  <si>
-    <t>https://www.sportsbettingsites.com/us/california/</t>
-  </si>
-  <si>
-    <t>nj.com</t>
-  </si>
-  <si>
-    <t>https://www.nj.com/betting/online-sports-betting/california-sports-betting-sites.html</t>
-  </si>
-  <si>
-    <t>wsn.com</t>
-  </si>
-  <si>
-    <t>https://www.wsn.com/sports-betting-usa/california/</t>
-  </si>
-  <si>
-    <t>villagevoice.com</t>
-  </si>
-  <si>
-    <t>https://www.villagevoice.com/2022/01/14/9-best-sports-betting-sites-in-california-for-sports-variety-and-bonuses/</t>
-  </si>
-  <si>
-    <t>business2community.com</t>
-  </si>
-  <si>
-    <t>https://www.business2community.com/gambling/california-sports-betting</t>
-  </si>
-  <si>
-    <t>bookmakersreview.com</t>
-  </si>
-  <si>
-    <t>https://www.bookmakersreview.com/ca/</t>
-  </si>
-  <si>
-    <t>sportsbetting18.com</t>
-  </si>
-  <si>
-    <t>https://www.sportsbetting18.com/states/ca/</t>
-  </si>
-  <si>
-    <t>oddschecker.com</t>
-  </si>
-  <si>
-    <t>https://www.oddschecker.com/us/free-bets/ca</t>
-  </si>
-  <si>
-    <t>letsgambleusa.com</t>
-  </si>
-  <si>
-    <t>https://www.letsgambleusa.com/california/online-sports-betting/</t>
-  </si>
-  <si>
-    <t>lineups.com</t>
-  </si>
-  <si>
-    <t>https://www.lineups.com/betting/california-sports-betting/</t>
-  </si>
-  <si>
-    <t>playca.com</t>
-  </si>
-  <si>
-    <t>https://www.playca.com/sports-betting/</t>
-  </si>
-  <si>
-    <t>bettingusa.com</t>
-  </si>
-  <si>
-    <t>https://www.bettingusa.com/states/ca/</t>
-  </si>
-  <si>
-    <t>legalsportsbetting.com</t>
-  </si>
-  <si>
-    <t>https://www.legalsportsbetting.com/california/</t>
-  </si>
-  <si>
-    <t>casino.org</t>
-  </si>
-  <si>
-    <t>https://www.casino.org/us/ca/sports-betting/</t>
-  </si>
-  <si>
-    <t>covers.com</t>
-  </si>
-  <si>
-    <t>https://www.covers.com/betting/usa/california</t>
-  </si>
-  <si>
-    <t>sportsinsider.com</t>
-  </si>
-  <si>
-    <t>https://www.sportsinsider.com/usa/california/</t>
-  </si>
-  <si>
-    <t>usaonlinesportsbooks.com</t>
-  </si>
-  <si>
-    <t>https://www.usaonlinesportsbooks.com/states/california.html</t>
-  </si>
-  <si>
-    <t>gamblingsites.com</t>
-  </si>
-  <si>
-    <t>https://www.gamblingsites.com/us/california/sports-betting/</t>
-  </si>
-  <si>
-    <t>forbes.com</t>
-  </si>
-  <si>
-    <t>https://www.forbes.com/betting/sports-betting/california/</t>
-  </si>
-  <si>
-    <t>betting.us</t>
-  </si>
-  <si>
-    <t>https://www.betting.us/california/los-angeles/</t>
-  </si>
-  <si>
-    <t>capradio.org</t>
-  </si>
-  <si>
-    <t>https://www.capradio.org/articles/2022/11/12/whats-next-for-sports-betting-in-california/</t>
-  </si>
-  <si>
-    <t>ft.com</t>
-  </si>
-  <si>
-    <t>https://www.ft.com/content/fd80f233-5d0a-47d6-bcbd-514b57bdc01e</t>
-  </si>
-  <si>
-    <t>esports.net</t>
-  </si>
-  <si>
-    <t>https://www.esports.net/fantasy/is-draftkings-legal/california/</t>
-  </si>
-  <si>
-    <t>thecal.com</t>
-  </si>
-  <si>
-    <t>https://www.thecal.com/play/sports-book</t>
-  </si>
-  <si>
-    <t>espn.com</t>
-  </si>
-  <si>
-    <t>https://www.espn.com/chalk/story/_/id/34983440/california-overwhelming-votes-no-sports-betting</t>
-  </si>
-  <si>
-    <t>npr.org</t>
-  </si>
-  <si>
-    <t>https://www.npr.org/2022/11/09/1133986282/california-gambling-prop-26-27-midterm-results</t>
-  </si>
-  <si>
-    <t>fanduel.com</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/</t>
-  </si>
-  <si>
-    <t>canadasportsbetting.ca</t>
-  </si>
-  <si>
-    <t>https://www.canadasportsbetting.ca/</t>
-  </si>
-  <si>
-    <t>actionnetwork.com</t>
-  </si>
-  <si>
-    <t>https://www.actionnetwork.com/news/legal-sports-betting-united-states-projections</t>
-  </si>
-  <si>
-    <t>visitcalifornia.com</t>
-  </si>
-  <si>
-    <t>https://www.visitcalifornia.com/things-to-do/sports/</t>
-  </si>
-  <si>
-    <t>ziprecruiter.com</t>
-  </si>
-  <si>
-    <t>https://www.ziprecruiter.com/Jobs/Sports-Betting/--in-California</t>
-  </si>
-  <si>
-    <t>tripadvisor.com</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/Travel-g28926-c187155/California:United-States:Major.Sports.In.California.html</t>
-  </si>
-  <si>
-    <t>online-gambling.com</t>
-  </si>
-  <si>
-    <t>https://www.online-gambling.com/us/california/daily-fantasy/</t>
-  </si>
-  <si>
-    <t>usnews.com</t>
-  </si>
-  <si>
-    <t>https://www.usnews.com/news/politics/articles/2022-11-10/bet-on-it-sports-gambling-effort-in-california-is-not-over</t>
-  </si>
-  <si>
-    <t>playusa.com</t>
-  </si>
-  <si>
-    <t>https://www.playusa.com/california/</t>
-  </si>
-  <si>
-    <t>californiacasinos.com</t>
-  </si>
-  <si>
-    <t>https://www.californiacasinos.com/dfs/</t>
-  </si>
-  <si>
-    <t>indeed.com</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/q-Sports-Betting-l-California-jobs.html</t>
-  </si>
-  <si>
-    <t>gamingtoday.com</t>
-  </si>
-  <si>
-    <t>https://www.gamingtoday.com/california/</t>
-  </si>
-  <si>
-    <t>tripinfo.com</t>
-  </si>
-  <si>
-    <t>https://www.tripinfo.com/sports/ca</t>
-  </si>
-  <si>
-    <t>si.com</t>
-  </si>
-  <si>
-    <t>https://www.si.com/</t>
-  </si>
-  <si>
-    <t>foxsports.com</t>
-  </si>
-  <si>
-    <t>https://www.foxsports.com/</t>
-  </si>
-  <si>
-    <t>latimes.com</t>
-  </si>
-  <si>
-    <t>https://www.latimes.com/business/la-fi-sports-authority-closures-20160304-story.html</t>
-  </si>
-  <si>
-    <t>legitgamblingsites.com</t>
-  </si>
-  <si>
-    <t>https://www.legitgamblingsites.com/blog/can-you-legally-bet-on-sports-if-you-live-in-california/</t>
-  </si>
-  <si>
-    <t>itftennis.com</t>
-  </si>
-  <si>
-    <t>https://www.itftennis.com/en/about-us/tennis-tech/california-sports-surfaces/</t>
-  </si>
-  <si>
-    <t>usc.edu</t>
-  </si>
-  <si>
-    <t>https://www.usc.edu/</t>
-  </si>
-  <si>
-    <t>oag.ca.gov</t>
-  </si>
-  <si>
-    <t>https://www.oag.ca.gov/system/files/initiatives/pdfs/19-0029A1%20%28Sports%20Wagering%20%26amp%3B%20Gambling%29.pdf</t>
-  </si>
-  <si>
-    <t>bestonlinesportsbooks.info</t>
-  </si>
-  <si>
-    <t>https://www.bestonlinesportsbooks.info/usa-sportsbooks/california</t>
-  </si>
-  <si>
-    <t>dignityhealthsportspark.com</t>
-  </si>
-  <si>
-    <t>https://www.dignityhealthsportspark.com/</t>
-  </si>
-  <si>
-    <t>calu.edu</t>
-  </si>
-  <si>
-    <t>https://www.calu.edu/academics/undergraduate/bachelors/sport-management/index.aspx</t>
+    <t>https://www.lineups.com/betting/draftkings-california/#:~:text=Yes%2C%20DraftKings%20Daily%20Fantasy%20is,live%20in%20the%20Golden%20State.</t>
+  </si>
+  <si>
+    <t>mercurynews.com</t>
+  </si>
+  <si>
+    <t>https://www.mercurynews.com/2021/08/29/8307996-walters-sports-betting-california-casinos/</t>
+  </si>
+  <si>
+    <t>sycuan.com</t>
+  </si>
+  <si>
+    <t>https://www.sycuan.com/casino/</t>
+  </si>
+  <si>
+    <t>https://www.shouselaw.com/ca/blog/gambling-laws-california/</t>
+  </si>
+  <si>
+    <t>https://www.latimes.com/business/story/2022-08-31/prop-27-solve-homelessness-sports-betting</t>
+  </si>
+  <si>
+    <t>bestuscasinos.org</t>
+  </si>
+  <si>
+    <t>https://www.bestuscasinos.org/blog/a-look-at-californias-gambling-industry-golden-state-gambling/</t>
+  </si>
+  <si>
+    <t>yaamava.com</t>
+  </si>
+  <si>
+    <t>https://www.yaamava.com/</t>
+  </si>
+  <si>
+    <t>calgaminglaw.com</t>
+  </si>
+  <si>
+    <t>https://www.calgaminglaw.com/</t>
+  </si>
+  <si>
+    <t>sportsgamblingpodcast.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsgamblingpodcast.com/2023/06/12/2023-sonoma-raceway-weekend-recap-i-nascar-gambling-podcast-ep-197/</t>
+  </si>
+  <si>
+    <t>visitgreaterpalmsprings.com</t>
+  </si>
+  <si>
+    <t>https://www.visitgreaterpalmsprings.com/event/all-american-fourth-of-july-weekend-of-events/9322/</t>
+  </si>
+  <si>
+    <t>plazahotelcasino.com</t>
+  </si>
+  <si>
+    <t>https://www.plazahotelcasino.com/blog/</t>
+  </si>
+  <si>
+    <t>eluniversal.com.co</t>
+  </si>
+  <si>
+    <t>https://www.eluniversal.com.co/user-portlet/refreshuserentitlements?redirect=https://recensione-royal-oak-casino-xmoradb.usa-casino-free-deposit-bonus.ru/recensione-royal-oak-casinowxourvt.html</t>
+  </si>
+  <si>
+    <t>tachipalace.com</t>
+  </si>
+  <si>
+    <t>https://www.tachipalace.com/</t>
+  </si>
+  <si>
+    <t>gambleonline.co</t>
+  </si>
+  <si>
+    <t>https://www.gambleonline.co/usa/california/</t>
+  </si>
+  <si>
+    <t>exploreelkgrove.com</t>
+  </si>
+  <si>
+    <t>https://www.exploreelkgrove.com/blog/sky-river-casino/</t>
+  </si>
+  <si>
+    <t>cardplayer.com</t>
+  </si>
+  <si>
+    <t>https://www.cardplayer.com/poker-news/27925-caesars-opens-first-phase-of-nebraska-casino</t>
+  </si>
+  <si>
+    <t>gratonresortcasino.com</t>
+  </si>
+  <si>
+    <t>https://www.gratonresortcasino.com/</t>
+  </si>
+  <si>
+    <t>stationcasinosblog.com</t>
+  </si>
+  <si>
+    <t>https://www.stationcasinosblog.com/</t>
+  </si>
+  <si>
+    <t>bls.gov</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/oes/current/oes393012.htm</t>
+  </si>
+  <si>
+    <t>rochesterfirst.com</t>
+  </si>
+  <si>
+    <t>https://www.rochesterfirst.com/sports/sports-illustrated/d40a1479/olympic-gold-medalists-believe-california-bill-could-lead-to-reduced-dominance-at-games</t>
+  </si>
+  <si>
+    <t>thebike.com</t>
+  </si>
+  <si>
+    <t>https://www.thebike.com/</t>
+  </si>
+  <si>
+    <t>hardrockhotelsacramento.com</t>
+  </si>
+  <si>
+    <t>https://www.hardrockhotelsacramento.com/</t>
   </si>
   <si>
     <t>linkedin.com</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/jobs/sports-betting-jobs-california</t>
-  </si>
-  <si>
-    <t>olg.ca</t>
-  </si>
-  <si>
-    <t>https://www.olg.ca/en/sports.html</t>
-  </si>
-  <si>
-    <t>california.com</t>
-  </si>
-  <si>
-    <t>https://www.california.com/top-5-most-successful-california-sports-teams-of-all-time/</t>
-  </si>
-  <si>
-    <t>desertsun.com</t>
-  </si>
-  <si>
-    <t>https://www.desertsun.com/story/news/2019/11/26/agua-caliente-morongo-tribes-support-legal-sports-betting-california/4266148002/</t>
-  </si>
-  <si>
-    <t>sportybet.com</t>
-  </si>
-  <si>
-    <t>https://www.sportybet.com/</t>
-  </si>
-  <si>
-    <t>kqed.org</t>
-  </si>
-  <si>
-    <t>https://www.kqed.org/news/11899623/is-sports-gambling-in-californias-future</t>
-  </si>
-  <si>
-    <t>reddit.com</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/online__gambling/comments/10nm5kq/best_online_sportsbook_california_reddit/</t>
-  </si>
-  <si>
-    <t>rotowire.com</t>
-  </si>
-  <si>
-    <t>https://www.rotowire.com/betting/faq/is-sports-betting-legal-in-california-7f79511</t>
-  </si>
-  <si>
-    <t>ea.com</t>
-  </si>
-  <si>
-    <t>https://www.ea.com/</t>
-  </si>
-  <si>
-    <t>northstarbets.ca</t>
-  </si>
-  <si>
-    <t>https://www.northstarbets.ca/sportsbook</t>
-  </si>
-  <si>
-    <t>abc10.com</t>
-  </si>
-  <si>
-    <t>https://www.abc10.com/article/news/politics/californias-prop-27/103-518ad631-5831-48a6-a01c-776d1f530157</t>
-  </si>
-  <si>
-    <t>rivalry.com</t>
-  </si>
-  <si>
-    <t>https://www.rivalry.com/</t>
-  </si>
-  <si>
-    <t>californiasportssurfaces.com</t>
-  </si>
-  <si>
-    <t>https://www.californiasportssurfaces.com/</t>
-  </si>
-  <si>
-    <t>500nations.com</t>
-  </si>
-  <si>
-    <t>https://www.500nations.com/California_Casinos.asp</t>
-  </si>
-  <si>
-    <t>nbcsportsbayarea.com</t>
-  </si>
-  <si>
-    <t>https://www.nbcsportsbayarea.com/</t>
-  </si>
-  <si>
-    <t>niche.com</t>
-  </si>
-  <si>
-    <t>https://www.niche.com/k12/search/best-high-schools-for-sports/s/california/</t>
-  </si>
-  <si>
-    <t>maxpreps.com</t>
-  </si>
-  <si>
-    <t>https://www.maxpreps.com/ca/</t>
-  </si>
-  <si>
-    <t>berkeley.edu</t>
-  </si>
-  <si>
-    <t>https://www.berkeley.edu/</t>
-  </si>
-  <si>
-    <t>yelp.com</t>
-  </si>
-  <si>
-    <t>https://www.yelp.com/nearme/sports-betting</t>
-  </si>
-  <si>
-    <t>agco.ca</t>
-  </si>
-  <si>
-    <t>https://www.agco.ca/sport-and-event-betting-ontario-player-information</t>
-  </si>
-  <si>
-    <t>washingtonpost.com</t>
-  </si>
-  <si>
-    <t>https://www.washingtonpost.com/sports/2022/11/03/prop-26-27-california-sports-betting/</t>
-  </si>
-  <si>
-    <t>ucdavis.edu</t>
-  </si>
-  <si>
-    <t>https://www.ucdavis.edu/campus-life/athletics-sports</t>
-  </si>
-  <si>
-    <t>cbs8.com</t>
-  </si>
-  <si>
-    <t>https://www.cbs8.com/article/news/politics/california-voters-decide-whether-to-legalize-sports-betting/509-22845753-602b-49be-9567-015ba6204d8b</t>
-  </si>
-  <si>
-    <t>cifstate.org</t>
-  </si>
-  <si>
-    <t>https://www.cifstate.org/sports/football/champ_info</t>
-  </si>
-  <si>
-    <t>betus.com.pa</t>
-  </si>
-  <si>
-    <t>https://www.betus.com.pa/</t>
-  </si>
-  <si>
-    <t>hotels4teams.com</t>
-  </si>
-  <si>
-    <t>https://www.hotels4teams.com/top-10-sports-venuescomplexes-california/</t>
-  </si>
-  <si>
-    <t>sofistadium.com</t>
-  </si>
-  <si>
-    <t>https://www.sofistadium.com/</t>
-  </si>
-  <si>
-    <t>salinassportscomplex.com</t>
-  </si>
-  <si>
-    <t>https://www.salinassportscomplex.com/</t>
-  </si>
-  <si>
-    <t>sportsnet.ca</t>
-  </si>
-  <si>
-    <t>https://www.sportsnet.ca/</t>
-  </si>
-  <si>
-    <t>csusb.edu</t>
-  </si>
-  <si>
-    <t>https://www.csusb.edu/</t>
-  </si>
-  <si>
-    <t>grandslamtournaments.com</t>
-  </si>
-  <si>
-    <t>https://www.grandslamtournaments.com/baseball/Regions/california/Sites</t>
-  </si>
-  <si>
-    <t>cccaasports.org</t>
-  </si>
-  <si>
-    <t>https://www.cccaasports.org/</t>
-  </si>
-  <si>
-    <t>tsn.ca</t>
-  </si>
-  <si>
-    <t>https://www.tsn.ca/</t>
-  </si>
-  <si>
-    <t>unb.ca</t>
-  </si>
-  <si>
-    <t>https://www.unb.ca/</t>
+    <t>https://www.linkedin.com/company/betmgm</t>
+  </si>
+  <si>
+    <t>https://www.actionnetwork.com/</t>
+  </si>
+  <si>
+    <t>californiagrandcasino.com</t>
+  </si>
+  <si>
+    <t>https://www.californiagrandcasino.com/</t>
+  </si>
+  <si>
+    <t>californiaindianeducation.org</t>
+  </si>
+  <si>
+    <t>https://www.californiaindianeducation.org/casinos/</t>
+  </si>
+  <si>
+    <t>modbee.com</t>
+  </si>
+  <si>
+    <t>https://www.modbee.com/news/business/biz-columns-blogs/biz-beat/article248723875.html</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/sportsbook/comments/yphsf6/california_will_vote_no_for_online_sports_betting/</t>
+  </si>
+  <si>
+    <t>caprianaheim.com</t>
+  </si>
+  <si>
+    <t>https://www.caprianaheim.com/blog/top-6-casinos-near-anaheim-where-you-can-play</t>
+  </si>
+  <si>
+    <t>riverrockcasino.com</t>
+  </si>
+  <si>
+    <t>https://www.riverrockcasino.com/blog/seven_things_to_do_in_geyserville/</t>
+  </si>
+  <si>
+    <t>ocregister.com</t>
+  </si>
+  <si>
+    <t>https://www.ocregister.com/</t>
   </si>
   <si>
     <t>pressenterprise.com</t>
@@ -667,52 +1552,16 @@
     <t>https://www.pressenterprise.com/</t>
   </si>
   <si>
-    <t>cbsnews.com</t>
-  </si>
-  <si>
-    <t>https://www.cbsnews.com/sanfrancisco/</t>
-  </si>
-  <si>
-    <t>oggis.com</t>
-  </si>
-  <si>
-    <t>https://www.oggis.com/</t>
-  </si>
-  <si>
-    <t>californiasportscards.com</t>
-  </si>
-  <si>
-    <t>http://www.californiasportscards.com/</t>
-  </si>
-  <si>
-    <t>imgacademy.com</t>
-  </si>
-  <si>
-    <t>https://www.imgacademy.com/</t>
-  </si>
-  <si>
-    <t>nbcnews.com</t>
-  </si>
-  <si>
-    <t>https://www.nbcnews.com/news/us-news/gambling-ballot-competing-sports-betting-plans-duke-california-voters-rcna41441</t>
-  </si>
-  <si>
-    <t>buffalowildwings.com</t>
-  </si>
-  <si>
-    <t>https://www.buffalowildwings.com/</t>
-  </si>
-  <si>
-    <t>sportchek.ca</t>
-  </si>
-  <si>
-    <t>https://www.sportchek.ca/</t>
-  </si>
-  <si>
-    <t>sfchronicle.com</t>
-  </si>
-  <si>
-    <t>https://www.sfchronicle.com/</t>
+    <t>times-standard.com</t>
+  </si>
+  <si>
+    <t>https://www.times-standard.com/</t>
+  </si>
+  <si>
+    <t>royalcaribbeanblog.com</t>
+  </si>
+  <si>
+    <t>https://www.royalcaribbeanblog.com/</t>
   </si>
   <si>
     <t>sandiegouniontribune.com</t>
@@ -721,370 +1570,103 @@
     <t>https://www.sandiegouniontribune.com/</t>
   </si>
   <si>
-    <t>dodge.com</t>
-  </si>
-  <si>
-    <t>https://www.dodge.com/</t>
-  </si>
-  <si>
-    <t>nba.com</t>
-  </si>
-  <si>
-    <t>https://www.nba.com/lakers</t>
-  </si>
-  <si>
-    <t>kcra.com</t>
-  </si>
-  <si>
-    <t>https://www.kcra.com/article/fact-checking-proposition-26-californias-sports-betting/40658573</t>
-  </si>
-  <si>
-    <t>ocregister.com</t>
-  </si>
-  <si>
-    <t>https://www.ocregister.com/</t>
-  </si>
-  <si>
-    <t>sportinglife.ca</t>
-  </si>
-  <si>
-    <t>https://www.sportinglife.ca/</t>
-  </si>
-  <si>
-    <t>nytimes.com</t>
-  </si>
-  <si>
-    <t>https://www.nytimes.com/2022/01/18/sports/sports-betting-california.html</t>
-  </si>
-  <si>
-    <t>actionnewsnow.com</t>
-  </si>
-  <si>
-    <t>https://www.actionnewsnow.com/</t>
-  </si>
-  <si>
-    <t>scuhs.edu</t>
-  </si>
-  <si>
-    <t>https://www.scuhs.edu/</t>
-  </si>
-  <si>
-    <t>bloomberg.com</t>
-  </si>
-  <si>
-    <t>https://www.bloomberg.com/news/articles/2022-08-23/california-spends-record-364-million-on-sports-betting-ballot-measure</t>
-  </si>
-  <si>
-    <t>ubishops.ca</t>
-  </si>
-  <si>
-    <t>https://www.ubishops.ca/</t>
-  </si>
-  <si>
-    <t>daveandbusters.com</t>
-  </si>
-  <si>
-    <t>https://www.daveandbusters.com/us/en/about/locations</t>
-  </si>
-  <si>
-    <t>golden1center.com</t>
-  </si>
-  <si>
-    <t>https://www.golden1center.com/</t>
-  </si>
-  <si>
-    <t>skiheavenly.com</t>
-  </si>
-  <si>
-    <t>https://www.skiheavenly.com/</t>
-  </si>
-  <si>
-    <t>fullertontitans.com</t>
-  </si>
-  <si>
-    <t>https://www.fullertontitans.com/</t>
-  </si>
-  <si>
-    <t>postregister.com</t>
-  </si>
-  <si>
-    <t>https://www.postregister.com/sports/pro/single-a-california-league-glance/article_e2a66924-a94f-5fd0-be38-0598f04f1ddb.html</t>
-  </si>
-  <si>
-    <t>lonelyplanet.com</t>
-  </si>
-  <si>
-    <t>https://www.lonelyplanet.com/articles/californias-top-winter-sports</t>
-  </si>
-  <si>
-    <t>mercurynews.com</t>
-  </si>
-  <si>
-    <t>https://www.mercurynews.com/</t>
-  </si>
-  <si>
-    <t>giro.com</t>
-  </si>
-  <si>
-    <t>https://www.giro.com/</t>
-  </si>
-  <si>
-    <t>specialolympics.org</t>
-  </si>
-  <si>
-    <t>https://www.specialolympics.org/</t>
-  </si>
-  <si>
-    <t>politico.com</t>
-  </si>
-  <si>
-    <t>https://www.politico.com/states/california/story/2021/08/31/sports-gambling-giants-back-new-online-betting-initiative-in-california-1390581</t>
-  </si>
-  <si>
-    <t>patagonia.com</t>
-  </si>
-  <si>
-    <t>https://www.patagonia.com/home/</t>
-  </si>
-  <si>
-    <t>niagara-gazette.com</t>
-  </si>
-  <si>
-    <t>https://www.niagara-gazette.com/sports/trivia-quiz-on-us-opens-in-california/article_46a4066a-0992-11ee-98ee-f731a81b543f.html</t>
-  </si>
-  <si>
-    <t>rds.ca</t>
-  </si>
-  <si>
-    <t>https://www.rds.ca/</t>
-  </si>
-  <si>
-    <t>recorderonline.com</t>
-  </si>
-  <si>
-    <t>https://www.recorderonline.com/sports/national_sports/us-open-23-trivia-quiz-on-us-opens-in-california/article_10ec5acb-6c8c-5fa8-a4a6-dcfea47b9ded.html</t>
-  </si>
-  <si>
-    <t>wklaw.com</t>
-  </si>
-  <si>
-    <t>https://www.wklaw.com/legal-to-gamble-on-sports-in-california/</t>
-  </si>
-  <si>
-    <t>sbnation.com</t>
-  </si>
-  <si>
-    <t>https://www.sbnation.com/</t>
-  </si>
-  <si>
-    <t>bmw.ca</t>
-  </si>
-  <si>
-    <t>https://www.bmw.ca/en/home.html</t>
-  </si>
-  <si>
-    <t>dailynews.com</t>
-  </si>
-  <si>
-    <t>https://www.dailynews.com/</t>
-  </si>
-  <si>
-    <t>axs.com</t>
-  </si>
-  <si>
-    <t>https://www.axs.com/</t>
-  </si>
-  <si>
-    <t>cupraofficial.com</t>
-  </si>
-  <si>
-    <t>https://www.cupraofficial.com/</t>
-  </si>
-  <si>
-    <t>gov.nl.ca</t>
-  </si>
-  <si>
-    <t>https://www.gov.nl.ca/</t>
-  </si>
-  <si>
-    <t>ticketmaster.com</t>
-  </si>
-  <si>
-    <t>https://www.ticketmaster.com/</t>
-  </si>
-  <si>
-    <t>astonmartin.com</t>
-  </si>
-  <si>
-    <t>https://www.astonmartin.com/en-us/</t>
-  </si>
-  <si>
-    <t>modbee.com</t>
-  </si>
-  <si>
-    <t>https://www.modbee.com/</t>
-  </si>
-  <si>
-    <t>acura.ca</t>
-  </si>
-  <si>
-    <t>https://www.acura.ca/en/</t>
-  </si>
-  <si>
-    <t>circalasvegas.com</t>
-  </si>
-  <si>
-    <t>https://www.circalasvegas.com/sportsbook/</t>
-  </si>
-  <si>
-    <t>alfaromeousa.com</t>
-  </si>
-  <si>
-    <t>https://www.alfaromeousa.com/</t>
-  </si>
-  <si>
-    <t>tesla.com</t>
-  </si>
-  <si>
-    <t>https://www.tesla.com/</t>
-  </si>
-  <si>
-    <t>fullerton.edu</t>
-  </si>
-  <si>
-    <t>http://www.fullerton.edu/</t>
-  </si>
-  <si>
-    <t>jabra.com</t>
-  </si>
-  <si>
-    <t>https://www.jabra.com/</t>
-  </si>
-  <si>
-    <t>ncaa.com</t>
-  </si>
-  <si>
-    <t>https://www.ncaa.com/</t>
-  </si>
-  <si>
-    <t>milb.com</t>
-  </si>
-  <si>
-    <t>https://www.milb.com/</t>
-  </si>
-  <si>
-    <t>baltimoresun.com</t>
-  </si>
-  <si>
-    <t>https://www.baltimoresun.com/gambling/sns-actnet-online-sports-betting-states-traveling-promos-20201124-2wqx3fwgszeuhligchdejdcuaq-story.html</t>
-  </si>
-  <si>
-    <t>cannondale.com</t>
-  </si>
-  <si>
-    <t>https://www.cannondale.com/en-us</t>
-  </si>
-  <si>
-    <t>tremblant.ca</t>
-  </si>
-  <si>
-    <t>https://www.tremblant.ca/</t>
-  </si>
-  <si>
-    <t>ironman.com</t>
-  </si>
-  <si>
-    <t>https://www.ironman.com/</t>
-  </si>
-  <si>
-    <t>lasportsnet.com</t>
-  </si>
-  <si>
-    <t>https://www.lasportsnet.com/</t>
-  </si>
-  <si>
-    <t>usbets.com</t>
-  </si>
-  <si>
-    <t>https://www.usbets.com/sports-betting/</t>
-  </si>
-  <si>
-    <t>klgates.com</t>
-  </si>
-  <si>
-    <t>https://www.klgates.com/</t>
-  </si>
-  <si>
-    <t>sportball.ca</t>
-  </si>
-  <si>
-    <t>https://www.sportball.ca/</t>
-  </si>
-  <si>
-    <t>courthousenews.com</t>
-  </si>
-  <si>
-    <t>https://www.courthousenews.com/sports-betting-proposition-headed-for-the-california-ballot-in-2022/</t>
-  </si>
-  <si>
-    <t>techproathletics.com</t>
-  </si>
-  <si>
-    <t>https://www.techproathletics.com/</t>
-  </si>
-  <si>
-    <t>youtube.com</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TaQAVltVmM4</t>
-  </si>
-  <si>
-    <t>svstc.com</t>
-  </si>
-  <si>
-    <t>https://www.svstc.com/</t>
-  </si>
-  <si>
-    <t>beachcitysportsyouth.com</t>
-  </si>
-  <si>
-    <t>https://www.beachcitysportsyouth.com/</t>
-  </si>
-  <si>
-    <t>facebook.com</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SnapSports/videos/stay-home-and-playcheck-out-this-southern-california-familys-ultimate-backyard-r/2760703257562673/</t>
-  </si>
-  <si>
-    <t>wsj.com</t>
-  </si>
-  <si>
-    <t>https://www.wsj.com/articles/draftkings-others-pull-back-on-ads-to-legalize-california-online-sports-betting-11665403202</t>
-  </si>
-  <si>
-    <t>californiaacademyofbaseball.org</t>
-  </si>
-  <si>
-    <t>http://www.californiaacademyofbaseball.org/video/</t>
-  </si>
-  <si>
-    <t>nbcbayarea.com</t>
-  </si>
-  <si>
-    <t>https://www.nbcbayarea.com/news/local/oakland-mayor-athletics-ballpark-deal-las-vegas/3210284/</t>
-  </si>
-  <si>
-    <t>sportsbettingdime.com</t>
-  </si>
-  <si>
-    <t>https://www.sportsbettingdime.com/sportsbooks/</t>
-  </si>
-  <si>
-    <t>similarweb.com</t>
-  </si>
-  <si>
-    <t>https://www.similarweb.com/top-websites/gambling/sports-betting/</t>
+    <t>greenvalleyranch.com</t>
+  </si>
+  <si>
+    <t>https://www.greenvalleyranch.com/</t>
+  </si>
+  <si>
+    <t>seattletimes.com</t>
+  </si>
+  <si>
+    <t>https://www.seattletimes.com/</t>
+  </si>
+  <si>
+    <t>10tv.com</t>
+  </si>
+  <si>
+    <t>https://www.10tv.com/article/news/local/ohio/ohio-lottery-sports-gambling-revenue/530-dcd62f4a-5f31-4c5c-9956-be8317018a59</t>
+  </si>
+  <si>
+    <t>themresort.com</t>
+  </si>
+  <si>
+    <t>https://www.themresort.com/</t>
+  </si>
+  <si>
+    <t>https://www.miamiherald.com/news/local/news-columns-blogs/fabiola-santiago/article276187001.html</t>
+  </si>
+  <si>
+    <t>gpb.org</t>
+  </si>
+  <si>
+    <t>https://www.gpb.org/news/shots-health-news/2023/06/14/kids-housed-in-casino-hotels-its-workaround-us-sees-decline-in</t>
+  </si>
+  <si>
+    <t>pbs.org</t>
+  </si>
+  <si>
+    <t>https://www.pbs.org/newshour/politics/dueling-sports-betting-measures-on-the-ballot-in-california</t>
+  </si>
+  <si>
+    <t>azdesertswarm.com</t>
+  </si>
+  <si>
+    <t>https://www.azdesertswarm.com/football/2023/6/5/23748025/arizona-wildcats-football-recruiting-commitment-kahu-tuihalamaka-official-visit-california-2024</t>
+  </si>
+  <si>
+    <t>wavy.com</t>
+  </si>
+  <si>
+    <t>https://www.wavy.com/news/politics/california-gov-newsom-spars-with-fox-news-host-hannity-over-biden-immigration-and-the-economy/</t>
+  </si>
+  <si>
+    <t>mywabashvalley.com</t>
+  </si>
+  <si>
+    <t>https://www.mywabashvalley.com/sports/sports-illustrated/339549a8/ufc-289-live-blog-amanda-nuness-potential-swan-song-headlines-event</t>
+  </si>
+  <si>
+    <t>vividseats.com</t>
+  </si>
+  <si>
+    <t>https://www.vividseats.com/pancho-barraza-tickets-alpine-viejas-casino---oak-ballroom-6-23-2023--concerts-latin-music/production/4442159?utm_medium=organic&amp;utm_source=google_eventsearch</t>
+  </si>
+  <si>
+    <t>8newsnow.com</t>
+  </si>
+  <si>
+    <t>https://www.8newsnow.com/video/north-las-vegas-armed-robbery-leads-to-carjacking-police-pursuit-ends-in-california/8729054/</t>
+  </si>
+  <si>
+    <t>fox16.com</t>
+  </si>
+  <si>
+    <t>https://www.fox16.com/business/press-releases/accesswire/760697/high-profile-casino-guru-targets-takeover-of-giant-slot-machine-manufacturer</t>
+  </si>
+  <si>
+    <t>telegraphherald.com</t>
+  </si>
+  <si>
+    <t>https://www.telegraphherald.com/news/tri-state/article_f170897a-0969-11ee-b58f-336226cd0f2f.html</t>
+  </si>
+  <si>
+    <t>nbc12.com</t>
+  </si>
+  <si>
+    <t>https://www.nbc12.com/2023/06/12/hanover-sheriffs-office-california-man-wanted-scam-case-turns-himself/</t>
+  </si>
+  <si>
+    <t>msn.com</t>
+  </si>
+  <si>
+    <t>https://www.msn.com/en-us</t>
+  </si>
+  <si>
+    <t>acmepackingcompany.com</t>
+  </si>
+  <si>
+    <t>https://www.acmepackingcompany.com/authors/casey-sully</t>
   </si>
 </sst>
 </file>
@@ -2422,10 +3004,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" t="s">
         <v>238</v>
-      </c>
-      <c r="B116" t="s">
-        <v>239</v>
       </c>
       <c r="J116" t="b">
         <v>0</v>
@@ -2433,10 +3015,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J117" t="b">
         <v>0</v>
@@ -2444,10 +3026,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B118" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J118" t="b">
         <v>0</v>
@@ -2455,10 +3037,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B119" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J119" t="b">
         <v>0</v>
@@ -2466,10 +3048,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B120" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J120" t="b">
         <v>0</v>
@@ -2477,10 +3059,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B121" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J121" t="b">
         <v>0</v>
@@ -2488,10 +3070,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J122" t="b">
         <v>0</v>
@@ -2499,10 +3081,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="B123" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J123" t="b">
         <v>0</v>
@@ -2510,10 +3092,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="B124" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J124" t="b">
         <v>0</v>
@@ -2521,10 +3103,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>256</v>
+        <v>56</v>
       </c>
       <c r="B125" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J125" t="b">
         <v>0</v>
@@ -2532,10 +3114,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B126" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J126" t="b">
         <v>0</v>
@@ -2543,10 +3125,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="B127" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J127" t="b">
         <v>0</v>
@@ -2554,10 +3136,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>64</v>
       </c>
       <c r="B128" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="J128" t="b">
         <v>0</v>
@@ -2565,10 +3147,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="B129" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="J129" t="b">
         <v>0</v>
@@ -2576,10 +3158,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="J130" t="b">
         <v>0</v>
@@ -2587,10 +3169,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B131" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="J131" t="b">
         <v>0</v>
@@ -2598,10 +3180,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B132" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J132" t="b">
         <v>0</v>
@@ -2609,10 +3191,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="J133" t="b">
         <v>0</v>
@@ -2620,10 +3202,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="B134" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="J134" t="b">
         <v>0</v>
@@ -2631,10 +3213,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B135" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="J135" t="b">
         <v>0</v>
@@ -2642,10 +3224,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>278</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="J136" t="b">
         <v>0</v>
@@ -2653,10 +3235,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B137" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="J137" t="b">
         <v>0</v>
@@ -2664,10 +3246,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="B138" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J138" t="b">
         <v>0</v>
@@ -2675,10 +3257,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B139" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="J139" t="b">
         <v>0</v>
@@ -2686,10 +3268,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>286</v>
+        <v>46</v>
       </c>
       <c r="B140" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="J140" t="b">
         <v>0</v>
@@ -2697,10 +3279,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>288</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="J141" t="b">
         <v>0</v>
@@ -2708,10 +3290,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B142" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="J142" t="b">
         <v>0</v>
@@ -2719,10 +3301,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="B143" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="J143" t="b">
         <v>0</v>
@@ -2730,10 +3312,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>294</v>
+        <v>30</v>
       </c>
       <c r="B144" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="J144" t="b">
         <v>0</v>
@@ -2741,10 +3323,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B145" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="J145" t="b">
         <v>0</v>
@@ -2752,10 +3334,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B146" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="J146" t="b">
         <v>0</v>
@@ -2763,10 +3345,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="B147" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="J147" t="b">
         <v>0</v>
@@ -2774,10 +3356,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="B148" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="J148" t="b">
         <v>0</v>
@@ -2785,10 +3367,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B149" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="J149" t="b">
         <v>0</v>
@@ -2796,10 +3378,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="B150" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="J150" t="b">
         <v>0</v>
@@ -2807,10 +3389,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B151" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="J151" t="b">
         <v>0</v>
@@ -2818,10 +3400,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="B152" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="J152" t="b">
         <v>0</v>
@@ -2829,10 +3411,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B153" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="J153" t="b">
         <v>0</v>
@@ -2840,10 +3422,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="B154" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="J154" t="b">
         <v>0</v>
@@ -2851,10 +3433,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>316</v>
+        <v>34</v>
       </c>
       <c r="B155" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="J155" t="b">
         <v>0</v>
@@ -2862,10 +3444,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="B156" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="J156" t="b">
         <v>0</v>
@@ -2873,10 +3455,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="B157" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J157" t="b">
         <v>0</v>
@@ -2884,10 +3466,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>322</v>
+        <v>128</v>
       </c>
       <c r="B158" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="J158" t="b">
         <v>0</v>
@@ -2895,10 +3477,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="B159" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="J159" t="b">
         <v>0</v>
@@ -2906,10 +3488,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="B160" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="J160" t="b">
         <v>0</v>
@@ -2917,10 +3499,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B161" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="J161" t="b">
         <v>0</v>
@@ -2928,10 +3510,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="B162" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="J162" t="b">
         <v>0</v>
@@ -2939,10 +3521,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B163" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="J163" t="b">
         <v>0</v>
@@ -2950,10 +3532,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="B164" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="J164" t="b">
         <v>0</v>
@@ -2961,10 +3543,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B165" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="J165" t="b">
         <v>0</v>
@@ -2972,10 +3554,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B166" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="J166" t="b">
         <v>0</v>
@@ -2983,10 +3565,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>340</v>
+        <v>26</v>
       </c>
       <c r="B167" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="J167" t="b">
         <v>0</v>
@@ -2994,10 +3576,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B168" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="J168" t="b">
         <v>0</v>
@@ -3005,10 +3587,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="B169" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="J169" t="b">
         <v>0</v>
@@ -3016,10 +3598,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>346</v>
+        <v>96</v>
       </c>
       <c r="B170" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="J170" t="b">
         <v>0</v>
@@ -3027,10 +3609,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B171" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="J171" t="b">
         <v>0</v>
@@ -3038,10 +3620,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>350</v>
+        <v>72</v>
       </c>
       <c r="B172" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="J172" t="b">
         <v>0</v>
@@ -3049,10 +3631,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="B173" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="J173" t="b">
         <v>0</v>
@@ -3060,10 +3642,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="B174" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="J174" t="b">
         <v>0</v>
@@ -3071,12 +3653,2146 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>330</v>
+      </c>
+      <c r="B175" t="s">
+        <v>331</v>
+      </c>
+      <c r="J175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>332</v>
+      </c>
+      <c r="B176" t="s">
+        <v>333</v>
+      </c>
+      <c r="J176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>334</v>
+      </c>
+      <c r="B177" t="s">
+        <v>335</v>
+      </c>
+      <c r="J177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>336</v>
+      </c>
+      <c r="B178" t="s">
+        <v>337</v>
+      </c>
+      <c r="J178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>338</v>
+      </c>
+      <c r="B179" t="s">
+        <v>339</v>
+      </c>
+      <c r="J179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>340</v>
+      </c>
+      <c r="B180" t="s">
+        <v>341</v>
+      </c>
+      <c r="J180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>342</v>
+      </c>
+      <c r="B181" t="s">
+        <v>343</v>
+      </c>
+      <c r="J181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>344</v>
+      </c>
+      <c r="B182" t="s">
+        <v>345</v>
+      </c>
+      <c r="J182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" t="s">
+        <v>346</v>
+      </c>
+      <c r="J183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>202</v>
+      </c>
+      <c r="B184" t="s">
+        <v>203</v>
+      </c>
+      <c r="J184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>347</v>
+      </c>
+      <c r="B185" t="s">
+        <v>348</v>
+      </c>
+      <c r="J185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>349</v>
+      </c>
+      <c r="B186" t="s">
+        <v>350</v>
+      </c>
+      <c r="J186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>351</v>
+      </c>
+      <c r="B187" t="s">
+        <v>352</v>
+      </c>
+      <c r="J187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>152</v>
+      </c>
+      <c r="B188" t="s">
+        <v>153</v>
+      </c>
+      <c r="J188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>353</v>
+      </c>
+      <c r="B189" t="s">
+        <v>354</v>
+      </c>
+      <c r="J189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>355</v>
+      </c>
+      <c r="B190" t="s">
         <v>356</v>
       </c>
-      <c r="B175" t="s">
+      <c r="J190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
         <v>357</v>
       </c>
-      <c r="J175" t="b">
+      <c r="B191" t="s">
+        <v>358</v>
+      </c>
+      <c r="J191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>359</v>
+      </c>
+      <c r="B192" t="s">
+        <v>360</v>
+      </c>
+      <c r="J192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="J193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" t="s">
+        <v>361</v>
+      </c>
+      <c r="J194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>32</v>
+      </c>
+      <c r="B195" t="s">
+        <v>362</v>
+      </c>
+      <c r="J195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>70</v>
+      </c>
+      <c r="B196" t="s">
+        <v>363</v>
+      </c>
+      <c r="J196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197" t="s">
+        <v>15</v>
+      </c>
+      <c r="J197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>26</v>
+      </c>
+      <c r="B198" t="s">
+        <v>27</v>
+      </c>
+      <c r="J198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" t="s">
+        <v>21</v>
+      </c>
+      <c r="J199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>22</v>
+      </c>
+      <c r="B200" t="s">
+        <v>23</v>
+      </c>
+      <c r="J200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>24</v>
+      </c>
+      <c r="B201" t="s">
+        <v>25</v>
+      </c>
+      <c r="J201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>216</v>
+      </c>
+      <c r="B202" t="s">
+        <v>364</v>
+      </c>
+      <c r="J202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>42</v>
+      </c>
+      <c r="B203" t="s">
+        <v>43</v>
+      </c>
+      <c r="J203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>30</v>
+      </c>
+      <c r="B204" t="s">
+        <v>31</v>
+      </c>
+      <c r="J204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>28</v>
+      </c>
+      <c r="B205" t="s">
+        <v>29</v>
+      </c>
+      <c r="J205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>64</v>
+      </c>
+      <c r="B206" t="s">
+        <v>365</v>
+      </c>
+      <c r="J206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>34</v>
+      </c>
+      <c r="B207" t="s">
+        <v>35</v>
+      </c>
+      <c r="J207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>48</v>
+      </c>
+      <c r="B208" t="s">
+        <v>49</v>
+      </c>
+      <c r="J208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>366</v>
+      </c>
+      <c r="B209" t="s">
+        <v>367</v>
+      </c>
+      <c r="J209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>56</v>
+      </c>
+      <c r="B210" t="s">
+        <v>57</v>
+      </c>
+      <c r="J210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>16</v>
+      </c>
+      <c r="B211" t="s">
+        <v>17</v>
+      </c>
+      <c r="J211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>44</v>
+      </c>
+      <c r="B212" t="s">
+        <v>368</v>
+      </c>
+      <c r="J212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>369</v>
+      </c>
+      <c r="B213" t="s">
+        <v>370</v>
+      </c>
+      <c r="J213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>106</v>
+      </c>
+      <c r="B214" t="s">
+        <v>107</v>
+      </c>
+      <c r="J214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>108</v>
+      </c>
+      <c r="B215" t="s">
+        <v>109</v>
+      </c>
+      <c r="J215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>52</v>
+      </c>
+      <c r="B216" t="s">
+        <v>371</v>
+      </c>
+      <c r="J216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>66</v>
+      </c>
+      <c r="B217" t="s">
+        <v>67</v>
+      </c>
+      <c r="J217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>38</v>
+      </c>
+      <c r="B218" t="s">
+        <v>39</v>
+      </c>
+      <c r="J218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>136</v>
+      </c>
+      <c r="B219" t="s">
+        <v>372</v>
+      </c>
+      <c r="J219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>40</v>
+      </c>
+      <c r="B220" t="s">
+        <v>41</v>
+      </c>
+      <c r="J220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>60</v>
+      </c>
+      <c r="B221" t="s">
+        <v>61</v>
+      </c>
+      <c r="J221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>142</v>
+      </c>
+      <c r="B222" t="s">
+        <v>373</v>
+      </c>
+      <c r="J222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>76</v>
+      </c>
+      <c r="B223" t="s">
+        <v>77</v>
+      </c>
+      <c r="J223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>82</v>
+      </c>
+      <c r="B224" t="s">
+        <v>374</v>
+      </c>
+      <c r="J224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>204</v>
+      </c>
+      <c r="B225" t="s">
+        <v>205</v>
+      </c>
+      <c r="J225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>375</v>
+      </c>
+      <c r="B226" t="s">
+        <v>376</v>
+      </c>
+      <c r="J226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>118</v>
+      </c>
+      <c r="B227" t="s">
+        <v>119</v>
+      </c>
+      <c r="J227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>134</v>
+      </c>
+      <c r="B228" t="s">
+        <v>135</v>
+      </c>
+      <c r="J228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>377</v>
+      </c>
+      <c r="B229" t="s">
+        <v>378</v>
+      </c>
+      <c r="J229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>58</v>
+      </c>
+      <c r="B230" t="s">
+        <v>59</v>
+      </c>
+      <c r="J230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>152</v>
+      </c>
+      <c r="B231" t="s">
+        <v>153</v>
+      </c>
+      <c r="J231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>132</v>
+      </c>
+      <c r="B232" t="s">
+        <v>133</v>
+      </c>
+      <c r="J232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>62</v>
+      </c>
+      <c r="B233" t="s">
+        <v>63</v>
+      </c>
+      <c r="J233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>182</v>
+      </c>
+      <c r="B234" t="s">
+        <v>183</v>
+      </c>
+      <c r="J234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>88</v>
+      </c>
+      <c r="B235" t="s">
+        <v>89</v>
+      </c>
+      <c r="J235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>379</v>
+      </c>
+      <c r="B236" t="s">
+        <v>380</v>
+      </c>
+      <c r="J236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>84</v>
+      </c>
+      <c r="B237" t="s">
+        <v>85</v>
+      </c>
+      <c r="J237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>208</v>
+      </c>
+      <c r="B238" t="s">
+        <v>209</v>
+      </c>
+      <c r="J238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>90</v>
+      </c>
+      <c r="B239" t="s">
+        <v>91</v>
+      </c>
+      <c r="J239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>146</v>
+      </c>
+      <c r="B240" t="s">
+        <v>381</v>
+      </c>
+      <c r="J240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>18</v>
+      </c>
+      <c r="B241" t="s">
+        <v>382</v>
+      </c>
+      <c r="J241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>383</v>
+      </c>
+      <c r="B242" t="s">
+        <v>384</v>
+      </c>
+      <c r="J242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>114</v>
+      </c>
+      <c r="B243" t="s">
+        <v>115</v>
+      </c>
+      <c r="J243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>102</v>
+      </c>
+      <c r="B244" t="s">
+        <v>103</v>
+      </c>
+      <c r="J244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>170</v>
+      </c>
+      <c r="B245" t="s">
+        <v>171</v>
+      </c>
+      <c r="J245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>385</v>
+      </c>
+      <c r="B246" t="s">
+        <v>386</v>
+      </c>
+      <c r="J246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>130</v>
+      </c>
+      <c r="B247" t="s">
+        <v>131</v>
+      </c>
+      <c r="J247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>387</v>
+      </c>
+      <c r="B248" t="s">
+        <v>388</v>
+      </c>
+      <c r="J248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>74</v>
+      </c>
+      <c r="B249" t="s">
+        <v>389</v>
+      </c>
+      <c r="J249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>188</v>
+      </c>
+      <c r="B250" t="s">
+        <v>390</v>
+      </c>
+      <c r="J250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>180</v>
+      </c>
+      <c r="B251" t="s">
+        <v>181</v>
+      </c>
+      <c r="J251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>68</v>
+      </c>
+      <c r="B252" t="s">
+        <v>69</v>
+      </c>
+      <c r="J252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>150</v>
+      </c>
+      <c r="B253" t="s">
+        <v>151</v>
+      </c>
+      <c r="J253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>391</v>
+      </c>
+      <c r="B254" t="s">
+        <v>392</v>
+      </c>
+      <c r="J254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>393</v>
+      </c>
+      <c r="B255" t="s">
+        <v>394</v>
+      </c>
+      <c r="J255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>395</v>
+      </c>
+      <c r="B256" t="s">
+        <v>396</v>
+      </c>
+      <c r="J256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>80</v>
+      </c>
+      <c r="B257" t="s">
+        <v>81</v>
+      </c>
+      <c r="J257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>196</v>
+      </c>
+      <c r="B258" t="s">
+        <v>397</v>
+      </c>
+      <c r="J258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>98</v>
+      </c>
+      <c r="B259" t="s">
+        <v>99</v>
+      </c>
+      <c r="J259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>72</v>
+      </c>
+      <c r="B260" t="s">
+        <v>73</v>
+      </c>
+      <c r="J260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>100</v>
+      </c>
+      <c r="B261" t="s">
+        <v>101</v>
+      </c>
+      <c r="J261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>96</v>
+      </c>
+      <c r="B262" t="s">
+        <v>97</v>
+      </c>
+      <c r="J262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>310</v>
+      </c>
+      <c r="B263" t="s">
+        <v>398</v>
+      </c>
+      <c r="J263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>54</v>
+      </c>
+      <c r="B264" t="s">
+        <v>399</v>
+      </c>
+      <c r="J264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>400</v>
+      </c>
+      <c r="B265" t="s">
+        <v>401</v>
+      </c>
+      <c r="J265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>164</v>
+      </c>
+      <c r="B266" t="s">
+        <v>402</v>
+      </c>
+      <c r="J266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>403</v>
+      </c>
+      <c r="B267" t="s">
+        <v>404</v>
+      </c>
+      <c r="J267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>206</v>
+      </c>
+      <c r="B268" t="s">
+        <v>405</v>
+      </c>
+      <c r="J268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>406</v>
+      </c>
+      <c r="B269" t="s">
+        <v>407</v>
+      </c>
+      <c r="J269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>408</v>
+      </c>
+      <c r="B270" t="s">
+        <v>409</v>
+      </c>
+      <c r="J270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>202</v>
+      </c>
+      <c r="B271" t="s">
+        <v>203</v>
+      </c>
+      <c r="J271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>410</v>
+      </c>
+      <c r="B272" t="s">
+        <v>411</v>
+      </c>
+      <c r="J272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>94</v>
+      </c>
+      <c r="B273" t="s">
+        <v>412</v>
+      </c>
+      <c r="J273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>413</v>
+      </c>
+      <c r="B274" t="s">
+        <v>414</v>
+      </c>
+      <c r="J274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>415</v>
+      </c>
+      <c r="B275" t="s">
+        <v>416</v>
+      </c>
+      <c r="J275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>110</v>
+      </c>
+      <c r="B276" t="s">
+        <v>111</v>
+      </c>
+      <c r="J276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>417</v>
+      </c>
+      <c r="B277" t="s">
+        <v>418</v>
+      </c>
+      <c r="J277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>419</v>
+      </c>
+      <c r="B278" t="s">
+        <v>420</v>
+      </c>
+      <c r="J278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>421</v>
+      </c>
+      <c r="B279" t="s">
+        <v>422</v>
+      </c>
+      <c r="J279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>423</v>
+      </c>
+      <c r="B280" t="s">
+        <v>424</v>
+      </c>
+      <c r="J280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>425</v>
+      </c>
+      <c r="B281" t="s">
+        <v>426</v>
+      </c>
+      <c r="J281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>230</v>
+      </c>
+      <c r="B282" t="s">
+        <v>231</v>
+      </c>
+      <c r="J282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>276</v>
+      </c>
+      <c r="B283" t="s">
+        <v>427</v>
+      </c>
+      <c r="J283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>428</v>
+      </c>
+      <c r="B284" t="s">
+        <v>429</v>
+      </c>
+      <c r="J284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>430</v>
+      </c>
+      <c r="B285" t="s">
+        <v>431</v>
+      </c>
+      <c r="J285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>432</v>
+      </c>
+      <c r="B286" t="s">
+        <v>433</v>
+      </c>
+      <c r="J286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>46</v>
+      </c>
+      <c r="B287" t="s">
+        <v>47</v>
+      </c>
+      <c r="J287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>434</v>
+      </c>
+      <c r="B288" t="s">
+        <v>435</v>
+      </c>
+      <c r="J288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>436</v>
+      </c>
+      <c r="B289" t="s">
+        <v>437</v>
+      </c>
+      <c r="J289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>138</v>
+      </c>
+      <c r="B290" t="s">
+        <v>438</v>
+      </c>
+      <c r="J290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>439</v>
+      </c>
+      <c r="B291" t="s">
+        <v>440</v>
+      </c>
+      <c r="J291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>112</v>
+      </c>
+      <c r="B292" t="s">
+        <v>441</v>
+      </c>
+      <c r="J292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>228</v>
+      </c>
+      <c r="B293" t="s">
+        <v>229</v>
+      </c>
+      <c r="J293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>442</v>
+      </c>
+      <c r="B294" t="s">
+        <v>443</v>
+      </c>
+      <c r="J294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>444</v>
+      </c>
+      <c r="B295" t="s">
+        <v>445</v>
+      </c>
+      <c r="J295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>24</v>
+      </c>
+      <c r="B296" t="s">
+        <v>25</v>
+      </c>
+      <c r="J296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>12</v>
+      </c>
+      <c r="B297" t="s">
+        <v>446</v>
+      </c>
+      <c r="J297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>26</v>
+      </c>
+      <c r="B298" t="s">
+        <v>447</v>
+      </c>
+      <c r="J298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>448</v>
+      </c>
+      <c r="B299" t="s">
+        <v>449</v>
+      </c>
+      <c r="J299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>80</v>
+      </c>
+      <c r="B300" t="s">
+        <v>81</v>
+      </c>
+      <c r="J300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>32</v>
+      </c>
+      <c r="B301" t="s">
+        <v>33</v>
+      </c>
+      <c r="J301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>70</v>
+      </c>
+      <c r="B302" t="s">
+        <v>450</v>
+      </c>
+      <c r="J302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>451</v>
+      </c>
+      <c r="B303" t="s">
+        <v>452</v>
+      </c>
+      <c r="J303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>20</v>
+      </c>
+      <c r="B304" t="s">
+        <v>453</v>
+      </c>
+      <c r="J304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>60</v>
+      </c>
+      <c r="B305" t="s">
+        <v>454</v>
+      </c>
+      <c r="J305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>455</v>
+      </c>
+      <c r="B306" t="s">
+        <v>456</v>
+      </c>
+      <c r="J306" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>96</v>
+      </c>
+      <c r="B307" t="s">
+        <v>97</v>
+      </c>
+      <c r="J307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>22</v>
+      </c>
+      <c r="B308" t="s">
+        <v>23</v>
+      </c>
+      <c r="J308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>457</v>
+      </c>
+      <c r="B309" t="s">
+        <v>458</v>
+      </c>
+      <c r="J309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>120</v>
+      </c>
+      <c r="B310" t="s">
+        <v>459</v>
+      </c>
+      <c r="J310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>421</v>
+      </c>
+      <c r="B311" t="s">
+        <v>422</v>
+      </c>
+      <c r="J311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>100</v>
+      </c>
+      <c r="B312" t="s">
+        <v>460</v>
+      </c>
+      <c r="J312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>58</v>
+      </c>
+      <c r="B313" t="s">
+        <v>59</v>
+      </c>
+      <c r="J313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>50</v>
+      </c>
+      <c r="B314" t="s">
+        <v>51</v>
+      </c>
+      <c r="J314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>461</v>
+      </c>
+      <c r="B315" t="s">
+        <v>462</v>
+      </c>
+      <c r="J315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>38</v>
+      </c>
+      <c r="B316" t="s">
+        <v>39</v>
+      </c>
+      <c r="J316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>463</v>
+      </c>
+      <c r="B317" t="s">
+        <v>464</v>
+      </c>
+      <c r="J317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>34</v>
+      </c>
+      <c r="B318" t="s">
+        <v>35</v>
+      </c>
+      <c r="J318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>465</v>
+      </c>
+      <c r="B319" t="s">
+        <v>466</v>
+      </c>
+      <c r="J319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>467</v>
+      </c>
+      <c r="B320" t="s">
+        <v>468</v>
+      </c>
+      <c r="J320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>469</v>
+      </c>
+      <c r="B321" t="s">
+        <v>470</v>
+      </c>
+      <c r="J321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>471</v>
+      </c>
+      <c r="B322" t="s">
+        <v>472</v>
+      </c>
+      <c r="J322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>198</v>
+      </c>
+      <c r="B323" t="s">
+        <v>199</v>
+      </c>
+      <c r="J323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>473</v>
+      </c>
+      <c r="B324" t="s">
+        <v>474</v>
+      </c>
+      <c r="J324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>475</v>
+      </c>
+      <c r="B325" t="s">
+        <v>476</v>
+      </c>
+      <c r="J325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>477</v>
+      </c>
+      <c r="B326" t="s">
+        <v>478</v>
+      </c>
+      <c r="J326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>479</v>
+      </c>
+      <c r="B327" t="s">
+        <v>480</v>
+      </c>
+      <c r="J327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>481</v>
+      </c>
+      <c r="B328" t="s">
+        <v>482</v>
+      </c>
+      <c r="J328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>483</v>
+      </c>
+      <c r="B329" t="s">
+        <v>484</v>
+      </c>
+      <c r="J329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>148</v>
+      </c>
+      <c r="B330" t="s">
+        <v>149</v>
+      </c>
+      <c r="J330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>485</v>
+      </c>
+      <c r="B331" t="s">
+        <v>486</v>
+      </c>
+      <c r="J331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>132</v>
+      </c>
+      <c r="B332" t="s">
+        <v>133</v>
+      </c>
+      <c r="J332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>359</v>
+      </c>
+      <c r="B333" t="s">
+        <v>360</v>
+      </c>
+      <c r="J333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>487</v>
+      </c>
+      <c r="B334" t="s">
+        <v>488</v>
+      </c>
+      <c r="J334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>489</v>
+      </c>
+      <c r="B335" t="s">
+        <v>490</v>
+      </c>
+      <c r="J335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>491</v>
+      </c>
+      <c r="B336" t="s">
+        <v>492</v>
+      </c>
+      <c r="J336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>493</v>
+      </c>
+      <c r="B337" t="s">
+        <v>494</v>
+      </c>
+      <c r="J337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>495</v>
+      </c>
+      <c r="B338" t="s">
+        <v>496</v>
+      </c>
+      <c r="J338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>64</v>
+      </c>
+      <c r="B339" t="s">
+        <v>497</v>
+      </c>
+      <c r="J339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>395</v>
+      </c>
+      <c r="B340" t="s">
+        <v>396</v>
+      </c>
+      <c r="J340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>498</v>
+      </c>
+      <c r="B341" t="s">
+        <v>499</v>
+      </c>
+      <c r="J341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>500</v>
+      </c>
+      <c r="B342" t="s">
+        <v>501</v>
+      </c>
+      <c r="J342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>502</v>
+      </c>
+      <c r="B343" t="s">
+        <v>503</v>
+      </c>
+      <c r="J343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>334</v>
+      </c>
+      <c r="B344" t="s">
+        <v>504</v>
+      </c>
+      <c r="J344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>505</v>
+      </c>
+      <c r="B345" t="s">
+        <v>506</v>
+      </c>
+      <c r="J345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>507</v>
+      </c>
+      <c r="B346" t="s">
+        <v>508</v>
+      </c>
+      <c r="J346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>509</v>
+      </c>
+      <c r="B347" t="s">
+        <v>510</v>
+      </c>
+      <c r="J347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>511</v>
+      </c>
+      <c r="B348" t="s">
+        <v>512</v>
+      </c>
+      <c r="J348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>513</v>
+      </c>
+      <c r="B349" t="s">
+        <v>514</v>
+      </c>
+      <c r="J349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>515</v>
+      </c>
+      <c r="B350" t="s">
+        <v>516</v>
+      </c>
+      <c r="J350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>517</v>
+      </c>
+      <c r="B351" t="s">
+        <v>518</v>
+      </c>
+      <c r="J351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>519</v>
+      </c>
+      <c r="B352" t="s">
+        <v>520</v>
+      </c>
+      <c r="J352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>521</v>
+      </c>
+      <c r="B353" t="s">
+        <v>522</v>
+      </c>
+      <c r="J353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>523</v>
+      </c>
+      <c r="B354" t="s">
+        <v>524</v>
+      </c>
+      <c r="J354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>525</v>
+      </c>
+      <c r="B355" t="s">
+        <v>526</v>
+      </c>
+      <c r="J355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>90</v>
+      </c>
+      <c r="B356" t="s">
+        <v>91</v>
+      </c>
+      <c r="J356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>260</v>
+      </c>
+      <c r="B357" t="s">
+        <v>527</v>
+      </c>
+      <c r="J357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>528</v>
+      </c>
+      <c r="B358" t="s">
+        <v>529</v>
+      </c>
+      <c r="J358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>530</v>
+      </c>
+      <c r="B359" t="s">
+        <v>531</v>
+      </c>
+      <c r="J359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>532</v>
+      </c>
+      <c r="B360" t="s">
+        <v>533</v>
+      </c>
+      <c r="J360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>534</v>
+      </c>
+      <c r="B361" t="s">
+        <v>535</v>
+      </c>
+      <c r="J361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>536</v>
+      </c>
+      <c r="B362" t="s">
+        <v>537</v>
+      </c>
+      <c r="J362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>538</v>
+      </c>
+      <c r="B363" t="s">
+        <v>539</v>
+      </c>
+      <c r="J363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>540</v>
+      </c>
+      <c r="B364" t="s">
+        <v>541</v>
+      </c>
+      <c r="J364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>542</v>
+      </c>
+      <c r="B365" t="s">
+        <v>543</v>
+      </c>
+      <c r="J365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>544</v>
+      </c>
+      <c r="B366" t="s">
+        <v>545</v>
+      </c>
+      <c r="J366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>546</v>
+      </c>
+      <c r="B367" t="s">
+        <v>547</v>
+      </c>
+      <c r="J367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>548</v>
+      </c>
+      <c r="B368" t="s">
+        <v>549</v>
+      </c>
+      <c r="J368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>550</v>
+      </c>
+      <c r="B369" t="s">
+        <v>551</v>
+      </c>
+      <c r="J369" t="b">
         <v>0</v>
       </c>
     </row>

--- a/search/link.xlsx
+++ b/search/link.xlsx
@@ -43,6 +43,12 @@
     <t>Email Verified</t>
   </si>
   <si>
+    <t>gaming.net</t>
+  </si>
+  <si>
+    <t>https://www.gaming.net/kentucky-sports-betting/</t>
+  </si>
+  <si>
     <t>letsgambleusa.com</t>
   </si>
   <si>
@@ -52,85 +58,319 @@
     <t>google.com</t>
   </si>
   <si>
-    <t>https://www.google.com/url?url=https://support.google.com/websearch?p%3Dfeatured_snippets%26hl%3Den-US&amp;rct=j&amp;q=&amp;esrc=s&amp;usg=AOvVaw185ES_DZIoacbenypeQ03C&amp;hl=en&amp;sa=X&amp;ved=2ahUKEwj-k7Pz8M__AhUuElkFHS5-BoQQrpwBegQIFxAB</t>
+    <t>https://www.google.com/search?rlz=1C1KNTJ_enNG1063NG1063&amp;sxsrf=APwXEdf_Xaih6J9T3DMveQdURVqPwdEHwg:1687480654920&amp;q=What+online+casino+can+I+play+in+Kentucky%3F&amp;sa=X&amp;ved=2ahUKEwipqYCok9j_AhXiVPEDHf4yDksQzmd6BAgaEAY</t>
+  </si>
+  <si>
+    <t>kentucky.com</t>
+  </si>
+  <si>
+    <t>https://www.kentucky.com/betting/article274396300.html</t>
+  </si>
+  <si>
+    <t>legalsportsreport.com</t>
+  </si>
+  <si>
+    <t>https://www.legalsportsreport.com/kentucky/</t>
+  </si>
+  <si>
+    <t>gamingtoday.com</t>
+  </si>
+  <si>
+    <t>https://www.gamingtoday.com/kentucky/#:~:text=will%20be%20soon.-,Gov.,first%20sportsbook%20apps%20to%20launch.</t>
+  </si>
+  <si>
+    <t>betkentucky.com</t>
+  </si>
+  <si>
+    <t>https://www.betkentucky.com/apps</t>
+  </si>
+  <si>
+    <t>casino.org</t>
+  </si>
+  <si>
+    <t>https://www.casino.org/us/ky/#:~:text=No%2C%20you%20cannot%20use%20online,like%20slots%20and%20table%20games.</t>
+  </si>
+  <si>
+    <t>covers.com</t>
+  </si>
+  <si>
+    <t>https://www.covers.com/betting/usa/kentucky</t>
+  </si>
+  <si>
+    <t>betting.us</t>
+  </si>
+  <si>
+    <t>https://www.betting.us/kentucky/</t>
+  </si>
+  <si>
+    <t>oddsshark.com</t>
+  </si>
+  <si>
+    <t>https://www.oddsshark.com/usa/kentucky</t>
+  </si>
+  <si>
+    <t>gambling.com</t>
+  </si>
+  <si>
+    <t>https://www.gambling.com/us/online-casinos/kentucky</t>
+  </si>
+  <si>
+    <t>legaluspokersites.com</t>
+  </si>
+  <si>
+    <t>https://www.legaluspokersites.com/state-laws/kentucky/#:~:text=Online%20poker%20and%20online%20casino,licensed%20and%20regulated%20in%20Kentucky.</t>
+  </si>
+  <si>
+    <t>sportsbettingdime.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsbettingdime.com/us/kentucky/fanduel/#:~:text=Yes%2C%20FanDuel%20is%20currently%20legal%20in%20Kentucky.</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=casino+and+sports+betting+sites+in+kentucky+usa&amp;rlz=1C1KNTJ_enNG1063NG1063&amp;sxsrf=APwXEdf_Xaih6J9T3DMveQdURVqPwdEHwg%3A1687480654920&amp;ei=TumUZKnKNuKpxc8P_uW42AQ&amp;ved=0ahUKEwipqYCok9j_AhXiVPEDHf4yDksQ4dUDCA8&amp;uact=5&amp;oq=casino+and+sports+betting+sites+in+kentucky+usa&amp;gs_lcp=Cgxnd3Mtd2l6LXNlcnAQAzIKCAAQRxDWBBCwAzIKCAAQRxDWBBCwAzIKCAAQRxDWBBCwAzIKCAAQRxDWBBCwAzIKCAAQRxDWBBCwAzIKCAAQRxDWBBCwAzIKCAAQRxDWBBCwAzIKCAAQRxDWBBCwA0oECEEYAFAAWABgoZABaAFwAXgAgAEAiAEAkgEAmAEAwAEByAEI&amp;sclient=gws-wiz-serp#</t>
+  </si>
+  <si>
+    <t>https://www.legalsportsreport.com/kentucky/#:~:text=Yes%2C%20Kentucky%20sports%20betting%20is,in%20the%20state%20officially%20launch.</t>
+  </si>
+  <si>
+    <t>onlinesportsbetting.net</t>
+  </si>
+  <si>
+    <t>https://www.onlinesportsbetting.net/usa/kentucky/</t>
+  </si>
+  <si>
+    <t>basketballinsiders.com</t>
+  </si>
+  <si>
+    <t>https://www.basketballinsiders.com/ky/</t>
+  </si>
+  <si>
+    <t>thesportsgeek.com</t>
+  </si>
+  <si>
+    <t>https://www.thesportsgeek.com/sportsbooks/us/kentucky/</t>
+  </si>
+  <si>
+    <t>https://www.betkentucky.com/</t>
+  </si>
+  <si>
+    <t>compare.bet</t>
+  </si>
+  <si>
+    <t>https://www.compare.bet/en-us/betting/kentucky</t>
+  </si>
+  <si>
+    <t>americangambler.com</t>
+  </si>
+  <si>
+    <t>https://www.americangambler.com/betting_app/kentucky-betting-apps/</t>
+  </si>
+  <si>
+    <t>bettingusa.com</t>
+  </si>
+  <si>
+    <t>https://www.bettingusa.com/states/ky/</t>
+  </si>
+  <si>
+    <t>usatoday.com</t>
+  </si>
+  <si>
+    <t>https://www.usatoday.com/betting/sports/kentucky/sites</t>
+  </si>
+  <si>
+    <t>lineups.com</t>
+  </si>
+  <si>
+    <t>https://www.lineups.com/betting/kentucky-sports-betting/</t>
+  </si>
+  <si>
+    <t>wsn.com</t>
+  </si>
+  <si>
+    <t>https://www.wsn.com/sports-betting-usa/kentucky/</t>
+  </si>
+  <si>
+    <t>realmoneyaction.com</t>
+  </si>
+  <si>
+    <t>https://www.realmoneyaction.com/us-casinos/kentucky/</t>
   </si>
   <si>
     <t>playusa.com</t>
   </si>
   <si>
-    <t>https://www.playusa.com/kentucky/#:~:text=Legal%20online%20gambling%20vs.,a%20licensed%20or%20regulated%20site.</t>
-  </si>
-  <si>
-    <t>newsdirect.com</t>
-  </si>
-  <si>
-    <t>https://www.newsdirect.com/guest-content/best-no-deposit-casinos#:~:text=Red%20Dog%20and%207Bit%20Casino,casino%20reviews%20from%20satisfied%20players.</t>
+    <t>https://www.playusa.com/kentucky/</t>
+  </si>
+  <si>
+    <t>cbssports.com</t>
+  </si>
+  <si>
+    <t>https://www.cbssports.com/general/news/u-s-sports-betting-heres-where-all-50-states-currently-stand-on-legalizing-sports-gambling-betting-sites/</t>
+  </si>
+  <si>
+    <t>usaonlinesportsbooks.com</t>
+  </si>
+  <si>
+    <t>https://www.usaonlinesportsbooks.com/states/kentucky.html</t>
+  </si>
+  <si>
+    <t>https://www.gamingtoday.com/kentucky/</t>
+  </si>
+  <si>
+    <t>actionnetwork.com</t>
+  </si>
+  <si>
+    <t>https://www.actionnetwork.com/news/legal-sports-betting-united-states-projections</t>
+  </si>
+  <si>
+    <t>sportsbetting18.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsbetting18.com/states/ky/</t>
+  </si>
+  <si>
+    <t>outlookindia.com</t>
+  </si>
+  <si>
+    <t>https://www.outlookindia.com/outlook-spotlight/how-to-bet-on-kentucky-derby-from-all-us-states-comprehensive-guide-with-the-top-7-sites-news-283643</t>
+  </si>
+  <si>
+    <t>legalgamblingusa.com</t>
+  </si>
+  <si>
+    <t>https://www.legalgamblingusa.com/states/kentucky-online-gambling.html</t>
+  </si>
+  <si>
+    <t>gamblingsites.com</t>
+  </si>
+  <si>
+    <t>https://www.gamblingsites.com/us/kentucky/</t>
+  </si>
+  <si>
+    <t>online-gambling.com</t>
+  </si>
+  <si>
+    <t>https://www.online-gambling.com/us/kentucky/</t>
+  </si>
+  <si>
+    <t>americangaming.org</t>
+  </si>
+  <si>
+    <t>https://www.americangaming.org/research/state-gaming-map/</t>
+  </si>
+  <si>
+    <t>sportsbookreview.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsbookreview.com/best-sportsbooks/</t>
+  </si>
+  <si>
+    <t>miamiherald.com</t>
+  </si>
+  <si>
+    <t>https://www.miamiherald.com/betting/article260519052.html</t>
+  </si>
+  <si>
+    <t>legalsportsbetting.com</t>
+  </si>
+  <si>
+    <t>https://www.legalsportsbetting.com/kentucky/</t>
+  </si>
+  <si>
+    <t>derbycitygaming.com</t>
+  </si>
+  <si>
+    <t>https://www.derbycitygaming.com/</t>
+  </si>
+  <si>
+    <t>thelines.com</t>
+  </si>
+  <si>
+    <t>https://www.thelines.com/betting/</t>
+  </si>
+  <si>
+    <t>tripadvisor.com</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/Attractions-g28938-Activities-c53-Kentucky.html</t>
+  </si>
+  <si>
+    <t>betus.com.pa</t>
+  </si>
+  <si>
+    <t>https://www.betus.com.pa/</t>
+  </si>
+  <si>
+    <t>legalsportsbettingstates.com</t>
+  </si>
+  <si>
+    <t>https://www.legalsportsbettingstates.com/kentucky/</t>
+  </si>
+  <si>
+    <t>wynnbet.com</t>
+  </si>
+  <si>
+    <t>https://www.wynnbet.com/</t>
+  </si>
+  <si>
+    <t>mytopsportsbooks.com</t>
+  </si>
+  <si>
+    <t>https://www.mytopsportsbooks.com/</t>
+  </si>
+  <si>
+    <t>wcpo.com</t>
+  </si>
+  <si>
+    <t>https://www.wcpo.com/news/local-news/i-team/ohio-casino-regulator-blasts-kentuckys-sports-betting-law</t>
   </si>
   <si>
     <t>oddschecker.com</t>
   </si>
   <si>
-    <t>https://www.oddschecker.com/us/insight/casino/slot-apps-that-pay-real-money</t>
-  </si>
-  <si>
-    <t>realmoneyaction.com</t>
-  </si>
-  <si>
-    <t>https://www.realmoneyaction.com/us-casinos/kentucky/</t>
-  </si>
-  <si>
-    <t>gambling.com</t>
-  </si>
-  <si>
-    <t>https://www.gambling.com/us/online-casinos/kentucky</t>
-  </si>
-  <si>
-    <t>thesportsgeek.com</t>
-  </si>
-  <si>
-    <t>https://www.thesportsgeek.com/online-casinos/kentucky/</t>
-  </si>
-  <si>
-    <t>nodepositneeded.com</t>
-  </si>
-  <si>
-    <t>https://www.nodepositneeded.com/kentucky-online-casinos/</t>
-  </si>
-  <si>
-    <t>basketballinsiders.com</t>
-  </si>
-  <si>
-    <t>https://www.basketballinsiders.com/online-casinos/ky/</t>
-  </si>
-  <si>
-    <t>casino.org</t>
-  </si>
-  <si>
-    <t>https://www.casino.org/us/ky/</t>
-  </si>
-  <si>
-    <t>casinousa.com</t>
-  </si>
-  <si>
-    <t>https://www.casinousa.com/states/kentucky</t>
-  </si>
-  <si>
-    <t>techopedia.com</t>
-  </si>
-  <si>
-    <t>https://www.techopedia.com/gambling/kentucky/online-casinos</t>
-  </si>
-  <si>
-    <t>usatoday.com</t>
-  </si>
-  <si>
-    <t>https://www.usatoday.com/betting/casinos/no-deposit-bonus</t>
-  </si>
-  <si>
-    <t>vegasslotsonline.com</t>
-  </si>
-  <si>
-    <t>https://www.vegasslotsonline.com/country/usa/kentucky/</t>
+    <t>https://www.oddschecker.com/us/insight/specials/20230331-kentucky-sports-betting-bill-passed-in-kentucky-to-legalize-sports-betting</t>
+  </si>
+  <si>
+    <t>fanduel.com</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/</t>
+  </si>
+  <si>
+    <t>twinspires.com</t>
+  </si>
+  <si>
+    <t>https://www.twinspires.com/sports</t>
+  </si>
+  <si>
+    <t>forbes.com</t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/sites/willyakowicz/2023/06/15/where-is-sports-betting-legal-america-2022/</t>
+  </si>
+  <si>
+    <t>analyticsinsight.net</t>
+  </si>
+  <si>
+    <t>https://www.analyticsinsight.net/how-to-bet-on-kentucky-derby-top-10-sites-accepting-wagers-from-every-us-state/</t>
+  </si>
+  <si>
+    <t>olbg.com</t>
+  </si>
+  <si>
+    <t>https://www.olbg.com/us/sportsbooks</t>
+  </si>
+  <si>
+    <t>nj.com</t>
+  </si>
+  <si>
+    <t>https://www.nj.com/betting/online-sports-betting/best-sports-betting-sites-usa.html</t>
+  </si>
+  <si>
+    <t>unitedstatesgamblingonline.com</t>
+  </si>
+  <si>
+    <t>https://www.unitedstatesgamblingonline.com/kentucky/laws/</t>
   </si>
   <si>
     <t>bestuscasinos.org</t>
@@ -139,592 +379,802 @@
     <t>https://www.bestuscasinos.org/legal/kentucky/</t>
   </si>
   <si>
+    <t>https://www.sportsbettingdime.com/</t>
+  </si>
+  <si>
+    <t>wbko.com</t>
+  </si>
+  <si>
+    <t>https://www.wbko.com/video/2023/03/31/sports-betting-now-legal-kentucky-how-will-it-affect-gaming-halls/</t>
+  </si>
+  <si>
+    <t>churchilldownsincorporated.com</t>
+  </si>
+  <si>
+    <t>https://www.churchilldownsincorporated.com/resources/company-update/churchill-downs-incorporated-enters-into-agreement-with-bet365-to-offer-online-sports-betting-and-igaming-in-pennsylvania/</t>
+  </si>
+  <si>
+    <t>bovada.lv</t>
+  </si>
+  <si>
+    <t>https://www.bovada.lv/</t>
+  </si>
+  <si>
+    <t>theplaidhorse.com</t>
+  </si>
+  <si>
+    <t>https://www.theplaidhorse.com/2023/06/22/online-sports-betting-in-kentucky-the-beating-heart-of-horse-racing-caesars-partners-with-two-historic-racetracks-ahead-of-their-official-launch-in-the-state/</t>
+  </si>
+  <si>
+    <t>courier-journal.com</t>
+  </si>
+  <si>
+    <t>https://www.courier-journal.com/story/news/politics/ky-general-assembly/2022/03/17/kentucky-general-assembly-gambling-sports-pari-mutuel-wagering/7060142001/</t>
+  </si>
+  <si>
+    <t>riversidecasinoandresort.com</t>
+  </si>
+  <si>
+    <t>https://www.riversidecasinoandresort.com/elitesportsbook.html</t>
+  </si>
+  <si>
+    <t>sportsbetrhodeisland.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsbetrhodeisland.com/sports</t>
+  </si>
+  <si>
+    <t>espn.com</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/chalk/story/_/id/19740480/the-united-states-sports-betting-where-all-50-states-stand-legalization</t>
+  </si>
+  <si>
+    <t>gamblingnews.com</t>
+  </si>
+  <si>
+    <t>https://www.gamblingnews.com/news/kentucky-horse-racing-commission-drafts-sports-betting-regulations/</t>
+  </si>
+  <si>
+    <t>nytimes.com</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2022/11/20/business/sports-betting-lobbying-kansas.html</t>
+  </si>
+  <si>
+    <t>investopedia.com</t>
+  </si>
+  <si>
+    <t>https://www.investopedia.com/top-sports-betting-stocks-q2-2023-7501118</t>
+  </si>
+  <si>
+    <t>onlineunitedstatescasinos.com</t>
+  </si>
+  <si>
+    <t>https://www.onlineunitedstatescasinos.com/states/kentucky-gambling/</t>
+  </si>
+  <si>
+    <t>gambleonline.co</t>
+  </si>
+  <si>
+    <t>https://www.gambleonline.co/usa/kentucky/</t>
+  </si>
+  <si>
+    <t>yelp.com</t>
+  </si>
+  <si>
+    <t>https://www.yelp.com/search?cflt=sportsbetting&amp;find_loc=Louisville%2C+KY</t>
+  </si>
+  <si>
+    <t>caesars.com</t>
+  </si>
+  <si>
+    <t>https://www.caesars.com/sportsbook-and-casino</t>
+  </si>
+  <si>
+    <t>paysbig.com</t>
+  </si>
+  <si>
+    <t>https://www.paysbig.com/casino/sportsbook</t>
+  </si>
+  <si>
+    <t>soaringeaglecasino.com</t>
+  </si>
+  <si>
+    <t>https://www.soaringeaglecasino.com/iGaming/ascend-sportsbook.html</t>
+  </si>
+  <si>
+    <t>wdrb.com</t>
+  </si>
+  <si>
+    <t>https://www.wdrb.com/news/business/a-nice-bonus-churchill-downs-lays-out-plan-for-kentucky-sports-betting/article_2e3b7528-e51f-11ed-97a3-939ae0ca354f.html</t>
+  </si>
+  <si>
+    <t>kansascity.com</t>
+  </si>
+  <si>
+    <t>https://www.kansascity.com/betting/article261739587.html</t>
+  </si>
+  <si>
     <t>gamblingsites.org</t>
   </si>
   <si>
     <t>https://www.gamblingsites.org/casino/us/kentucky/</t>
   </si>
   <si>
-    <t>bookmakersreview.com</t>
-  </si>
-  <si>
-    <t>https://www.bookmakersreview.com/ky/online-casinos/</t>
-  </si>
-  <si>
-    <t>business2community.com</t>
-  </si>
-  <si>
-    <t>https://www.business2community.com/gambling/kentucky-online-casinos</t>
-  </si>
-  <si>
-    <t>gamblingsites.com</t>
-  </si>
-  <si>
-    <t>https://www.gamblingsites.com/us/kentucky/</t>
-  </si>
-  <si>
-    <t>bonus.com</t>
-  </si>
-  <si>
-    <t>https://www.bonus.com/</t>
-  </si>
-  <si>
-    <t>bonusfinder.com</t>
-  </si>
-  <si>
-    <t>https://www.bonusfinder.com/casino-bonus/no-deposit</t>
-  </si>
-  <si>
-    <t>legalsportsreport.com</t>
-  </si>
-  <si>
-    <t>https://www.legalsportsreport.com/nj/casino/</t>
-  </si>
-  <si>
-    <t>uspoker.com</t>
-  </si>
-  <si>
-    <t>https://www.uspoker.com/minimum-deposit-casinos/</t>
-  </si>
-  <si>
-    <t>gamingtoday.com</t>
-  </si>
-  <si>
-    <t>https://www.gamingtoday.com/bonus/</t>
-  </si>
-  <si>
-    <t>lineups.com</t>
-  </si>
-  <si>
-    <t>https://www.lineups.com/betting/golden-nugget-bonus-code/</t>
-  </si>
-  <si>
-    <t>covers.com</t>
-  </si>
-  <si>
-    <t>https://www.covers.com/casino</t>
-  </si>
-  <si>
-    <t>onlineunitedstatescasinos.com</t>
-  </si>
-  <si>
-    <t>https://www.onlineunitedstatescasinos.com/bonuses/no-deposit/</t>
+    <t>tn.gov</t>
+  </si>
+  <si>
+    <t>https://www.tn.gov/swac/licensees-registrants.html</t>
+  </si>
+  <si>
+    <t>washingtonpost.com</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/sports/2022/08/29/sports-betting-laws-by-state/</t>
+  </si>
+  <si>
+    <t>14news.com</t>
+  </si>
+  <si>
+    <t>https://www.14news.com/2023/04/02/sports-betting-is-legal-kentucky-what-you-need-know/</t>
+  </si>
+  <si>
+    <t>amnews.com</t>
+  </si>
+  <si>
+    <t>https://www.amnews.com/2022/03/02/time-to-legalize-sports-betting-in-kentucky/</t>
+  </si>
+  <si>
+    <t>500nations.com</t>
+  </si>
+  <si>
+    <t>https://www.500nations.com/Kentucky_Casinos.asp</t>
+  </si>
+  <si>
+    <t>wkyt.com</t>
+  </si>
+  <si>
+    <t>https://www.wkyt.com/video/2023/06/20/warhorse-casino-sports-betting-opens-thursday-lincoln/</t>
+  </si>
+  <si>
+    <t>beernews.se</t>
+  </si>
+  <si>
+    <t>https://www.beernews.se/wp-content/redirect.php?creative_id=174&amp;ad_id=79&amp;redirect_link=//slots-wizard-of-oz-community-itzno.germany-spielautomaten.ru</t>
+  </si>
+  <si>
+    <t>youtube.com</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IHhp7ZKZtB8</t>
+  </si>
+  <si>
+    <t>eluniversal.com.co</t>
+  </si>
+  <si>
+    <t>https://www.eluniversal.com.co/user-portlet/refreshuserentitlements?redirect=https://online-casino-echtgeld-empfehlung-wildz-iuskp.casino-spielautomaten.store</t>
+  </si>
+  <si>
+    <t>wymt.com</t>
+  </si>
+  <si>
+    <t>https://www.wymt.com/video/2023/06/20/warhorse-casino-sports-betting-opens-thursday-lincoln/</t>
+  </si>
+  <si>
+    <t>usbets.com</t>
+  </si>
+  <si>
+    <t>https://www.usbets.com/sports-betting/</t>
+  </si>
+  <si>
+    <t>wralsportsfan.com</t>
+  </si>
+  <si>
+    <t>https://www.wralsportsfan.com/sports-gambling-comes-to-catawba-two-kings-casino/20464115/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?rlz=1C1KNTJ_enNG1063NG1063&amp;sxsrf=APwXEdf45zFtbg4UQ91_boq9UntIRzvm6Q:1687481341694&amp;q=sport+sites+and+blogs+in+kentucky+%22usa%22&amp;sa=X&amp;ved=2ahUKEwiv1r7vldj_AhVBEFkFHf3JDF4Q5t4CegQIERAB</t>
+  </si>
+  <si>
+    <t>websitebuilderexpert.com</t>
+  </si>
+  <si>
+    <t>https://www.websitebuilderexpert.com/building-websites/how-to-start-a-sports-blog/</t>
+  </si>
+  <si>
+    <t>worldatlas.com</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/states-without-professional-sports-teams.html#:~:text=Although%20Kentucky%20does%20not%20have,top%20teams%20in%20college%20basketball.</t>
+  </si>
+  <si>
+    <t>aseaofblue.com</t>
+  </si>
+  <si>
+    <t>https://www.aseaofblue.com/</t>
+  </si>
+  <si>
+    <t>https://www.kentucky.com/sports/college/kentucky-sports/</t>
+  </si>
+  <si>
+    <t>on3.com</t>
+  </si>
+  <si>
+    <t>https://www.on3.com/teams/kentucky-wildcats/</t>
+  </si>
+  <si>
+    <t>secsports.com</t>
+  </si>
+  <si>
+    <t>https://www.secsports.com/school/kentucky-wildcats</t>
+  </si>
+  <si>
+    <t>visitlex.com</t>
+  </si>
+  <si>
+    <t>https://www.visitlex.com/meetings/intellectual-capital/sports/</t>
+  </si>
+  <si>
+    <t>https://www.courier-journal.com/</t>
+  </si>
+  <si>
+    <t>wlky.com</t>
+  </si>
+  <si>
+    <t>https://www.wlky.com/</t>
+  </si>
+  <si>
+    <t>bellarmine.edu</t>
+  </si>
+  <si>
+    <t>https://www.bellarmine.edu/</t>
+  </si>
+  <si>
+    <t>https://www.betting.us/kentucky/louisville/</t>
+  </si>
+  <si>
+    <t>natsoutdoor.com</t>
+  </si>
+  <si>
+    <t>https://www.natsoutdoor.com/</t>
+  </si>
+  <si>
+    <t>https://www.casino.org/us/ky/sports-betting/</t>
+  </si>
+  <si>
+    <t>sbnation.com</t>
+  </si>
+  <si>
+    <t>https://www.sbnation.com/blogs</t>
+  </si>
+  <si>
+    <t>bgdailynews.com</t>
+  </si>
+  <si>
+    <t>https://www.bgdailynews.com/sports/wku/</t>
+  </si>
+  <si>
+    <t>https://www.wdrb.com/</t>
+  </si>
+  <si>
+    <t>midway.edu</t>
+  </si>
+  <si>
+    <t>https://www.midway.edu/</t>
+  </si>
+  <si>
+    <t>gotrcentralky.org</t>
+  </si>
+  <si>
+    <t>https://www.gotrcentralky.org/news</t>
+  </si>
+  <si>
+    <t>barstoolsports.com</t>
+  </si>
+  <si>
+    <t>https://www.barstoolsports.com/topics/kentucky</t>
+  </si>
+  <si>
+    <t>agilitypr.com</t>
+  </si>
+  <si>
+    <t>https://www.agilitypr.com/resources/top-media-outlets/top-10-kentucky-daily-newspapers-by-circulation/</t>
+  </si>
+  <si>
+    <t>nationofblue.com</t>
+  </si>
+  <si>
+    <t>https://www.nationofblue.com/</t>
+  </si>
+  <si>
+    <t>usef.org</t>
+  </si>
+  <si>
+    <t>https://www.usef.org/</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/</t>
+  </si>
+  <si>
+    <t>visitbgky.com</t>
+  </si>
+  <si>
+    <t>https://www.visitbgky.com/</t>
+  </si>
+  <si>
+    <t>ucumberlands.edu</t>
+  </si>
+  <si>
+    <t>https://www.ucumberlands.edu/</t>
+  </si>
+  <si>
+    <t>https://www.kansascity.com/sports/spt-columns-blogs/vahe-gregorian/article274755691.html</t>
+  </si>
+  <si>
+    <t>frankfort.ky.gov</t>
+  </si>
+  <si>
+    <t>https://www.frankfort.ky.gov/rss.aspx</t>
+  </si>
+  <si>
+    <t>orthopedicandsportsspecialists.com</t>
+  </si>
+  <si>
+    <t>https://www.orthopedicandsportsspecialists.com/blog.html</t>
+  </si>
+  <si>
+    <t>baptisthealth.com</t>
+  </si>
+  <si>
+    <t>https://www.baptisthealth.com/</t>
+  </si>
+  <si>
+    <t>bgky.org</t>
+  </si>
+  <si>
+    <t>https://www.bgky.org/bgpr/athletics</t>
+  </si>
+  <si>
+    <t>https://www.wcpo.com/</t>
+  </si>
+  <si>
+    <t>espnlouisville.com</t>
+  </si>
+  <si>
+    <t>https://www.espnlouisville.com/</t>
+  </si>
+  <si>
+    <t>sportingnews.com</t>
+  </si>
+  <si>
+    <t>https://www.sportingnews.com/us</t>
+  </si>
+  <si>
+    <t>bleachernation.com</t>
+  </si>
+  <si>
+    <t>https://www.bleachernation.com/kentucky-online-sports-betting/</t>
+  </si>
+  <si>
+    <t>https://www.cbssports.com/</t>
+  </si>
+  <si>
+    <t>churchilldowns.com</t>
+  </si>
+  <si>
+    <t>https://www.churchilldowns.com/</t>
+  </si>
+  <si>
+    <t>https://www.thelines.com/kentucky-ky-sports-betting-regulations-kentucky-horse-racing-commission-jonathan-rabinowitz-khrc-2023/</t>
+  </si>
+  <si>
+    <t>jefferson.kyschools.us</t>
+  </si>
+  <si>
+    <t>https://www.jefferson.kyschools.us/schools/profiles/noe</t>
+  </si>
+  <si>
+    <t>specialolympics.org</t>
+  </si>
+  <si>
+    <t>https://www.specialolympics.org/programs/united-states/kentucky</t>
+  </si>
+  <si>
+    <t>kentuckyfootdoctor.com</t>
+  </si>
+  <si>
+    <t>https://www.kentuckyfootdoctor.com/</t>
+  </si>
+  <si>
+    <t>daveandbusters.com</t>
+  </si>
+  <si>
+    <t>https://www.daveandbusters.com/us/en/about/locations/louisville</t>
+  </si>
+  <si>
+    <t>kentuckybb.com</t>
+  </si>
+  <si>
+    <t>https://www.kentuckybb.com/Blog/</t>
+  </si>
+  <si>
+    <t>pulaskigov.com</t>
+  </si>
+  <si>
+    <t>https://www.pulaskigov.com/</t>
+  </si>
+  <si>
+    <t>cincinnati.com</t>
+  </si>
+  <si>
+    <t>https://www.cincinnati.com/</t>
+  </si>
+  <si>
+    <t>meetnky.com</t>
+  </si>
+  <si>
+    <t>https://www.meetnky.com/listing/sports-of-all-sorts/4087/</t>
+  </si>
+  <si>
+    <t>21cmuseumhotels.com</t>
+  </si>
+  <si>
+    <t>https://www.21cmuseumhotels.com/louisville/</t>
+  </si>
+  <si>
+    <t>gotolouisville.com</t>
+  </si>
+  <si>
+    <t>https://www.gotolouisville.com/things-to-do/</t>
+  </si>
+  <si>
+    <t>kysportsreport.com</t>
+  </si>
+  <si>
+    <t>http://www.kysportsreport.com/forums/forum.php</t>
+  </si>
+  <si>
+    <t>nashvillepost.com</t>
+  </si>
+  <si>
+    <t>https://www.nashvillepost.com/sports_business/former-ec-ceo-buys-kentucky-sports-radio-website/article_287a6570-4919-55f7-af27-e7b1f092447e.html</t>
+  </si>
+  <si>
+    <t>kentuckyderby.com</t>
+  </si>
+  <si>
+    <t>https://www.kentuckyderby.com/history/kentucky-derby-history</t>
+  </si>
+  <si>
+    <t>va.gov</t>
+  </si>
+  <si>
+    <t>https://www.va.gov/directory/guide/state.asp?STATE=KY&amp;dnum=ALL</t>
+  </si>
+  <si>
+    <t>coulterreporting.com</t>
+  </si>
+  <si>
+    <t>https://www.coulterreporting.com/sports-teams-in-louisville-ky/</t>
+  </si>
+  <si>
+    <t>kentuckynewera.com</t>
+  </si>
+  <si>
+    <t>https://www.kentuckynewera.com/web/sports/</t>
+  </si>
+  <si>
+    <t>ford.com</t>
+  </si>
+  <si>
+    <t>https://www.ford.com/</t>
+  </si>
+  <si>
+    <t>kentucky-horsewear.com</t>
+  </si>
+  <si>
+    <t>https://www.kentucky-horsewear.com/us-en/</t>
+  </si>
+  <si>
+    <t>sluggermuseum.com</t>
+  </si>
+  <si>
+    <t>https://www.sluggermuseum.com/homepage</t>
+  </si>
+  <si>
+    <t>paulmillerford.com</t>
+  </si>
+  <si>
+    <t>https://www.paulmillerford.com/blogs/2391/lexington-ford-dealer/kentuckys-football-season-better-with-a-ford-truck/</t>
+  </si>
+  <si>
+    <t>https://www.legalsportsreport.com/sports-betting/</t>
+  </si>
+  <si>
+    <t>skysports.com</t>
+  </si>
+  <si>
+    <t>https://www.skysports.com/</t>
+  </si>
+  <si>
+    <t>kentuckythreedayevent.com</t>
+  </si>
+  <si>
+    <t>https://www.kentuckythreedayevent.com/</t>
+  </si>
+  <si>
+    <t>unk.edu</t>
+  </si>
+  <si>
+    <t>https://www.unk.edu/</t>
+  </si>
+  <si>
+    <t>bluegrassrivals.com</t>
+  </si>
+  <si>
+    <t>http://www.bluegrassrivals.com/forum/</t>
+  </si>
+  <si>
+    <t>yardbarker.com</t>
+  </si>
+  <si>
+    <t>https://www.yardbarker.com/college_football/articles/kentucky_lands_commitment_from_2024_3_star_athlete_jiquavious_marshall/s1_17088_38942866</t>
+  </si>
+  <si>
+    <t>pro-football-reference.com</t>
+  </si>
+  <si>
+    <t>https://www.pro-football-reference.com/friv/birthplaces.cgi?country=USA&amp;state=KY</t>
+  </si>
+  <si>
+    <t>eku.edu</t>
+  </si>
+  <si>
+    <t>https://www.eku.edu/</t>
+  </si>
+  <si>
+    <t>bluegrasssports.org</t>
+  </si>
+  <si>
+    <t>http://www.bluegrasssports.org/</t>
+  </si>
+  <si>
+    <t>wave3.com</t>
+  </si>
+  <si>
+    <t>https://www.wave3.com/2023/06/21/baby-surrendered-louisville-safe-haven-baby-box/</t>
+  </si>
+  <si>
+    <t>k105.com</t>
+  </si>
+  <si>
+    <t>https://www.k105.com/2023/06/22/kentucky-to-stay-in-voter-fraud-system-for-another-year-while-seeking-alternatives/</t>
+  </si>
+  <si>
+    <t>transy.edu</t>
+  </si>
+  <si>
+    <t>https://www.transy.edu/</t>
+  </si>
+  <si>
+    <t>catscoverage.com</t>
+  </si>
+  <si>
+    <t>https://www.catscoverage.com/</t>
+  </si>
+  <si>
+    <t>wpsdlocal6.com</t>
+  </si>
+  <si>
+    <t>https://www.wpsdlocal6.com/ott/louisville-shooters-parents-speak-out-in-interview-with-today/video_166f183a-e526-11ed-a6e2-738709cbef9f.html</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=sports+teams+and+sport+blogs+in+kentucky+usa&amp;rlz=1C1KNTJ_enNG1063NG1063&amp;sxsrf=APwXEdf45zFtbg4UQ91_boq9UntIRzvm6Q%3A1687481341694&amp;ei=_euUZO_jKcGg5NoP_ZOz8AU&amp;ved=0ahUKEwiv1r7vldj_AhVBEFkFHf3JDF4Q4dUDCBA&amp;uact=5&amp;oq=sports+teams+and+sport+blogs+in+kentucky+usa&amp;gs_lcp=Cgxnd3Mtd2l6LXNlcnAQAzIICCEQoAEQwwQyCAghEKABEMMEMggIIRCgARDDBDIICCEQoAEQwwQyCAghEKABEMMEOgUIABCiBDoKCCEQoAEQwwQQCkoECEEYAFAAWKHRAWDp4QFoAHABeAGAAeASiAGwd5IBEDItMi4xNi42LTEuMC4xLjOYAQCgAQHAAQE&amp;sclient=gws-wiz-serp#</t>
+  </si>
+  <si>
+    <t>https://www.wdrb.com/sports/</t>
+  </si>
+  <si>
+    <t>oxmoorflm.com</t>
+  </si>
+  <si>
+    <t>https://www.oxmoorflm.com/blog/top-sports-teams-in-louisville-ky/</t>
+  </si>
+  <si>
+    <t>niche.com</t>
+  </si>
+  <si>
+    <t>https://www.niche.com/colleges/search/best-college-athletics/s/kentucky/</t>
+  </si>
+  <si>
+    <t>facebook.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/p/Rick-Bozich-Sports-Columnist-The-Courier-Journal-100066422712831/</t>
+  </si>
+  <si>
+    <t>https://www.yelp.com/search?find_desc=Amateur+Sports+Teams&amp;find_loc=Louisville%2C+KY</t>
+  </si>
+  <si>
+    <t>https://www.bgky.org/bgpr/special-populations</t>
+  </si>
+  <si>
+    <t>kentuckypress.com</t>
+  </si>
+  <si>
+    <t>https://www.kentuckypress.com/9780813155470/integrated</t>
+  </si>
+  <si>
+    <t>instagram.com</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kysuathletics/?hl=en</t>
+  </si>
+  <si>
+    <t>mvmlaw.com</t>
+  </si>
+  <si>
+    <t>https://www.mvmlaw.com/kentucky-sports-injury-lawyer/</t>
+  </si>
+  <si>
+    <t>https://www.visitbgky.com/events/sports-recreation/</t>
+  </si>
+  <si>
+    <t>https://www.wave3.com/2023/05/05/blog-wave-news-team-coverage-kentucky-oaks-149/</t>
+  </si>
+  <si>
+    <t>teamworks.com</t>
+  </si>
+  <si>
+    <t>https://www.teamworks.com/</t>
+  </si>
+  <si>
+    <t>linkedin.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/michaelaclay</t>
+  </si>
+  <si>
+    <t>salary.com</t>
+  </si>
+  <si>
+    <t>https://www.salary.com/research/salary/hiring/sports-marketing-salary/ky</t>
+  </si>
+  <si>
+    <t>lgbtmap.org</t>
+  </si>
+  <si>
+    <t>https://www.lgbtmap.org/equality-maps/youth/sports_participation_bans</t>
+  </si>
+  <si>
+    <t>teamimpact.org</t>
+  </si>
+  <si>
+    <t>https://www.teamimpact.org/</t>
+  </si>
+  <si>
+    <t>pinterest.com</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/pin/kentucky-basketball--2533343514501686/</t>
+  </si>
+  <si>
+    <t>i9sports.com</t>
+  </si>
+  <si>
+    <t>https://www.i9sports.com/venues/northern-kentucky-mary-queen-of-heaven-school-youth-sports-programs/6511</t>
+  </si>
+  <si>
+    <t>kysportsstyle.com</t>
+  </si>
+  <si>
+    <t>https://www.kysportsstyle.com/about</t>
+  </si>
+  <si>
+    <t>visitcincy.com</t>
+  </si>
+  <si>
+    <t>https://www.visitcincy.com/things-to-do/sports/professional/</t>
+  </si>
+  <si>
+    <t>https://www.usatoday.com/betting/sports/kentucky/promos</t>
+  </si>
+  <si>
+    <t>https://www.gotolouisville.com/meeting-planners/sports-events/</t>
+  </si>
+  <si>
+    <t>lanereport.com</t>
+  </si>
+  <si>
+    <t>https://www.lanereport.com/140181/2021/04/one-on-one-the-business-of-sports-in-kentucky/</t>
+  </si>
+  <si>
+    <t>atyourownrisk.org</t>
+  </si>
+  <si>
+    <t>https://www.atyourownrisk.org/advocacy/kentucky</t>
+  </si>
+  <si>
+    <t>game-one.com</t>
+  </si>
+  <si>
+    <t>https://www.game-one.com/</t>
+  </si>
+  <si>
+    <t>skyhawks.com</t>
+  </si>
+  <si>
+    <t>https://www.skyhawks.com/activity/multi-sport/multi-sport-baseball-basketball-soccer/boone-county-parks/KY+union+41094/117199/</t>
   </si>
   <si>
     <t>saturdaydownsouth.com</t>
   </si>
   <si>
-    <t>https://www.saturdaydownsouth.com/wv-online-casino/bonuses/</t>
-  </si>
-  <si>
-    <t>gaming.net</t>
-  </si>
-  <si>
-    <t>https://www.gaming.net/kentucky/</t>
-  </si>
-  <si>
-    <t>amny.com</t>
-  </si>
-  <si>
-    <t>https://www.amny.com/sports/how-to-bet-the-2023-kentucky-derby-online-best-apps-signup-bonuses/</t>
-  </si>
-  <si>
-    <t>actionnetwork.com</t>
-  </si>
-  <si>
-    <t>https://www.actionnetwork.com/legal-online-sports-betting/the-5-best-2023-kentucky-derby-sign-up-bonus-offers-promo-codes</t>
-  </si>
-  <si>
-    <t>penny-slot-machines.com</t>
-  </si>
-  <si>
-    <t>https://www.penny-slot-machines.com/usa-casinos/kentucky.html</t>
-  </si>
-  <si>
-    <t>eluniversal.com.co</t>
-  </si>
-  <si>
-    <t>https://www.eluniversal.com.co/user-portlet/refreshuserentitlements?redirect=https://pklt.ru/cricket/vulkan-bet-darmowe-spiny-bvwume.html</t>
-  </si>
-  <si>
-    <t>kentucky.com</t>
-  </si>
-  <si>
-    <t>https://www.kentucky.com/betting/article274396485.html</t>
-  </si>
-  <si>
-    <t>gambledex.com</t>
-  </si>
-  <si>
-    <t>https://www.gambledex.com/casinos-usa/kentucky-casinos/</t>
-  </si>
-  <si>
-    <t>playpennsylvania.com</t>
-  </si>
-  <si>
-    <t>https://www.playpennsylvania.com/bonus/</t>
-  </si>
-  <si>
-    <t>wtkr.com</t>
-  </si>
-  <si>
-    <t>https://www.wtkr.com/brand-spotlight/no-deposit-bonus-casinos</t>
-  </si>
-  <si>
-    <t>psucollegian.com</t>
-  </si>
-  <si>
-    <t>https://www.psucollegian.com/forstudents/best-online-casino-bonuses/article_764f3fbc-0cfc-11ed-8e38-bff36d5022ae.html</t>
-  </si>
-  <si>
-    <t>https://www.kentucky.com/betting/article274396440.html</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?q=betting+blogs+in+kentucky&amp;sxsrf=APwXEdf-fopUa8AF3QNaKR_LkKwpMZPi4A%3A1687196539872&amp;ei=e5OQZL7qNK6k5NoPrvyZoAg&amp;ved=0ahUKEwj-k7Pz8M__AhUuElkFHS5-BoQQ4dUDCBE&amp;uact=5&amp;oq=betting+blogs+in+kentucky&amp;gs_lcp=Cgxnd3Mtd2l6LXNlcnAQAzIICAAQogQQiwMyCAgAEKIEEIsDMggIABCiBBCLAzoECAAQRzoNCC4QigUQxwEQrwEQQzoHCAAQigUQQzoOCAAQigUQsQMQgwEQkQI6CAgAEIoFEJECOgsILhCKBRCxAxCRAjoGCAAQBxAeOgcIABANEIAEOggIABAIEAcQHjoICCEQoAEQwwQ6CwghEKABEMMEEIsDSgQIQRgAUM5PWM60AWCd_QFoAXACeAGAAa0GiAH2O5IBCjMtMTMuMS4zLjGYAQCgAQG4AQPAAQHIAQg&amp;sclient=gws-wiz-serp#</t>
-  </si>
-  <si>
-    <t>https://www.legalsportsreport.com/kentucky/#:~:text=Yes%2C%20Kentucky%20sports%20betting%20is,in%20the%20state%20officially%20launch.</t>
-  </si>
-  <si>
-    <t>thesurebettor.com</t>
-  </si>
-  <si>
-    <t>https://www.thesurebettor.com/tricks-to-beat-bookies/</t>
-  </si>
-  <si>
-    <t>https://www.gaming.net/kentucky-sports-betting/</t>
-  </si>
-  <si>
-    <t>https://www.covers.com/betting/usa/kentucky</t>
-  </si>
-  <si>
-    <t>betkentucky.com</t>
-  </si>
-  <si>
-    <t>https://www.betkentucky.com/</t>
-  </si>
-  <si>
-    <t>sportsbookreview.com</t>
-  </si>
-  <si>
-    <t>https://www.sportsbookreview.com/best-sportsbooks-kentucky/</t>
-  </si>
-  <si>
-    <t>rotowire.com</t>
-  </si>
-  <si>
-    <t>https://www.rotowire.com/betting/kentucky</t>
-  </si>
-  <si>
-    <t>https://www.usatoday.com/betting/sports/kentucky/apps</t>
-  </si>
-  <si>
-    <t>https://www.actionnetwork.com/online-sports-betting/kentucky</t>
-  </si>
-  <si>
-    <t>thelines.com</t>
-  </si>
-  <si>
-    <t>https://www.thelines.com/kentucky/</t>
-  </si>
-  <si>
-    <t>https://www.gambling.com/us/sports-betting/kentucky</t>
-  </si>
-  <si>
-    <t>wdrb.com</t>
-  </si>
-  <si>
-    <t>https://www.wdrb.com/news/business/how-kentucky-gave-horse-tracks-an-infinite-return-with-sports-betting-law/article_0cda9670-f677-11ed-bbeb-7bee5db9b391.html</t>
-  </si>
-  <si>
-    <t>https://www.saturdaydownsouth.com/sports-betting/kentucky/</t>
-  </si>
-  <si>
-    <t>vegasinsider.com</t>
-  </si>
-  <si>
-    <t>https://www.vegasinsider.com/sportsbooks/kentucky/</t>
-  </si>
-  <si>
-    <t>kentuckyderby.com</t>
-  </si>
-  <si>
-    <t>https://www.kentuckyderby.com/blog</t>
-  </si>
-  <si>
-    <t>wkyt.com</t>
-  </si>
-  <si>
-    <t>https://www.wkyt.com/2023/03/14/sports-betting-bill-passes-ky-house-advances-senate/</t>
-  </si>
-  <si>
-    <t>wave3.com</t>
-  </si>
-  <si>
-    <t>https://www.wave3.com/2023/03/15/kentucky-sports-betting-clears-key-legislative-hurdle/</t>
-  </si>
-  <si>
-    <t>wagertalk.com</t>
-  </si>
-  <si>
-    <t>https://www.wagertalk.com/news/sportsbook-bonuses/is-sports-betting-legal-in-kentucky/</t>
-  </si>
-  <si>
-    <t>https://www.thesportsgeek.com/sportsbooks/us/kentucky/</t>
-  </si>
-  <si>
-    <t>on3.com</t>
-  </si>
-  <si>
-    <t>https://www.on3.com/teams/kentucky-wildcats/news/kentucky-sports-betting-signed-into-law-when-can-you-bet-on-games/</t>
-  </si>
-  <si>
-    <t>sportsbettingdime.com</t>
-  </si>
-  <si>
-    <t>https://www.sportsbettingdime.com/us/kentucky/</t>
-  </si>
-  <si>
-    <t>youtube.com</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=esaj1OPkGig</t>
-  </si>
-  <si>
-    <t>outlookindia.com</t>
-  </si>
-  <si>
-    <t>https://www.outlookindia.com/outlook-spotlight/how-to-bet-on-kentucky-derby-from-all-us-states-comprehensive-guide-with-the-top-7-sites-news-283643</t>
-  </si>
-  <si>
-    <t>betting.us</t>
-  </si>
-  <si>
-    <t>https://www.betting.us/kentucky/</t>
-  </si>
-  <si>
-    <t>courier-journal.com</t>
-  </si>
-  <si>
-    <t>https://www.courier-journal.com/story/news/politics/2023/03/30/kentucky-senate-passes-bill-legalizing-sports-betting-sends-to-beshear/70062224007/</t>
-  </si>
-  <si>
-    <t>fantasylabs.com</t>
-  </si>
-  <si>
-    <t>https://www.fantasylabs.com/articles/best-kentucky-derby-betting-sites/</t>
-  </si>
-  <si>
-    <t>americangambler.com</t>
-  </si>
-  <si>
-    <t>https://www.americangambler.com/betting_app/kentucky-betting-apps/</t>
-  </si>
-  <si>
-    <t>https://www.oddschecker.com/us/insight/specials/20230331-kentucky-sports-betting-bill-passed-in-kentucky-to-legalize-sports-betting</t>
-  </si>
-  <si>
-    <t>https://www.basketballinsiders.com/ky/betting-apps/</t>
-  </si>
-  <si>
-    <t>geocomply.com</t>
-  </si>
-  <si>
-    <t>https://www.geocomply.com/news/geocomply-data-drives-the-sports-betting-debate-in-kentucky/</t>
-  </si>
-  <si>
-    <t>wsn.com</t>
-  </si>
-  <si>
-    <t>https://www.wsn.com/sports-betting-usa/kentucky/</t>
-  </si>
-  <si>
-    <t>miamiherald.com</t>
-  </si>
-  <si>
-    <t>https://www.miamiherald.com/betting/article260519052.html</t>
-  </si>
-  <si>
-    <t>https://www.casino.org/us/ky/sports-betting/</t>
-  </si>
-  <si>
-    <t>bleachernation.com</t>
-  </si>
-  <si>
-    <t>https://www.bleachernation.com/kentucky-online-sports-betting/</t>
-  </si>
-  <si>
-    <t>newsweek.com</t>
-  </si>
-  <si>
-    <t>https://www.newsweek.com/how-bet-kentucky-derby-best-sportsbook-offers-1797680</t>
-  </si>
-  <si>
-    <t>americasbestracing.net</t>
-  </si>
-  <si>
-    <t>https://www.americasbestracing.net/gambling/2023-thirteen-trends-you-need-know-betting-the-2023-kentucky-derby</t>
-  </si>
-  <si>
-    <t>twinspires.com</t>
-  </si>
-  <si>
-    <t>https://www.twinspires.com/welcome-kentucky-sports-radio-blog-fans</t>
-  </si>
-  <si>
-    <t>olbg.com</t>
-  </si>
-  <si>
-    <t>https://www.olbg.com/us/blogs/kentucky-oaks-betting-guide-strategies-statistics-picks</t>
-  </si>
-  <si>
-    <t>https://www.bonus.com/kentucky/</t>
-  </si>
-  <si>
-    <t>sportsgamblingpodcast.com</t>
-  </si>
-  <si>
-    <t>https://www.sportsgamblingpodcast.com/2023/05/05/kentucky-derby-picks-ep-1622/</t>
-  </si>
-  <si>
-    <t>cardplayer.com</t>
-  </si>
-  <si>
-    <t>https://www.cardplayer.com/poker-news/27756-kentucky-legalizes-online-sports-gambling</t>
-  </si>
-  <si>
-    <t>aseaofblue.com</t>
-  </si>
-  <si>
-    <t>https://www.aseaofblue.com/2023/3/31/23664497/friday-headline-sports-betting-in-kentucky-edition</t>
-  </si>
-  <si>
-    <t>cbssports.com</t>
-  </si>
-  <si>
-    <t>https://www.cbssports.com/general/news/previewing-the-kentucky-derby-plus-detailing-a-shocking-college-baseball-betting-scandal/</t>
-  </si>
-  <si>
-    <t>masslive.com</t>
-  </si>
-  <si>
-    <t>https://www.masslive.com/betting/2023/05/here-is-how-to-bet-the-kentucky-derby-in-massachusetts.html</t>
-  </si>
-  <si>
-    <t>oddscritic.com</t>
-  </si>
-  <si>
-    <t>https://www.oddscritic.com/betting-laws/kentucky/</t>
-  </si>
-  <si>
-    <t>seattletimes.com</t>
-  </si>
-  <si>
-    <t>https://www.seattletimes.com/nation-world/as-149th-derby-nears-kentucky-prepares-for-sports-betting/</t>
-  </si>
-  <si>
-    <t>benzinga.com</t>
-  </si>
-  <si>
-    <t>https://www.benzinga.com/general/sports-betting/23/05/32252410/2023-kentucky-derby-where-to-watch-what-the-betting-odds-are-and-how-sportsbooks-are-makin</t>
-  </si>
-  <si>
-    <t>yogonet.com</t>
-  </si>
-  <si>
-    <t>https://www.yogonet.com/international/news/2023/04/03/66688-sports-betting-finally-legal-in-kentucky-after-gov-beshear-signs-bill-into-law</t>
-  </si>
-  <si>
-    <t>onlinegambling.com</t>
-  </si>
-  <si>
-    <t>https://www.onlinegambling.com/states/ky/sports-betting/</t>
-  </si>
-  <si>
-    <t>oddsshark.com</t>
-  </si>
-  <si>
-    <t>https://www.oddsshark.com/</t>
-  </si>
-  <si>
-    <t>peacocktv.com</t>
-  </si>
-  <si>
-    <t>https://www.peacocktv.com/blog/everything-you-need-to-know-about-the-2023-kentucky-derby</t>
-  </si>
-  <si>
-    <t>charlotteobserver.com</t>
-  </si>
-  <si>
-    <t>https://www.charlotteobserver.com/betting/article275394541.html</t>
-  </si>
-  <si>
-    <t>sportingnews.com</t>
-  </si>
-  <si>
-    <t>https://www.sportingnews.com/us/ncaa-basketball/news/kentucky-providence-odds-prediction-betting-trends-2023-march-madness-first-round-matchup/rqnfg1l1g0ojq73icy3fzhm1</t>
-  </si>
-  <si>
-    <t>letsgolouisville.com</t>
-  </si>
-  <si>
-    <t>https://www.letsgolouisville.com/how-to-bet-on-the-kentucky-derby/</t>
-  </si>
-  <si>
-    <t>newsday.com</t>
-  </si>
-  <si>
-    <t>https://www.newsday.com/sports/horse-racing/as-149th-derby-nears-kentucky-prepares-for-sports-betting-irj3zlrt</t>
-  </si>
-  <si>
-    <t>4for4.com</t>
-  </si>
-  <si>
-    <t>https://www.4for4.com/betting/sportsbook-promo-codes/kentucky-derby-promo-code-5-6-2023</t>
-  </si>
-  <si>
-    <t>14news.com</t>
-  </si>
-  <si>
-    <t>https://www.14news.com/2023/04/02/sports-betting-is-legal-kentucky-what-you-need-know/</t>
-  </si>
-  <si>
-    <t>playohio.com</t>
-  </si>
-  <si>
-    <t>https://www.playohio.com/news/kentucky-betting-guide-ohio-sports-betting/</t>
-  </si>
-  <si>
-    <t>mlive.com</t>
-  </si>
-  <si>
-    <t>https://www.mlive.com/betting/2023/05/kentucky-derby-2023-opening-betting-odds-early-pick-for-this-weekend.html</t>
-  </si>
-  <si>
-    <t>cappertek.com</t>
-  </si>
-  <si>
-    <t>https://www.cappertek.com/article.asp?a=kentucky-vs-kansas-state-betting-odds-free-picks-and-predictions-3-19-2023-305134</t>
-  </si>
-  <si>
-    <t>wwlp.com</t>
-  </si>
-  <si>
-    <t>https://www.wwlp.com/news/betting-on-the-kentucky-derby-in-massachusetts/</t>
-  </si>
-  <si>
-    <t>https://www.playusa.com/senate-passage-legalization-kentucky-sports-betting/</t>
-  </si>
-  <si>
-    <t>wbko.com</t>
-  </si>
-  <si>
-    <t>https://www.wbko.com/2023/03/22/hb-551-how-sports-betting-would-affect-gaming-halls/</t>
-  </si>
-  <si>
-    <t>bloodhorse.com</t>
-  </si>
-  <si>
-    <t>https://www.bloodhorse.com/horse-racing/articles/267586/kentucky-tracks-excited-to-offer-sports-wagering</t>
-  </si>
-  <si>
-    <t>matchedbets.com</t>
-  </si>
-  <si>
-    <t>https://www.matchedbets.com/blog/who-to-bet-on-the-2021-kentucky-derby/</t>
-  </si>
-  <si>
-    <t>keeneland.com</t>
-  </si>
-  <si>
-    <t>https://www.keeneland.com/select</t>
-  </si>
-  <si>
-    <t>turfway.com</t>
-  </si>
-  <si>
-    <t>https://www.turfway.com/</t>
-  </si>
-  <si>
-    <t>espn.com.au</t>
-  </si>
-  <si>
-    <t>https://www.espn.com.au/college-football/story/_/id/37800855/devin-leary-rewriting-narrative-kentucky-football-2023</t>
-  </si>
-  <si>
-    <t>https://www.gamingtoday.com/kentucky/</t>
-  </si>
-  <si>
-    <t>kansascity.com</t>
-  </si>
-  <si>
-    <t>https://www.kansascity.com/news/article276458211.html</t>
-  </si>
-  <si>
-    <t>kentonlibrary.org</t>
-  </si>
-  <si>
-    <t>https://www.kentonlibrary.org/</t>
-  </si>
-  <si>
-    <t>ny1.com</t>
-  </si>
-  <si>
-    <t>https://www.ny1.com/nyc/all-boroughs/ap-top-news/2023/06/13/justice-department-settles-with-kentucky-school-district-over-racial-harassment</t>
-  </si>
-  <si>
-    <t>horseracingnation.com</t>
-  </si>
-  <si>
-    <t>https://www.horseracingnation.com/blogs/letswastemoney/Saturday_plays_Backwheel_longshot_in_Monomoy_Girl_123</t>
-  </si>
-  <si>
-    <t>kansas.com</t>
-  </si>
-  <si>
-    <t>https://www.kansas.com/news/article276458211.html</t>
-  </si>
-  <si>
-    <t>idahostatesman.com</t>
-  </si>
-  <si>
-    <t>https://www.idahostatesman.com/news/nation-world/national/article276448666.html</t>
-  </si>
-  <si>
-    <t>dukebasketballreport.com</t>
-  </si>
-  <si>
-    <t>https://www.dukebasketballreport.com/2023/6/15/23760413/a-look-ahead-to-potential-acc-sec-challenge-matchups-duke-kentucky-north-carolina-ncaa-basketball</t>
-  </si>
-  <si>
-    <t>yardbarker.com</t>
-  </si>
-  <si>
-    <t>https://www.yardbarker.com/college_basketball/articles/crystal_ball_pick_puts_kentucky_as_favorites_to_land_4_star_24_center_somto_cyril/s1_17088_38904362</t>
-  </si>
-  <si>
-    <t>crimsonquarry.com</t>
-  </si>
-  <si>
-    <t>https://www.crimsonquarry.com/2023/6/17/23764062/indiana-basketball-what-you-need-to-know-about-assistant-coach-amber-smith</t>
-  </si>
-  <si>
-    <t>lpm.org</t>
-  </si>
-  <si>
-    <t>https://www.lpm.org/news/2023-03-30/kentucky-lawmakers-send-sports-betting-bill-to-gov-beshear</t>
-  </si>
-  <si>
-    <t>theinteriorjournal.com</t>
-  </si>
-  <si>
-    <t>https://www.theinteriorjournal.com/2023/03/06/new-sports-betting-bill-filed-in-kentucky-house/</t>
-  </si>
-  <si>
-    <t>whas11.com</t>
-  </si>
-  <si>
-    <t>https://www.whas11.com/article/news/politics/kentucky-bill-legalizing-sports-betting-heads-to-governors-desk/417-4a1c274b-cede-42fa-86d4-a7ecefb43d7d</t>
+    <t>https://www.saturdaydownsouth.com/kentucky-football/</t>
+  </si>
+  <si>
+    <t>bsnsports.com</t>
+  </si>
+  <si>
+    <t>http://www.bsnsports.com/</t>
+  </si>
+  <si>
+    <t>https://www.wsn.com/blog/oldest-sports-teams/</t>
+  </si>
+  <si>
+    <t>city-data.com</t>
+  </si>
+  <si>
+    <t>http://www.city-data.com/states/Kentucky-Sports.html</t>
+  </si>
+  <si>
+    <t>teamexos.com</t>
+  </si>
+  <si>
+    <t>https://www.teamexos.com/</t>
+  </si>
+  <si>
+    <t>https://www.actionnetwork.com/</t>
+  </si>
+  <si>
+    <t>levyrestaurants.com</t>
+  </si>
+  <si>
+    <t>https://www.levyrestaurants.com/</t>
+  </si>
+  <si>
+    <t>https://www.casino.org/news/kentucky-sports-betting-regulations-on-fast-track/</t>
+  </si>
+  <si>
+    <t>stubhub.com</t>
+  </si>
+  <si>
+    <t>https://www.stubhub.com/sports-tickets/category/28/</t>
+  </si>
+  <si>
+    <t>dawgnation.com</t>
+  </si>
+  <si>
+    <t>https://www.dawgnation.com/</t>
+  </si>
+  <si>
+    <t>altoonamirror.com</t>
+  </si>
+  <si>
+    <t>https://www.altoonamirror.com/sports/2023/06/us-markets-aided-by-street-play/</t>
+  </si>
+  <si>
+    <t>the-sun.com</t>
+  </si>
+  <si>
+    <t>https://www.the-sun.com/sport/8433447/taylor-rooks-teams-up-with-hollywood-legend-halle-berry/</t>
+  </si>
+  <si>
+    <t>wvnews.com</t>
+  </si>
+  <si>
+    <t>https://www.wvnews.com/bluegoldnews/zaisberger-earns-academic-all-america-first-team-honors/article_6bbf4af4-1144-11ee-a3ed-073e61be1d56.html</t>
   </si>
 </sst>
 </file>
@@ -962,10 +1412,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -973,10 +1423,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -984,10 +1434,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -995,10 +1445,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -1006,10 +1456,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -1017,10 +1467,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -1028,10 +1478,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -1039,10 +1489,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -1050,10 +1500,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -1061,10 +1511,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -1072,10 +1522,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -1083,10 +1533,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -1094,10 +1544,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -1105,10 +1555,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -1116,10 +1566,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
@@ -1127,10 +1577,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -1138,10 +1588,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -1149,10 +1599,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
@@ -1160,10 +1610,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -1171,10 +1621,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
@@ -1182,10 +1632,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
@@ -1193,10 +1643,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
@@ -1204,10 +1654,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
@@ -1215,10 +1665,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="J39" t="b">
         <v>0</v>
@@ -1226,10 +1676,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -1237,10 +1687,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -1248,10 +1698,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
@@ -1259,10 +1709,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J43" t="b">
         <v>0</v>
@@ -1270,10 +1720,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J44" t="b">
         <v>0</v>
@@ -1281,10 +1731,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="J45" t="b">
         <v>0</v>
@@ -1292,10 +1742,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J46" t="b">
         <v>0</v>
@@ -1303,10 +1753,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
@@ -1314,10 +1764,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
@@ -1325,10 +1775,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
@@ -1336,10 +1786,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J50" t="b">
         <v>0</v>
@@ -1347,10 +1797,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
@@ -1358,10 +1808,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="J52" t="b">
         <v>0</v>
@@ -1369,10 +1819,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J53" t="b">
         <v>0</v>
@@ -1380,10 +1830,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="J54" t="b">
         <v>0</v>
@@ -1391,10 +1841,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J55" t="b">
         <v>0</v>
@@ -1402,10 +1852,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J56" t="b">
         <v>0</v>
@@ -1413,10 +1863,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
@@ -1424,10 +1874,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
@@ -1435,10 +1885,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
@@ -1446,10 +1896,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="J60" t="b">
         <v>0</v>
@@ -1457,10 +1907,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J61" t="b">
         <v>0</v>
@@ -1468,10 +1918,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
@@ -1479,10 +1929,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J63" t="b">
         <v>0</v>
@@ -1490,10 +1940,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J64" t="b">
         <v>0</v>
@@ -1501,10 +1951,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="J65" t="b">
         <v>0</v>
@@ -1512,10 +1962,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J66" t="b">
         <v>0</v>
@@ -1523,10 +1973,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J67" t="b">
         <v>0</v>
@@ -1534,10 +1984,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="J68" t="b">
         <v>0</v>
@@ -1545,10 +1995,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J69" t="b">
         <v>0</v>
@@ -1556,10 +2006,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J70" t="b">
         <v>0</v>
@@ -1567,10 +2017,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J71" t="b">
         <v>0</v>
@@ -1578,10 +2028,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J72" t="b">
         <v>0</v>
@@ -1589,10 +2039,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J73" t="b">
         <v>0</v>
@@ -1600,10 +2050,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J74" t="b">
         <v>0</v>
@@ -1611,10 +2061,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J75" t="b">
         <v>0</v>
@@ -1622,10 +2072,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J76" t="b">
         <v>0</v>
@@ -1633,10 +2083,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J77" t="b">
         <v>0</v>
@@ -1644,10 +2094,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J78" t="b">
         <v>0</v>
@@ -1655,10 +2105,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J79" t="b">
         <v>0</v>
@@ -1666,10 +2116,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B80" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J80" t="b">
         <v>0</v>
@@ -1677,10 +2127,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J81" t="b">
         <v>0</v>
@@ -1688,10 +2138,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J82" t="b">
         <v>0</v>
@@ -1699,10 +2149,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J83" t="b">
         <v>0</v>
@@ -1710,10 +2160,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J84" t="b">
         <v>0</v>
@@ -1721,10 +2171,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J85" t="b">
         <v>0</v>
@@ -1732,10 +2182,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="J86" t="b">
         <v>0</v>
@@ -1743,10 +2193,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J87" t="b">
         <v>0</v>
@@ -1754,10 +2204,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J88" t="b">
         <v>0</v>
@@ -1765,10 +2215,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J89" t="b">
         <v>0</v>
@@ -1776,10 +2226,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J90" t="b">
         <v>0</v>
@@ -1787,10 +2237,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="J91" t="b">
         <v>0</v>
@@ -1798,10 +2248,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J92" t="b">
         <v>0</v>
@@ -1809,10 +2259,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J93" t="b">
         <v>0</v>
@@ -1820,10 +2270,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B94" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J94" t="b">
         <v>0</v>
@@ -1831,10 +2281,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J95" t="b">
         <v>0</v>
@@ -1842,10 +2292,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B96" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J96" t="b">
         <v>0</v>
@@ -1853,10 +2303,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B97" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J97" t="b">
         <v>0</v>
@@ -1864,10 +2314,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B98" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J98" t="b">
         <v>0</v>
@@ -1875,10 +2325,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B99" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J99" t="b">
         <v>0</v>
@@ -1886,10 +2336,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B100" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J100" t="b">
         <v>0</v>
@@ -1897,10 +2347,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J101" t="b">
         <v>0</v>
@@ -1908,10 +2358,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J102" t="b">
         <v>0</v>
@@ -1919,10 +2369,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B103" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J103" t="b">
         <v>0</v>
@@ -1930,10 +2380,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="B104" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J104" t="b">
         <v>0</v>
@@ -1941,10 +2391,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J105" t="b">
         <v>0</v>
@@ -1952,10 +2402,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B106" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="J106" t="b">
         <v>0</v>
@@ -1963,10 +2413,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J107" t="b">
         <v>0</v>
@@ -1974,10 +2424,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B108" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J108" t="b">
         <v>0</v>
@@ -1985,10 +2435,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="B109" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J109" t="b">
         <v>0</v>
@@ -1996,10 +2446,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B110" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="J110" t="b">
         <v>0</v>
@@ -2007,10 +2457,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="J111" t="b">
         <v>0</v>
@@ -2018,10 +2468,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="J112" t="b">
         <v>0</v>
@@ -2029,10 +2479,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="J113" t="b">
         <v>0</v>
@@ -2040,10 +2490,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B114" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J114" t="b">
         <v>0</v>
@@ -2051,10 +2501,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J115" t="b">
         <v>0</v>
@@ -2062,10 +2512,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B116" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="J116" t="b">
         <v>0</v>
@@ -2073,10 +2523,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="B117" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="J117" t="b">
         <v>0</v>
@@ -2084,10 +2534,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B118" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="J118" t="b">
         <v>0</v>
@@ -2095,10 +2545,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="B119" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="J119" t="b">
         <v>0</v>
@@ -2106,10 +2556,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B120" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="J120" t="b">
         <v>0</v>
@@ -2117,10 +2567,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B121" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="J121" t="b">
         <v>0</v>
@@ -2128,10 +2578,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B122" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="J122" t="b">
         <v>0</v>
@@ -2139,12 +2589,1321 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>221</v>
+      </c>
+      <c r="B123" t="s">
+        <v>222</v>
+      </c>
+      <c r="J123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>223</v>
+      </c>
+      <c r="B124" t="s">
+        <v>224</v>
+      </c>
+      <c r="J124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>225</v>
+      </c>
+      <c r="B125" t="s">
+        <v>226</v>
+      </c>
+      <c r="J125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126" t="s">
+        <v>227</v>
+      </c>
+      <c r="J126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>228</v>
+      </c>
+      <c r="B127" t="s">
+        <v>229</v>
+      </c>
+      <c r="J127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>230</v>
+      </c>
+      <c r="B128" t="s">
+        <v>231</v>
+      </c>
+      <c r="J128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+      <c r="J129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>57</v>
+      </c>
+      <c r="B130" t="s">
+        <v>58</v>
+      </c>
+      <c r="J130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" t="s">
+        <v>232</v>
+      </c>
+      <c r="J131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>233</v>
+      </c>
+      <c r="B132" t="s">
+        <v>234</v>
+      </c>
+      <c r="J132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>235</v>
+      </c>
+      <c r="B133" t="s">
         <v>236</v>
       </c>
-      <c r="B123" t="s">
+      <c r="J133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
         <v>237</v>
       </c>
-      <c r="J123" t="b">
+      <c r="B134" t="s">
+        <v>238</v>
+      </c>
+      <c r="J134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>239</v>
+      </c>
+      <c r="B135" t="s">
+        <v>240</v>
+      </c>
+      <c r="J135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>102</v>
+      </c>
+      <c r="B136" t="s">
+        <v>241</v>
+      </c>
+      <c r="J136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>242</v>
+      </c>
+      <c r="B137" t="s">
+        <v>243</v>
+      </c>
+      <c r="J137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>244</v>
+      </c>
+      <c r="B138" t="s">
+        <v>245</v>
+      </c>
+      <c r="J138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>246</v>
+      </c>
+      <c r="B139" t="s">
+        <v>247</v>
+      </c>
+      <c r="J139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>63</v>
+      </c>
+      <c r="B140" t="s">
+        <v>248</v>
+      </c>
+      <c r="J140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>249</v>
+      </c>
+      <c r="B141" t="s">
+        <v>250</v>
+      </c>
+      <c r="J141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>90</v>
+      </c>
+      <c r="B142" t="s">
+        <v>251</v>
+      </c>
+      <c r="J142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>252</v>
+      </c>
+      <c r="B143" t="s">
+        <v>253</v>
+      </c>
+      <c r="J143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>254</v>
+      </c>
+      <c r="B144" t="s">
+        <v>255</v>
+      </c>
+      <c r="J144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>256</v>
+      </c>
+      <c r="B145" t="s">
+        <v>257</v>
+      </c>
+      <c r="J145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>258</v>
+      </c>
+      <c r="B146" t="s">
+        <v>259</v>
+      </c>
+      <c r="J146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>260</v>
+      </c>
+      <c r="B147" t="s">
+        <v>261</v>
+      </c>
+      <c r="J147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>262</v>
+      </c>
+      <c r="B148" t="s">
+        <v>263</v>
+      </c>
+      <c r="J148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>264</v>
+      </c>
+      <c r="B149" t="s">
+        <v>265</v>
+      </c>
+      <c r="J149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>266</v>
+      </c>
+      <c r="B150" t="s">
+        <v>267</v>
+      </c>
+      <c r="J150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>268</v>
+      </c>
+      <c r="B151" t="s">
+        <v>269</v>
+      </c>
+      <c r="J151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>270</v>
+      </c>
+      <c r="B152" t="s">
+        <v>271</v>
+      </c>
+      <c r="J152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>272</v>
+      </c>
+      <c r="B153" t="s">
+        <v>273</v>
+      </c>
+      <c r="J153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>274</v>
+      </c>
+      <c r="B154" t="s">
+        <v>275</v>
+      </c>
+      <c r="J154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>276</v>
+      </c>
+      <c r="B155" t="s">
+        <v>277</v>
+      </c>
+      <c r="J155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>278</v>
+      </c>
+      <c r="B156" t="s">
+        <v>279</v>
+      </c>
+      <c r="J156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>280</v>
+      </c>
+      <c r="B157" t="s">
+        <v>281</v>
+      </c>
+      <c r="J157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>282</v>
+      </c>
+      <c r="B158" t="s">
+        <v>283</v>
+      </c>
+      <c r="J158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>284</v>
+      </c>
+      <c r="B159" t="s">
+        <v>285</v>
+      </c>
+      <c r="J159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>286</v>
+      </c>
+      <c r="B160" t="s">
+        <v>287</v>
+      </c>
+      <c r="J160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>288</v>
+      </c>
+      <c r="B161" t="s">
+        <v>289</v>
+      </c>
+      <c r="J161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>290</v>
+      </c>
+      <c r="B162" t="s">
+        <v>291</v>
+      </c>
+      <c r="J162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163" t="s">
+        <v>292</v>
+      </c>
+      <c r="J163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>293</v>
+      </c>
+      <c r="B164" t="s">
+        <v>294</v>
+      </c>
+      <c r="J164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>139</v>
+      </c>
+      <c r="B165" t="s">
+        <v>140</v>
+      </c>
+      <c r="J165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>295</v>
+      </c>
+      <c r="B166" t="s">
+        <v>296</v>
+      </c>
+      <c r="J166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>149</v>
+      </c>
+      <c r="B167" t="s">
+        <v>150</v>
+      </c>
+      <c r="J167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>297</v>
+      </c>
+      <c r="B168" t="s">
+        <v>298</v>
+      </c>
+      <c r="J168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>299</v>
+      </c>
+      <c r="B169" t="s">
+        <v>300</v>
+      </c>
+      <c r="J169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>301</v>
+      </c>
+      <c r="B170" t="s">
+        <v>302</v>
+      </c>
+      <c r="J170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>303</v>
+      </c>
+      <c r="B171" t="s">
+        <v>304</v>
+      </c>
+      <c r="J171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>305</v>
+      </c>
+      <c r="B172" t="s">
+        <v>306</v>
+      </c>
+      <c r="J172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>307</v>
+      </c>
+      <c r="B173" t="s">
+        <v>308</v>
+      </c>
+      <c r="J173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>309</v>
+      </c>
+      <c r="B174" t="s">
+        <v>310</v>
+      </c>
+      <c r="J174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>311</v>
+      </c>
+      <c r="B175" t="s">
+        <v>312</v>
+      </c>
+      <c r="J175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>313</v>
+      </c>
+      <c r="B176" t="s">
+        <v>314</v>
+      </c>
+      <c r="J176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>315</v>
+      </c>
+      <c r="B177" t="s">
+        <v>316</v>
+      </c>
+      <c r="J177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>317</v>
+      </c>
+      <c r="B178" t="s">
+        <v>318</v>
+      </c>
+      <c r="J178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" t="s">
+        <v>319</v>
+      </c>
+      <c r="J179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" t="s">
+        <v>191</v>
+      </c>
+      <c r="J180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>192</v>
+      </c>
+      <c r="B181" t="s">
+        <v>193</v>
+      </c>
+      <c r="J181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182" t="s">
+        <v>194</v>
+      </c>
+      <c r="J182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183" t="s">
+        <v>196</v>
+      </c>
+      <c r="J183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>157</v>
+      </c>
+      <c r="B184" t="s">
+        <v>320</v>
+      </c>
+      <c r="J184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185" t="s">
+        <v>198</v>
+      </c>
+      <c r="J185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>280</v>
+      </c>
+      <c r="B186" t="s">
+        <v>281</v>
+      </c>
+      <c r="J186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>321</v>
+      </c>
+      <c r="B187" t="s">
+        <v>322</v>
+      </c>
+      <c r="J187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>323</v>
+      </c>
+      <c r="B188" t="s">
+        <v>324</v>
+      </c>
+      <c r="J188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>313</v>
+      </c>
+      <c r="B189" t="s">
+        <v>314</v>
+      </c>
+      <c r="J189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>325</v>
+      </c>
+      <c r="B190" t="s">
+        <v>326</v>
+      </c>
+      <c r="J190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>212</v>
+      </c>
+      <c r="B191" t="s">
+        <v>213</v>
+      </c>
+      <c r="J191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>149</v>
+      </c>
+      <c r="B192" t="s">
+        <v>327</v>
+      </c>
+      <c r="J192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>239</v>
+      </c>
+      <c r="B193" t="s">
+        <v>328</v>
+      </c>
+      <c r="J193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>159</v>
+      </c>
+      <c r="B194" t="s">
+        <v>232</v>
+      </c>
+      <c r="J194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>329</v>
+      </c>
+      <c r="B195" t="s">
+        <v>330</v>
+      </c>
+      <c r="J195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>254</v>
+      </c>
+      <c r="B196" t="s">
+        <v>255</v>
+      </c>
+      <c r="J196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>331</v>
+      </c>
+      <c r="B197" t="s">
+        <v>332</v>
+      </c>
+      <c r="J197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>137</v>
+      </c>
+      <c r="B198" t="s">
+        <v>227</v>
+      </c>
+      <c r="J198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>333</v>
+      </c>
+      <c r="B199" t="s">
+        <v>334</v>
+      </c>
+      <c r="J199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>305</v>
+      </c>
+      <c r="B200" t="s">
+        <v>306</v>
+      </c>
+      <c r="J200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>228</v>
+      </c>
+      <c r="B201" t="s">
+        <v>335</v>
+      </c>
+      <c r="J201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>309</v>
+      </c>
+      <c r="B202" t="s">
+        <v>336</v>
+      </c>
+      <c r="J202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>337</v>
+      </c>
+      <c r="B203" t="s">
+        <v>338</v>
+      </c>
+      <c r="J203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>244</v>
+      </c>
+      <c r="B204" t="s">
+        <v>245</v>
+      </c>
+      <c r="J204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>339</v>
+      </c>
+      <c r="B205" t="s">
+        <v>340</v>
+      </c>
+      <c r="J205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>341</v>
+      </c>
+      <c r="B206" t="s">
+        <v>342</v>
+      </c>
+      <c r="J206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>343</v>
+      </c>
+      <c r="B207" t="s">
+        <v>344</v>
+      </c>
+      <c r="J207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>345</v>
+      </c>
+      <c r="B208" t="s">
+        <v>346</v>
+      </c>
+      <c r="J208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>347</v>
+      </c>
+      <c r="B209" t="s">
+        <v>348</v>
+      </c>
+      <c r="J209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>349</v>
+      </c>
+      <c r="B210" t="s">
+        <v>350</v>
+      </c>
+      <c r="J210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>351</v>
+      </c>
+      <c r="B211" t="s">
+        <v>352</v>
+      </c>
+      <c r="J211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>353</v>
+      </c>
+      <c r="B212" t="s">
+        <v>354</v>
+      </c>
+      <c r="J212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>53</v>
+      </c>
+      <c r="B213" t="s">
+        <v>355</v>
+      </c>
+      <c r="J213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>270</v>
+      </c>
+      <c r="B214" t="s">
+        <v>356</v>
+      </c>
+      <c r="J214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>357</v>
+      </c>
+      <c r="B215" t="s">
+        <v>358</v>
+      </c>
+      <c r="J215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>359</v>
+      </c>
+      <c r="B216" t="s">
+        <v>360</v>
+      </c>
+      <c r="J216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>361</v>
+      </c>
+      <c r="B217" t="s">
+        <v>362</v>
+      </c>
+      <c r="J217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>202</v>
+      </c>
+      <c r="B218" t="s">
+        <v>203</v>
+      </c>
+      <c r="J218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>363</v>
+      </c>
+      <c r="B219" t="s">
+        <v>364</v>
+      </c>
+      <c r="J219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>131</v>
+      </c>
+      <c r="B220" t="s">
+        <v>201</v>
+      </c>
+      <c r="J220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>365</v>
+      </c>
+      <c r="B221" t="s">
+        <v>366</v>
+      </c>
+      <c r="J221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>63</v>
+      </c>
+      <c r="B222" t="s">
+        <v>248</v>
+      </c>
+      <c r="J222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>367</v>
+      </c>
+      <c r="B223" t="s">
+        <v>368</v>
+      </c>
+      <c r="J223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>57</v>
+      </c>
+      <c r="B224" t="s">
+        <v>369</v>
+      </c>
+      <c r="J224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>370</v>
+      </c>
+      <c r="B225" t="s">
+        <v>371</v>
+      </c>
+      <c r="J225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>129</v>
+      </c>
+      <c r="B226" t="s">
+        <v>130</v>
+      </c>
+      <c r="J226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>226</v>
+      </c>
+      <c r="J227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>293</v>
+      </c>
+      <c r="B228" t="s">
+        <v>294</v>
+      </c>
+      <c r="J228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>372</v>
+      </c>
+      <c r="B229" t="s">
+        <v>373</v>
+      </c>
+      <c r="J229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>288</v>
+      </c>
+      <c r="B230" t="s">
+        <v>289</v>
+      </c>
+      <c r="J230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>18</v>
+      </c>
+      <c r="B231" t="s">
+        <v>292</v>
+      </c>
+      <c r="J231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>68</v>
+      </c>
+      <c r="B232" t="s">
+        <v>374</v>
+      </c>
+      <c r="J232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>375</v>
+      </c>
+      <c r="B233" t="s">
+        <v>376</v>
+      </c>
+      <c r="J233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>301</v>
+      </c>
+      <c r="B234" t="s">
+        <v>302</v>
+      </c>
+      <c r="J234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>264</v>
+      </c>
+      <c r="B235" t="s">
+        <v>265</v>
+      </c>
+      <c r="J235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>24</v>
+      </c>
+      <c r="B236" t="s">
+        <v>377</v>
+      </c>
+      <c r="J236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>378</v>
+      </c>
+      <c r="B237" t="s">
+        <v>379</v>
+      </c>
+      <c r="J237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>380</v>
+      </c>
+      <c r="B238" t="s">
+        <v>381</v>
+      </c>
+      <c r="J238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>284</v>
+      </c>
+      <c r="B239" t="s">
+        <v>285</v>
+      </c>
+      <c r="J239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>382</v>
+      </c>
+      <c r="B240" t="s">
+        <v>383</v>
+      </c>
+      <c r="J240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>384</v>
+      </c>
+      <c r="B241" t="s">
+        <v>385</v>
+      </c>
+      <c r="J241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>386</v>
+      </c>
+      <c r="B242" t="s">
+        <v>387</v>
+      </c>
+      <c r="J242" t="b">
         <v>0</v>
       </c>
     </row>

--- a/search/link.xlsx
+++ b/search/link.xlsx
@@ -43,1138 +43,2263 @@
     <t>Email Verified</t>
   </si>
   <si>
-    <t>gaming.net</t>
-  </si>
-  <si>
-    <t>https://www.gaming.net/kentucky-sports-betting/</t>
+    <t>legalsportsreport.com</t>
+  </si>
+  <si>
+    <t>https://www.legalsportsreport.com/virginia/</t>
+  </si>
+  <si>
+    <t>google.com</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=online+sports+betting+virginia&amp;sxsrf=APwXEdec__2e_q6toZMhI6doDreXD8PO2Q%3A1687773724637&amp;ei=HGKZZIzFJoqIwbkP_--2gAE&amp;ved=0ahUKEwiMw8WK1-D_AhUKRDABHf-3DRAQ4dUDCBA&amp;uact=5&amp;oq=online+sports+betting+virginia&amp;gs_lcp=Cgxnd3Mtd2l6LXNlcnAQAzIFCAAQgAQyBggAEBYQHjIGCAAQFhAeMgYIABAWEB4yBggAEBYQHjIGCAAQFhAeMgYIABAWEB4yCAgAEIoFEIYDMggIABCKBRCGAzIICAAQigUQhgM6BAgAEEc6BwgjEIoFECc6CAgAEIAEELEDOggIABCABBDJAzoICAAQFhAeEAo6CwgAEBYQHhAPEPEEOgoIABAWEB4QDxAKSgQIQRgAUN9aWKx3YNJ7aABwA3gAgAHUAogBkyeSAQYyLTMuMTOYAQCgAQHAAQHIAQg&amp;sclient=gws-wiz-serp#</t>
+  </si>
+  <si>
+    <t>lineups.com</t>
+  </si>
+  <si>
+    <t>https://www.lineups.com/betting/fanduel-virginia/#:~:text=Is%20FanDuel%20Legal%20in%20Virginia,in%20the%20state%20of%20Virginia.</t>
+  </si>
+  <si>
+    <t>playvirginia.com</t>
+  </si>
+  <si>
+    <t>https://www.playvirginia.com/</t>
+  </si>
+  <si>
+    <t>covers.com</t>
+  </si>
+  <si>
+    <t>https://www.covers.com/betting/usa/virginia</t>
+  </si>
+  <si>
+    <t>betvirginia.com</t>
+  </si>
+  <si>
+    <t>https://www.betvirginia.com/</t>
+  </si>
+  <si>
+    <t>vegasinsider.com</t>
+  </si>
+  <si>
+    <t>https://www.vegasinsider.com/sportsbooks/virginia/</t>
+  </si>
+  <si>
+    <t>wsn.com</t>
+  </si>
+  <si>
+    <t>https://www.wsn.com/sports-betting-usa/virginia/</t>
+  </si>
+  <si>
+    <t>oddschecker.com</t>
+  </si>
+  <si>
+    <t>https://www.oddschecker.com/us/states/virginia</t>
+  </si>
+  <si>
+    <t>gamblingsites.com</t>
+  </si>
+  <si>
+    <t>https://www.gamblingsites.com/us/virginia/</t>
+  </si>
+  <si>
+    <t>betting.us</t>
+  </si>
+  <si>
+    <t>https://www.betting.us/virginia/richmond/</t>
+  </si>
+  <si>
+    <t>oddscritic.com</t>
+  </si>
+  <si>
+    <t>https://www.oddscritic.com/betting-laws/virginia/</t>
+  </si>
+  <si>
+    <t>us-bookies.com</t>
+  </si>
+  <si>
+    <t>https://www.us-bookies.com/sports-betting/virginia-online-sports-betting/</t>
+  </si>
+  <si>
+    <t>wtkr.com</t>
+  </si>
+  <si>
+    <t>https://www.wtkr.com/news/virginians-have-bet-more-than-3-billion-on-sports-since-legalization-but-where-does-the-money-go</t>
+  </si>
+  <si>
+    <t>washingtonpost.com</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/sports/2022/11/08/escape-dc-betting-app-some-frustrated-sports-gamblers-head-virginia/</t>
+  </si>
+  <si>
+    <t>bestodds.com</t>
+  </si>
+  <si>
+    <t>https://www.bestodds.com/va-sportsbooks/self-exclusion/</t>
+  </si>
+  <si>
+    <t>playusa.com</t>
+  </si>
+  <si>
+    <t>https://www.playusa.com/virginia/</t>
+  </si>
+  <si>
+    <t>nbc29.com</t>
+  </si>
+  <si>
+    <t>https://www.nbc29.com/2020/07/20/legal-sports-betting-debut-virginia-early-next-year/</t>
+  </si>
+  <si>
+    <t>casino.org</t>
+  </si>
+  <si>
+    <t>https://www.casino.org/news/rush-street-first-virginia-casino-developer-to-launch-sports-betting/</t>
+  </si>
+  <si>
+    <t>virginiabusiness.com</t>
+  </si>
+  <si>
+    <t>https://www.virginiabusiness.com/article/in-state-college-sports-betting-bill-wasnt-a-good-bet/</t>
+  </si>
+  <si>
+    <t>newsobserver.com</t>
+  </si>
+  <si>
+    <t>https://www.newsobserver.com/news/politics-government/article275671876.html</t>
   </si>
   <si>
     <t>letsgambleusa.com</t>
   </si>
   <si>
-    <t>https://www.letsgambleusa.com/kentucky/</t>
-  </si>
-  <si>
-    <t>google.com</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?rlz=1C1KNTJ_enNG1063NG1063&amp;sxsrf=APwXEdf_Xaih6J9T3DMveQdURVqPwdEHwg:1687480654920&amp;q=What+online+casino+can+I+play+in+Kentucky%3F&amp;sa=X&amp;ved=2ahUKEwipqYCok9j_AhXiVPEDHf4yDksQzmd6BAgaEAY</t>
-  </si>
-  <si>
-    <t>kentucky.com</t>
-  </si>
-  <si>
-    <t>https://www.kentucky.com/betting/article274396300.html</t>
-  </si>
-  <si>
-    <t>legalsportsreport.com</t>
-  </si>
-  <si>
-    <t>https://www.legalsportsreport.com/kentucky/</t>
+    <t>https://www.letsgambleusa.com/virginia/</t>
+  </si>
+  <si>
+    <t>gamblingnews.com</t>
+  </si>
+  <si>
+    <t>https://www.gamblingnews.com/sports/virginia/</t>
+  </si>
+  <si>
+    <t>usaonlinesportsbooks.com</t>
+  </si>
+  <si>
+    <t>https://www.usaonlinesportsbooks.com/states/virginia.html</t>
+  </si>
+  <si>
+    <t>sportsinsider.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsinsider.com/usa/virginia/</t>
+  </si>
+  <si>
+    <t>safebettingsites.com</t>
+  </si>
+  <si>
+    <t>https://www.safebettingsites.com/us/virginia/</t>
+  </si>
+  <si>
+    <t>sportsbetting3.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsbetting3.com/sportsbooks/states/virginia</t>
+  </si>
+  <si>
+    <t>online-gambling.com</t>
+  </si>
+  <si>
+    <t>https://www.online-gambling.com/us/west-virginia/sports-betting/</t>
+  </si>
+  <si>
+    <t>bleachernation.com</t>
+  </si>
+  <si>
+    <t>https://www.bleachernation.com/west-virginia-online-sports-betting/</t>
+  </si>
+  <si>
+    <t>caesars.com</t>
+  </si>
+  <si>
+    <t>https://www.caesars.com/sportsbook-and-casino/va/</t>
+  </si>
+  <si>
+    <t>sidelines.io</t>
+  </si>
+  <si>
+    <t>https://www.sidelines.io/sports-betting-reviews/virginia</t>
+  </si>
+  <si>
+    <t>bonusfinder.com</t>
+  </si>
+  <si>
+    <t>https://www.bonusfinder.com/virginia/va-sports-betting</t>
+  </si>
+  <si>
+    <t>offshoresportsbooks.com</t>
+  </si>
+  <si>
+    <t>https://www.offshoresportsbooks.com/us/virginia/</t>
+  </si>
+  <si>
+    <t>gamblingsites.org</t>
+  </si>
+  <si>
+    <t>https://www.gamblingsites.org/sports-betting/us/west-virginia/</t>
+  </si>
+  <si>
+    <t>onlinegambling.com</t>
+  </si>
+  <si>
+    <t>https://www.onlinegambling.com/states/va/sports-betting/</t>
+  </si>
+  <si>
+    <t>thecentersquare.com</t>
+  </si>
+  <si>
+    <t>https://www.thecentersquare.com/virginia/article_0e30010c-e2b6-11ec-a448-db3c51a7bddd.html</t>
+  </si>
+  <si>
+    <t>theiaga.org</t>
+  </si>
+  <si>
+    <t>https://www.theiaga.org/virginia-legislature-passes-casino-gaming-and-sports-betting-bills</t>
+  </si>
+  <si>
+    <t>capperspicks.com</t>
+  </si>
+  <si>
+    <t>https://www.capperspicks.com/sportsbooks/sports-betting-in-virginia/</t>
+  </si>
+  <si>
+    <t>commanders.com</t>
+  </si>
+  <si>
+    <t>https://www.commanders.com/news/fanduel-group-washington-football-team-partnership-legal-sports-betting-virginia</t>
+  </si>
+  <si>
+    <t>yogonet.com</t>
+  </si>
+  <si>
+    <t>https://www.yogonet.com/international/news/2023/02/02/65951-betfred-launches-online-sports-betting-operations-in-virginia-its-10th-us-state</t>
+  </si>
+  <si>
+    <t>promoguy.us</t>
+  </si>
+  <si>
+    <t>https://www.promoguy.us/sportsbook/va/</t>
+  </si>
+  <si>
+    <t>docsports.com</t>
+  </si>
+  <si>
+    <t>https://www.docsports.com/2023/colorado-ohio-virginia-highlight-legal-sports-betting-us-market.html</t>
+  </si>
+  <si>
+    <t>13newsnow.com</t>
+  </si>
+  <si>
+    <t>https://www.13newsnow.com/article/news/local/virginia/sports-betting-virginia-state-federal-taxes/291-00478172-51c2-430e-8a06-51fab8c8c756</t>
+  </si>
+  <si>
+    <t>sportingnews.com</t>
+  </si>
+  <si>
+    <t>https://www.sportingnews.com/us/betting/news/sports-betting-virginia-sportsbooks-how-can-i-place-bet/l1rzig6d0rtdgs6yavknaamr</t>
+  </si>
+  <si>
+    <t>wfmynews2.com</t>
+  </si>
+  <si>
+    <t>https://www.wfmynews2.com/video/news/special-reports/dig-in-2-it/new-danville-casino-online-sports-betting-north-carolina-lawmakers-caesars-virginia/83-4b45d541-4409-48d1-a6e1-40efa9b53bb3</t>
+  </si>
+  <si>
+    <t>msn.com</t>
+  </si>
+  <si>
+    <t>https://www.msn.com/en-us/sports/more-sports/virginia-sports-betting-apps-9-top-virginia-betting-apps/ar-AA1cEn6v</t>
+  </si>
+  <si>
+    <t>wric.com</t>
+  </si>
+  <si>
+    <t>https://www.wric.com/news/virginia-news/sports-betting-tops-1-6-billion-in-virginia-but-where-does-that-money-go/</t>
+  </si>
+  <si>
+    <t>usgambling.com</t>
+  </si>
+  <si>
+    <t>https://www.usgambling.com/va/</t>
+  </si>
+  <si>
+    <t>usbets.com</t>
+  </si>
+  <si>
+    <t>https://www.usbets.com/wv-online-sports-betting/</t>
+  </si>
+  <si>
+    <t>crossingbroad.com</t>
+  </si>
+  <si>
+    <t>https://www.crossingbroad.com/sports-betting/draftkings-sportsbook-review/wv</t>
+  </si>
+  <si>
+    <t>thesportsgeek.com</t>
+  </si>
+  <si>
+    <t>https://www.thesportsgeek.com/sportsbooks/us/west-virginia/</t>
+  </si>
+  <si>
+    <t>usalegalbetting.com</t>
+  </si>
+  <si>
+    <t>https://www.usalegalbetting.com/va/</t>
+  </si>
+  <si>
+    <t>legaldefense.com</t>
+  </si>
+  <si>
+    <t>https://www.legaldefense.com/blog/2021/march/the-legality-of-sports-betting-in-virginia/</t>
+  </si>
+  <si>
+    <t>sportsbettingreport.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsbettingreport.com/online-sports-betting-in-virginia/</t>
+  </si>
+  <si>
+    <t>bizjournals.com</t>
+  </si>
+  <si>
+    <t>https://www.bizjournals.com/washington/news/2021/03/16/virginia-sportsbooks-more-mobile-apps.html</t>
+  </si>
+  <si>
+    <t>sisportsbook.com</t>
+  </si>
+  <si>
+    <t>https://www.sisportsbook.com/</t>
+  </si>
+  <si>
+    <t>bettingnews.com</t>
+  </si>
+  <si>
+    <t>https://www.bettingnews.com/legal/virginia/</t>
+  </si>
+  <si>
+    <t>forbes.com</t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/betting/guide/legal-states/</t>
+  </si>
+  <si>
+    <t>prnewswire.com</t>
+  </si>
+  <si>
+    <t>https://www.prnewswire.com/news-releases/wynnbet-launches-icasino--online-sportsbook-in-west-virginia-301858524.html</t>
+  </si>
+  <si>
+    <t>nydailynews.com</t>
+  </si>
+  <si>
+    <t>https://www.nydailynews.com/sports/gambling/sns-actnet-virginia-online-sports-betting-launch-fanduel-20210121-vbgza3avivey3obfiq3uh2fi3e-story.html</t>
+  </si>
+  <si>
+    <t>egr.global</t>
+  </si>
+  <si>
+    <t>https://www.egr.global/northamerica/news/wynnbet-enters-west-virginia-with-igaming-and-sportsbook-launch/</t>
+  </si>
+  <si>
+    <t>pilotonline.com</t>
+  </si>
+  <si>
+    <t>https://www.pilotonline.com/2021/10/01/with-sports-betting-legal-and-casinos-on-the-way-virginia-braces-for-a-rise-in-gambling-addiction/</t>
+  </si>
+  <si>
+    <t>washingtonian.com</t>
+  </si>
+  <si>
+    <t>https://www.washingtonian.com/2021/02/02/place-your-bets-a-guide-to-sports-gambling-in-dc-and-virginia/</t>
+  </si>
+  <si>
+    <t>wdbj7.com</t>
+  </si>
+  <si>
+    <t>https://www.wdbj7.com/2020/11/24/virginia-lottery-to-license-mobile-sports-betting-early-next-year/</t>
+  </si>
+  <si>
+    <t>compare.bet</t>
+  </si>
+  <si>
+    <t>https://www.compare.bet/en-us/betting/virginia</t>
+  </si>
+  <si>
+    <t>gamblinginsider.com</t>
+  </si>
+  <si>
+    <t>https://www.gamblinginsider.com/news/21550/wynnbet-launches-online-casino-sportsbook-in-west-virginia</t>
+  </si>
+  <si>
+    <t>casinocitytimes.com</t>
+  </si>
+  <si>
+    <t>https://www.casinocitytimes.com/news/article/wynnbet-launches-online-casino-and-sports-betting-in-west-virginia-252292</t>
+  </si>
+  <si>
+    <t>betus.com.pa</t>
+  </si>
+  <si>
+    <t>https://www.betus.com.pa/</t>
+  </si>
+  <si>
+    <t>lootpress.com</t>
+  </si>
+  <si>
+    <t>https://www.lootpress.com/wynnbet-launches-icasino-online-sportsbook-in-west-virginia/</t>
+  </si>
+  <si>
+    <t>nasdaq.com</t>
+  </si>
+  <si>
+    <t>https://www.nasdaq.com/articles/wynn-resorts-wynn-unveils-online-offerings-in-west-virginia</t>
+  </si>
+  <si>
+    <t>zacks.com</t>
+  </si>
+  <si>
+    <t>https://www.zacks.com/stock/news/2112563/wynn-resorts-wynn-unveils-online-offerings-in-west-virginia</t>
+  </si>
+  <si>
+    <t>benzinga.com</t>
+  </si>
+  <si>
+    <t>https://www.benzinga.com/pressreleases/23/06/n32976650/wynnbet-launches-icasino-online-sportsbook-in-west-virginia</t>
+  </si>
+  <si>
+    <t>youtube.com</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IHhp7ZKZtB8</t>
+  </si>
+  <si>
+    <t>syracuse.com</t>
+  </si>
+  <si>
+    <t>https://www.syracuse.com/betting/2023/06/bet365-bonus-code-new-users-in-iowa-can-bet-1-to-unlock-200-in-bonus-bets.html</t>
+  </si>
+  <si>
+    <t>fantasylabs.com</t>
+  </si>
+  <si>
+    <t>https://www.fantasylabs.com/articles/fanduel-sportsbook-offers-no-sweat-first-bet-1k-weekend-june-25/</t>
+  </si>
+  <si>
+    <t>newyorkupstate.com</t>
+  </si>
+  <si>
+    <t>https://www.newyorkupstate.com/betting/2023/06/bet365-bonus-code-dials-up-bet-1-bet-200-in-bonus-bets-deal-for-mlb-sunday.html</t>
+  </si>
+  <si>
+    <t>saturdaydownsouth.com</t>
+  </si>
+  <si>
+    <t>https://www.saturdaydownsouth.com/sports/bet365-bonus-code-sdsxlm-best-way-to-score-instant-200-bonus-bets/</t>
+  </si>
+  <si>
+    <t>today.com</t>
+  </si>
+  <si>
+    <t>https://www.today.com/video/online-sports-betting-is-legal-now-here-s-what-that-means-for-the-super-bowl-132549189886</t>
+  </si>
+  <si>
+    <t>pickswise.com</t>
+  </si>
+  <si>
+    <t>https://www.pickswise.com/news/draftkings-sportsbook-promo-for-2023-secures-150-in-new-user-bonus-bets/</t>
+  </si>
+  <si>
+    <t>masslive.com</t>
+  </si>
+  <si>
+    <t>https://www.masslive.com/music/2023/06/kane-brown-tour-where-to-buy-tickets-to-maine-boston-and-virginia-shows.html</t>
+  </si>
+  <si>
+    <t>espn.com</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/mens-college-basketball/story/_/id/37873978/how-bob-huggins-career-west-virginia-ended-next</t>
+  </si>
+  <si>
+    <t>streakingthelawn.com</t>
+  </si>
+  <si>
+    <t>https://www.streakingthelawn.com/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=online+sports+blogs+in+virginia&amp;sxsrf=APwXEdewIMswtXyN3beMV9CRaykOXMwyYA%3A1687775697312&amp;ei=0WmZZO_YEtmykvQPt_-csAo&amp;ved=0ahUKEwivhZi33uD_AhVZmYQIHbc_B6YQ4dUDCBA&amp;uact=5&amp;oq=online+sports+blogs+in+virginia&amp;gs_lcp=Cgxnd3Mtd2l6LXNlcnAQAzIFCAAQogQyBQgAEKIEMggIABCJBRCiBDIFCAAQogQ6BAgAEEc6CgghEKABEMMEEAo6CAghEKABEMMESgQIQRgAUJ0zWI1JYJVZaABwAXgAgAHvJ4gB_DiSAQkyLTEuNi45LTGYAQCgAQHAAQHIAQg&amp;sclient=gws-wiz-serp#</t>
+  </si>
+  <si>
+    <t>https://www.betvirginia.com/news/virginia-s-favorite-sports</t>
+  </si>
+  <si>
+    <t>virginia.edu</t>
+  </si>
+  <si>
+    <t>https://www.virginia.edu/life/recreation#:~:text=Across%2025%20NCAA%20Division%20I,than%20any%20other%20ACC%20school.</t>
+  </si>
+  <si>
+    <t>gosportsreality.com</t>
+  </si>
+  <si>
+    <t>https://www.gosportsreality.com/blogs.html</t>
+  </si>
+  <si>
+    <t>gobblercountry.com</t>
+  </si>
+  <si>
+    <t>https://www.gobblercountry.com/</t>
+  </si>
+  <si>
+    <t>https://www.pilotonline.com/</t>
+  </si>
+  <si>
+    <t>sbnation.com</t>
+  </si>
+  <si>
+    <t>https://www.sbnation.com/blogs</t>
+  </si>
+  <si>
+    <t>insidenova.com</t>
+  </si>
+  <si>
+    <t>https://www.insidenova.com/</t>
+  </si>
+  <si>
+    <t>https://www.covers.com/betting/usa/virginia/best-apps</t>
+  </si>
+  <si>
+    <t>sportsbackers.org</t>
+  </si>
+  <si>
+    <t>https://www.sportsbackers.org/</t>
+  </si>
+  <si>
+    <t>dailypress.com</t>
+  </si>
+  <si>
+    <t>https://www.dailypress.com/</t>
+  </si>
+  <si>
+    <t>betstation.com</t>
+  </si>
+  <si>
+    <t>https://www.betstation.com/sports-betting-sites/virginia/</t>
+  </si>
+  <si>
+    <t>vhsl.org</t>
+  </si>
+  <si>
+    <t>https://www.vhsl.org/</t>
+  </si>
+  <si>
+    <t>virginia.org</t>
+  </si>
+  <si>
+    <t>https://www.virginia.org/sports/news/blogs/</t>
+  </si>
+  <si>
+    <t>dcr.virginia.gov</t>
+  </si>
+  <si>
+    <t>https://www.dcr.virginia.gov/state-parks/blog/</t>
+  </si>
+  <si>
+    <t>caregiver.va.gov</t>
+  </si>
+  <si>
+    <t>https://www.caregiver.va.gov/</t>
+  </si>
+  <si>
+    <t>loudoun.gov</t>
+  </si>
+  <si>
+    <t>https://www.loudoun.gov/Blog.aspx</t>
+  </si>
+  <si>
+    <t>capitalareapediatrics.com</t>
+  </si>
+  <si>
+    <t>https://www.capitalareapediatrics.com/blog</t>
+  </si>
+  <si>
+    <t>https://www.betting.us/virginia/</t>
+  </si>
+  <si>
+    <t>https://www.thesportsgeek.com/sportsbooks/us/virginia/</t>
+  </si>
+  <si>
+    <t>nvcc.edu</t>
+  </si>
+  <si>
+    <t>https://www.nvcc.edu/student-life/athletics.html</t>
+  </si>
+  <si>
+    <t>virginiamercury.com</t>
+  </si>
+  <si>
+    <t>https://www.virginiamercury.com/blog-va/lawmakers-approve-casinos-and-sports-betting-prohibit-bets-on-virginia-college-teams/</t>
+  </si>
+  <si>
+    <t>vcu.edu</t>
+  </si>
+  <si>
+    <t>https://www.vcu.edu/</t>
+  </si>
+  <si>
+    <t>vatc.org</t>
+  </si>
+  <si>
+    <t>https://www.vatc.org/marketing/contentmarketing/</t>
+  </si>
+  <si>
+    <t>smokingmusket.com</t>
+  </si>
+  <si>
+    <t>https://www.smokingmusket.com/</t>
+  </si>
+  <si>
+    <t>betmgm.com</t>
+  </si>
+  <si>
+    <t>https://www.betmgm.com/en/p/sportsbook-virginia</t>
+  </si>
+  <si>
+    <t>wintergreenresort.com</t>
+  </si>
+  <si>
+    <t>https://www.wintergreenresort.com/</t>
+  </si>
+  <si>
+    <t>visitvirginiabeach.com</t>
+  </si>
+  <si>
+    <t>https://www.visitvirginiabeach.com/blog/category/things-to-do-this-month/5ac2411ab00b5521a88539e9/</t>
+  </si>
+  <si>
+    <t>daveandbusters.com</t>
+  </si>
+  <si>
+    <t>http://www.daveandbusters.com/virginia-beach</t>
+  </si>
+  <si>
+    <t>valottery.com</t>
+  </si>
+  <si>
+    <t>https://www.valottery.com/aboutus/casinosandsportsbetting</t>
+  </si>
+  <si>
+    <t>barstoolsports.com</t>
+  </si>
+  <si>
+    <t>https://www.barstoolsports.com/</t>
+  </si>
+  <si>
+    <t>cbssports.com</t>
+  </si>
+  <si>
+    <t>https://www.cbssports.com/</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/</t>
+  </si>
+  <si>
+    <t>professionalrehabassociates.com</t>
+  </si>
+  <si>
+    <t>https://www.professionalrehabassociates.com/our-blog.html</t>
+  </si>
+  <si>
+    <t>nbcsports.com</t>
+  </si>
+  <si>
+    <t>https://www.nbcsports.com/sports-blog-favorites</t>
+  </si>
+  <si>
+    <t>heartlandcollegesports.com</t>
+  </si>
+  <si>
+    <t>https://www.heartlandcollegesports.com/</t>
+  </si>
+  <si>
+    <t>bonus.com</t>
+  </si>
+  <si>
+    <t>https://www.bonus.com/virginia/</t>
+  </si>
+  <si>
+    <t>hcavirginia.com</t>
+  </si>
+  <si>
+    <t>https://www.hcavirginia.com/locations/chippenham-hospital/specialties/Sports-medicine</t>
+  </si>
+  <si>
+    <t>tipico.com</t>
+  </si>
+  <si>
+    <t>https://www.tipico.com/us/virginia</t>
+  </si>
+  <si>
+    <t>dinwiddieva.us</t>
+  </si>
+  <si>
+    <t>https://www.dinwiddieva.us/488/Athletic-Programs-Leagues</t>
+  </si>
+  <si>
+    <t>specialolympicsva.org</t>
+  </si>
+  <si>
+    <t>https://www.specialolympicsva.org/</t>
+  </si>
+  <si>
+    <t>commonwealthgames.org</t>
+  </si>
+  <si>
+    <t>https://www.commonwealthgames.org/sport-listing/discit</t>
+  </si>
+  <si>
+    <t>sportsmanagementdegreehub.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsmanagementdegreehub.com/state-guides/virginia/</t>
+  </si>
+  <si>
+    <t>https://www.casino.org/news/wynnbet-now-offering-igaming-sports-betting-in-west-virginia/</t>
+  </si>
+  <si>
+    <t>bluefield.edu</t>
+  </si>
+  <si>
+    <t>https://www.bluefield.edu/</t>
+  </si>
+  <si>
+    <t>williamhill.us</t>
+  </si>
+  <si>
+    <t>https://www.williamhill.us/william-hill-mobile-and-online-sports-book-launches-in-virginia/</t>
+  </si>
+  <si>
+    <t>visitrichmondva.com</t>
+  </si>
+  <si>
+    <t>https://www.visitrichmondva.com/</t>
+  </si>
+  <si>
+    <t>si.com</t>
+  </si>
+  <si>
+    <t>https://www.si.com/</t>
+  </si>
+  <si>
+    <t>kwc.gov</t>
+  </si>
+  <si>
+    <t>https://www.kwc.gov/</t>
+  </si>
+  <si>
+    <t>fairfaxcounty.gov</t>
+  </si>
+  <si>
+    <t>https://www.fairfaxcounty.gov/parks/reccenter/classes-camps</t>
+  </si>
+  <si>
+    <t>https://www.playusa.com/virginia-sports-betting-shows-nearly-7-yearly-increase-in-april/</t>
+  </si>
+  <si>
+    <t>niche.com</t>
+  </si>
+  <si>
+    <t>https://www.niche.com/colleges/search/best-colleges-for-sports-management/s/virginia/</t>
+  </si>
+  <si>
+    <t>wavy.com</t>
+  </si>
+  <si>
+    <t>https://www.wavy.com/</t>
+  </si>
+  <si>
+    <t>cardplayer.com</t>
+  </si>
+  <si>
+    <t>https://www.cardplayer.com/poker-news/26449-virginia-sports-bettor-turns-50-in-1-1-million-with-15-team-parlay</t>
+  </si>
+  <si>
+    <t>https://www.playvirginia.com/february-2023-virginia-sports-betting-revenue-report/</t>
+  </si>
+  <si>
+    <t>arlnow.com</t>
+  </si>
+  <si>
+    <t>https://www.arlnow.com/</t>
+  </si>
+  <si>
+    <t>vaco.org</t>
+  </si>
+  <si>
+    <t>https://www.vaco.org/publications-resources/blog/</t>
+  </si>
+  <si>
+    <t>petersburgva.gov</t>
+  </si>
+  <si>
+    <t>http://www.petersburgva.gov/facilities/facility/details/Petersburg-Sports-Complex-5</t>
+  </si>
+  <si>
+    <t>onelifefitness.com</t>
+  </si>
+  <si>
+    <t>https://www.onelifefitness.com/</t>
+  </si>
+  <si>
+    <t>actionnetwork.com</t>
+  </si>
+  <si>
+    <t>https://www.actionnetwork.com/</t>
+  </si>
+  <si>
+    <t>rbc.edu</t>
+  </si>
+  <si>
+    <t>https://www.rbc.edu/</t>
+  </si>
+  <si>
+    <t>espnwwos.com</t>
+  </si>
+  <si>
+    <t>https://www.espnwwos.com/blog/</t>
+  </si>
+  <si>
+    <t>cbsnews.com</t>
+  </si>
+  <si>
+    <t>https://www.cbsnews.com/</t>
+  </si>
+  <si>
+    <t>southuniversity.edu</t>
+  </si>
+  <si>
+    <t>https://www.southuniversity.edu/news-and-blogs/2021/05/virginia-beach-students-gain-field-experience</t>
+  </si>
+  <si>
+    <t>fanduel.com</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/theduel/posts/fanduel-sportsbook-announces-virginia-launch-offer-mobile-betting-01ewjpv7b52r</t>
+  </si>
+  <si>
+    <t>hrosm.com</t>
+  </si>
+  <si>
+    <t>https://www.hrosm.com/hrosm-named-best-of-virginia-for-orthopaedics/</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/sports/2021/01/21/fanduel-virginia-sports-betting/</t>
+  </si>
+  <si>
+    <t>visitmartinsville.com</t>
+  </si>
+  <si>
+    <t>https://www.visitmartinsville.com/</t>
+  </si>
+  <si>
+    <t>virginiamemory.com</t>
+  </si>
+  <si>
+    <t>https://www.virginiamemory.com/blogs/</t>
+  </si>
+  <si>
+    <t>usatoday.com</t>
+  </si>
+  <si>
+    <t>https://www.usatoday.com/</t>
+  </si>
+  <si>
+    <t>usnews.com</t>
+  </si>
+  <si>
+    <t>https://www.usnews.com/</t>
+  </si>
+  <si>
+    <t>legion.org</t>
+  </si>
+  <si>
+    <t>https://www.legion.org/</t>
+  </si>
+  <si>
+    <t>nbc12.com</t>
+  </si>
+  <si>
+    <t>https://www.nbc12.com/2023/06/23/survey-va-health-care-workers-increasingly-confident-about-telehealth-use/</t>
+  </si>
+  <si>
+    <t>mayoclinic.org</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/</t>
+  </si>
+  <si>
+    <t>ncnewsonline.com</t>
+  </si>
+  <si>
+    <t>https://www.ncnewsonline.com/sports/national_sports/assistant-josh-eilert-picked-as-interim-coach-at-west-virginia-replacing-hall-of-famer-bob/article_f428fe95-822e-53fd-ac00-16a25546ffa5.html</t>
+  </si>
+  <si>
+    <t>politico.com</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/</t>
+  </si>
+  <si>
+    <t>medexpress.com</t>
+  </si>
+  <si>
+    <t>https://www.medexpress.com/</t>
+  </si>
+  <si>
+    <t>nrpa.org</t>
+  </si>
+  <si>
+    <t>https://www.nrpa.org/</t>
+  </si>
+  <si>
+    <t>panolawatchman.com</t>
+  </si>
+  <si>
+    <t>https://www.panolawatchman.com/arena/sports-illustrated/west-virginia-names-internal-assistant-as-interim-head-coach-to-replace-bob-huggins/article_9faf912e-e6a8-5317-9270-e220247e9bde.html</t>
+  </si>
+  <si>
+    <t>staradvertiser.com</t>
+  </si>
+  <si>
+    <t>https://www.staradvertiser.com/2023/06/24/sports/sports-breaking/secs-dominance-on-display-in-college-world-series-finals/</t>
+  </si>
+  <si>
+    <t>nj.com</t>
+  </si>
+  <si>
+    <t>https://www.nj.com/betting/online-sports-betting/virginia-sports-betting-sites.html</t>
+  </si>
+  <si>
+    <t>thedaonline.com</t>
+  </si>
+  <si>
+    <t>https://www.thedaonline.com/sports/mens_basketball/josh-eilert-hired-as-interim-wvu-men-s-basketball-coach/article_7970ec18-12eb-11ee-85c0-2f066fde1418.html</t>
+  </si>
+  <si>
+    <t>nbcnews.com</t>
+  </si>
+  <si>
+    <t>https://www.nbcnews.com/meet-the-press/meetthepressblog/youngkins-candidates-prevail-primaries-gop-aims-virginia-takeover-rcna90378</t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/2003/09/29/cx_dd_0929sportsblogs.html</t>
+  </si>
+  <si>
+    <t>vamuseums.org</t>
+  </si>
+  <si>
+    <t>https://www.vamuseums.org/news/community-blogs</t>
+  </si>
+  <si>
+    <t>ford.com</t>
+  </si>
+  <si>
+    <t>https://www.ford.com/</t>
+  </si>
+  <si>
+    <t>perfect-performancenova.com</t>
+  </si>
+  <si>
+    <t>https://www.perfect-performancenova.com/blog/category/football</t>
+  </si>
+  <si>
+    <t>blackgolfdirectory.com</t>
+  </si>
+  <si>
+    <t>https://www.blackgolfdirectory.com/group/blackgolddirectory-group/discussion/3016dbfa-85be-4788-9671-21289487dfa2</t>
+  </si>
+  <si>
+    <t>peacocktv.com</t>
+  </si>
+  <si>
+    <t>https://www.peacocktv.com/watch-online/tv/meet-the-press/6958221608132641112/seasons/23/episodes/june-25-2023-episode-26/8bd71b7b-3b9c-3a1a-a38d-2b4a322a9ebc</t>
+  </si>
+  <si>
+    <t>azdesertswarm.com</t>
+  </si>
+  <si>
+    <t>https://www.azdesertswarm.com/basketball/2023/6/23/23771824/arizona-wildcats-mens-basketball-kerr-kriisa-west-virginia-mountaineers-bob-huggins-dusan-ristic</t>
+  </si>
+  <si>
+    <t>pressrepublican.com</t>
+  </si>
+  <si>
+    <t>https://www.pressrepublican.com/news/anne-spencer-house-garden-museum-new-documentary/article_40f6e406-1155-11ee-8791-fff51123ee8a.html</t>
+  </si>
+  <si>
+    <t>tarheelblog.com</t>
+  </si>
+  <si>
+    <t>https://www.tarheelblog.com/2023/6/23/23771234/unc-basketball-leaky-black-signs-two-way-contract-charlotte-hornets-nba-draft</t>
+  </si>
+  <si>
+    <t>hipaajournal.com</t>
+  </si>
+  <si>
+    <t>https://www.hipaajournal.com/onix-group-sued-ransomware-attack-320k-record-data-breach/</t>
+  </si>
+  <si>
+    <t>nbcconnecticut.com</t>
+  </si>
+  <si>
+    <t>https://www.nbcconnecticut.com/news/sports/round-two-of-travelers-championship-in-cromwell-underway/3054733/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=sports+teams+in+virginia&amp;sxsrf=APwXEdebKh_b-WPrDVt9LRR2LDvD05QU0g%3A1687775822272&amp;ei=TmqZZM2fEMLLwbkP_YuDqAI&amp;oq=sports+in+virginia&amp;gs_lcp=Cgxnd3Mtd2l6LXNlcnAQARgAMgYIABAHEB4yBggAEAcQHjIGCAAQBxAeMgYIABAHEB4yBQgAEIAEMgYIABAHEB4yBggAEAcQHjIGCAAQBxAeMgYIABAHEB4yBggAEAcQHjoHCC4QigUQQzoVCC4QigUQQxCXBRDcBBDeBBDgBBgBSgQIQRgAUABYxhlgjXhoAHABeACAAeADiAHwEpIBBTMtNi4xmAEAoAEBwAEB2gEGCAEQARgU&amp;sclient=gws-wiz-serp#</t>
+  </si>
+  <si>
+    <t>50states.com</t>
+  </si>
+  <si>
+    <t>https://www.50states.com/sports/virginia.htm</t>
+  </si>
+  <si>
+    <t>https://www.virginia.org/sports/</t>
+  </si>
+  <si>
+    <t>fxva.com</t>
+  </si>
+  <si>
+    <t>https://www.fxva.com/events/capital-region-professional-sports/</t>
+  </si>
+  <si>
+    <t>quora.com</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/Why-doesnt-Virginia-have-any-major-professional-sports-teams</t>
+  </si>
+  <si>
+    <t>fieldlevel.com</t>
+  </si>
+  <si>
+    <t>https://www.fieldlevel.com/app/teams?state=va</t>
+  </si>
+  <si>
+    <t>interexchange.org</t>
+  </si>
+  <si>
+    <t>https://www.interexchange.org/american-culture/virginia/</t>
+  </si>
+  <si>
+    <t>yelp.com</t>
+  </si>
+  <si>
+    <t>https://www.yelp.com/search?find_desc=Professional+Sports+Teams&amp;find_loc=Virginia+Beach%2C+VA</t>
+  </si>
+  <si>
+    <t>bestwestern.com</t>
+  </si>
+  <si>
+    <t>https://www.bestwestern.com/en_US/hotels/destinations/united-states/mid-atlantic/virginia/things-to-do/sports/college-teams.html</t>
+  </si>
+  <si>
+    <t>visitroanokeva.com</t>
+  </si>
+  <si>
+    <t>https://www.visitroanokeva.com/things-to-do/sports/</t>
+  </si>
+  <si>
+    <t>https://www.si.com/college/virginia/all-sports/top-virginia-cavaliers-sports-teams-of-2021</t>
+  </si>
+  <si>
+    <t>wrightrealtors.com</t>
+  </si>
+  <si>
+    <t>https://www.wrightrealtors.com/links/sports/va_sports.htm</t>
+  </si>
+  <si>
+    <t>https://www.niche.com/colleges/search/best-college-athletics/s/virginia/</t>
+  </si>
+  <si>
+    <t>vt.edu</t>
+  </si>
+  <si>
+    <t>https://www.vt.edu/campus-life/athletics.html</t>
+  </si>
+  <si>
+    <t>hamptonroadssports.org</t>
+  </si>
+  <si>
+    <t>https://www.hamptonroadssports.org/page/professional-teams/</t>
+  </si>
+  <si>
+    <t>virginiaplaces.org</t>
+  </si>
+  <si>
+    <t>http://www.virginiaplaces.org/parktour/sports.html</t>
+  </si>
+  <si>
+    <t>https://www.virginia.edu/life/recreation</t>
+  </si>
+  <si>
+    <t>reddit.com</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/Virginia/comments/hsa1qt/what_professional_sports_teams_do_people_in_va/</t>
+  </si>
+  <si>
+    <t>https://www.specialolympicsva.org/sports/team-virginia</t>
+  </si>
+  <si>
+    <t>https://www.vcu.edu/athletics/</t>
+  </si>
+  <si>
+    <t>virginiacasinos.com</t>
+  </si>
+  <si>
+    <t>https://www.virginiacasinos.com/</t>
+  </si>
+  <si>
+    <t>maxpreps.com</t>
+  </si>
+  <si>
+    <t>https://www.maxpreps.com/va/football/rankings/1/</t>
+  </si>
+  <si>
+    <t>travelbaseballrankings.com</t>
+  </si>
+  <si>
+    <t>https://www.travelbaseballrankings.com/virginia.html</t>
+  </si>
+  <si>
+    <t>virginiacollege.ie</t>
+  </si>
+  <si>
+    <t>https://www.virginiacollege.ie/sport-in-virginia-college</t>
+  </si>
+  <si>
+    <t>vhsl-reference.com</t>
+  </si>
+  <si>
+    <t>http://www.vhsl-reference.com/teamlisting.cfm</t>
+  </si>
+  <si>
+    <t>worldatlas.com</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/states-without-professional-sports-teams.html</t>
+  </si>
+  <si>
+    <t>https://www.virginiamercury.com/2023/02/21/why-sen-chap-petersen-is-right-va-shouldnt-build-dan-snyder-a-stadium/</t>
+  </si>
+  <si>
+    <t>https://www.cbssports.com/college-basketball/teams/UVA/virginia-cavaliers/</t>
+  </si>
+  <si>
+    <t>visaa.org</t>
+  </si>
+  <si>
+    <t>https://www.visaa.org/</t>
+  </si>
+  <si>
+    <t>lucidtravel.us</t>
+  </si>
+  <si>
+    <t>https://www.lucidtravel.us/university/virginia-commonwealth-university/9223</t>
+  </si>
+  <si>
+    <t>vpcc.edu</t>
+  </si>
+  <si>
+    <t>https://www.vpcc.edu/life/athletics/</t>
+  </si>
+  <si>
+    <t>facebook.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/VirginiaCavaliers/</t>
+  </si>
+  <si>
+    <t>norfolk.gov</t>
+  </si>
+  <si>
+    <t>https://www.norfolk.gov/731/Athletics-Recreation-Sports</t>
+  </si>
+  <si>
+    <t>virginiaflagfootball.com</t>
+  </si>
+  <si>
+    <t>https://www.virginiaflagfootball.com/</t>
+  </si>
+  <si>
+    <t>collegefactual.com</t>
+  </si>
+  <si>
+    <t>https://www.collegefactual.com/rankings/sports/football-men/southeast/virginia/</t>
+  </si>
+  <si>
+    <t>https://www.commonwealthgames.org/</t>
+  </si>
+  <si>
+    <t>https://www.vatc.org/marketing/groupsmeetingssports/sportsmarketing/</t>
+  </si>
+  <si>
+    <t>privateschoolreview.com</t>
+  </si>
+  <si>
+    <t>https://www.privateschoolreview.com/sports-stats/virginia</t>
+  </si>
+  <si>
+    <t>vsu.edu</t>
+  </si>
+  <si>
+    <t>https://www.vsu.edu/student-life/sport-leisure/index.php</t>
+  </si>
+  <si>
+    <t>arlingtonva.us</t>
+  </si>
+  <si>
+    <t>https://www.arlingtonva.us/Government/Departments/Parks-Recreation/Programs/Sports</t>
+  </si>
+  <si>
+    <t>politifact.com</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2012/dec/26/jimmy-barrett/barrett-says-virginia-most-populous-state-without-/</t>
+  </si>
+  <si>
+    <t>indeed.com</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/q-sports-l-virginia-jobs.html</t>
+  </si>
+  <si>
+    <t>imleagues.com</t>
+  </si>
+  <si>
+    <t>https://www.imleagues.com/VirginiaWestern</t>
+  </si>
+  <si>
+    <t>https://www.actionnetwork.com/online-sports-betting/virginia</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ELltF6Ja50M</t>
+  </si>
+  <si>
+    <t>wvu.edu</t>
+  </si>
+  <si>
+    <t>https://www.wvu.edu/faq/what-varsity-sports-do-you-offer</t>
+  </si>
+  <si>
+    <t>newrivervalleyva.org</t>
+  </si>
+  <si>
+    <t>https://www.newrivervalleyva.org/live-here/sports-and-rec/</t>
+  </si>
+  <si>
+    <t>southlakessentinel.com</t>
+  </si>
+  <si>
+    <t>https://www.southlakessentinel.com/news/2021/12/09/virginias-nonexistent-team-why-the-commonwealth-is-left-without-a-professional-team/</t>
+  </si>
+  <si>
+    <t>ves.org</t>
+  </si>
+  <si>
+    <t>https://www.ves.org/athletics</t>
+  </si>
+  <si>
+    <t>i9sports.com</t>
+  </si>
+  <si>
+    <t>https://www.i9sports.com/virginia-beach-youth-sports-leagues</t>
+  </si>
+  <si>
+    <t>https://www.insidenova.com/news/state/best-high-schools-for-sports-in-virginia/collection_900fdc30-8773-5412-b4a8-a3fba4d070e6.html</t>
+  </si>
+  <si>
+    <t>virginiasportsnetwork.com</t>
+  </si>
+  <si>
+    <t>https://www.virginiasportsnetwork.com/</t>
+  </si>
+  <si>
+    <t>https://www.visitvirginiabeach.com/sports/events/</t>
+  </si>
+  <si>
+    <t>loudountimes.com</t>
+  </si>
+  <si>
+    <t>https://www.loudountimes.com/sports/team-virginia-advances-to-fbu-national-championship-tournament/article_2030eae0-1d2b-11ea-8947-8331523d7750.html</t>
+  </si>
+  <si>
+    <t>liberty.edu</t>
+  </si>
+  <si>
+    <t>https://www.liberty.edu/athletics/</t>
+  </si>
+  <si>
+    <t>vaelitehoops.com</t>
+  </si>
+  <si>
+    <t>https://www.vaelitehoops.com/</t>
+  </si>
+  <si>
+    <t>specialolympics.org</t>
+  </si>
+  <si>
+    <t>https://www.specialolympics.org/programs/united-states/virginia</t>
+  </si>
+  <si>
+    <t>nvdaily.com</t>
+  </si>
+  <si>
+    <t>https://www.nvdaily.com/sports/</t>
+  </si>
+  <si>
+    <t>vwu.edu</t>
+  </si>
+  <si>
+    <t>https://www.vwu.edu/campus-life/urec/recreational-sports.php</t>
+  </si>
+  <si>
+    <t>vabluestorm.com</t>
+  </si>
+  <si>
+    <t>https://www.vabluestorm.com/usgames</t>
+  </si>
+  <si>
+    <t>https://www.wdbj7.com/video/2023/03/24/virginia-tech-womens-basketball-team-playing-tennessee-sweet-16/</t>
+  </si>
+  <si>
+    <t>vboceanfrontnorth.com</t>
+  </si>
+  <si>
+    <t>https://www.vboceanfrontnorth.com/things-to-do/virginia-beach-sports-center/</t>
+  </si>
+  <si>
+    <t>https://www.legion.org/baseball/teams/2023/va</t>
+  </si>
+  <si>
+    <t>sportskeeda.com</t>
+  </si>
+  <si>
+    <t>https://www.sportskeeda.com/nfl/ranking-popular-nfl-teams-state</t>
+  </si>
+  <si>
+    <t>sportsdestinations.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsdestinations.com/spotlights/virginia/sports-teams-are-discovering-prince-george-county-15564</t>
+  </si>
+  <si>
+    <t>yardbarker.com</t>
+  </si>
+  <si>
+    <t>https://www.yardbarker.com/nba/articles/20_cities_that_deserve_an_nba_expansion_team/s1__38295453</t>
+  </si>
+  <si>
+    <t>vividseats.com</t>
+  </si>
+  <si>
+    <t>https://www.vividseats.com/region/usa/wv/west-virginia-tickets/116/sports</t>
+  </si>
+  <si>
+    <t>virginiasportsperformance.com</t>
+  </si>
+  <si>
+    <t>http://www.virginiasportsperformance.com/</t>
+  </si>
+  <si>
+    <t>visitharrisonburgva.com</t>
+  </si>
+  <si>
+    <t>https://www.visitharrisonburgva.com/sporting-events/</t>
+  </si>
+  <si>
+    <t>thelines.com</t>
+  </si>
+  <si>
+    <t>https://www.thelines.com/virginia/</t>
+  </si>
+  <si>
+    <t>leaguelineup.com</t>
+  </si>
+  <si>
+    <t>https://www.leaguelineup.com/welcome.asp?url=virginiabaseball</t>
+  </si>
+  <si>
+    <t>stadium-maps.com</t>
+  </si>
+  <si>
+    <t>https://www.stadium-maps.com/sports-maps/national-basketball-association.html</t>
+  </si>
+  <si>
+    <t>wsls.com</t>
+  </si>
+  <si>
+    <t>https://www.wsls.com/topic/Hokies/</t>
+  </si>
+  <si>
+    <t>https://www.cbsnews.com/sacramento/news/whats-next-for-virginia-beach-over-a-year-after-targeting-sacramento-kings/</t>
+  </si>
+  <si>
+    <t>https://www.pilotonline.com/2017/03/14/nba-franchise-in-virginia-beach-wouldnt-be-impossible-but-team-would-cost-1-billion/</t>
+  </si>
+  <si>
+    <t>milb.com</t>
+  </si>
+  <si>
+    <t>https://www.milb.com/fredericksburg</t>
+  </si>
+  <si>
+    <t>foxsports.com</t>
+  </si>
+  <si>
+    <t>https://www.foxsports.com/stories/college-basketball/west-virginia-names-josh-eilert-interim-head-coach</t>
+  </si>
+  <si>
+    <t>https://www.covers.com/industry/wynnbet-launches-west-virginia-june-2023</t>
+  </si>
+  <si>
+    <t>xfl.com</t>
+  </si>
+  <si>
+    <t>https://www.xfl.com/</t>
+  </si>
+  <si>
+    <t>wvnews.com</t>
+  </si>
+  <si>
+    <t>https://www.wvnews.com/bluegoldnews/zaisberger-earns-academic-all-america-first-team-honors/article_6bbf4af4-1144-11ee-a3ed-073e61be1d56.html</t>
+  </si>
+  <si>
+    <t>thestjames.com</t>
+  </si>
+  <si>
+    <t>https://www.thestjames.com/</t>
+  </si>
+  <si>
+    <t>virginiacrusaders.com</t>
+  </si>
+  <si>
+    <t>https://www.virginiacrusaders.com/</t>
+  </si>
+  <si>
+    <t>wvnstv.com</t>
+  </si>
+  <si>
+    <t>https://www.wvnstv.com/sports/sports-illustrated/ffaaa525/report-wizards-capitals-officials-in-discussions-about-moving-teams-from-washington-d-c</t>
+  </si>
+  <si>
+    <t>usaswimming.org</t>
+  </si>
+  <si>
+    <t>https://www.usaswimming.org/find-a-team</t>
+  </si>
+  <si>
+    <t>ncaa.com</t>
+  </si>
+  <si>
+    <t>https://www.ncaa.com/news/baseball/article/2023-06-18/brian-oconnor-coaches-uva-first-fathers-day-his-dads-passing</t>
+  </si>
+  <si>
+    <t>https://www.heartlandcollegesports.com/2023/06/25/west-virginia-guard-joe-toussaint-to-tour-k-state-texas-tech/</t>
+  </si>
+  <si>
+    <t>wjhl.com</t>
+  </si>
+  <si>
+    <t>https://www.wjhl.com/news/regional/virginia/preliminary-report-shows-timeline-leading-up-to-deadly-virginia-plane-crash/</t>
+  </si>
+  <si>
+    <t>nbcwashington.com</t>
+  </si>
+  <si>
+    <t>https://www.nbcwashington.com/news/local/dc-doctors-and-sports-teams-join-forces-to-clear-up-misconceptions-about-cpr/3369722/</t>
+  </si>
+  <si>
+    <t>wboy.com</t>
+  </si>
+  <si>
+    <t>https://www.wboy.com/news/health/transgender-sports-ban-heads-to-north-carolina-governors-desk/</t>
+  </si>
+  <si>
+    <t>bluegoldsports.com</t>
+  </si>
+  <si>
+    <t>https://www.bluegoldsports.com/2023/06/23/report-west-virginia-continuing-to-talk-to-three-more-names-in-coaching-search/</t>
+  </si>
+  <si>
+    <t>tampabay.com</t>
+  </si>
+  <si>
+    <t>https://www.tampabay.com/sports/gators/2023/06/23/florida-gators-baseball-college-world-series-lsu-sec-dominance/</t>
+  </si>
+  <si>
+    <t>wzzm13.com</t>
+  </si>
+  <si>
+    <t>https://www.wzzm13.com/article/sports/locked-on/lo-national/college-basketball-show/memphis-michigan-among-5-potential-landing-spots-transfer-guard-kerr-kriisa/535-5fc42b70-67a1-4012-98a2-dceae1449664</t>
+  </si>
+  <si>
+    <t>highschoolot.com</t>
+  </si>
+  <si>
+    <t>https://www.highschoolot.com/keelan-flowe-west-virginia-felt-like-home-to-me-after-my-official-visit/20926366/</t>
+  </si>
+  <si>
+    <t>wdhn.com</t>
+  </si>
+  <si>
+    <t>https://www.wdhn.com/sports/assistant-josh-eilert-picked-as-interim-coach-at-west-virginia-replacing-hall-of-famer-bob-huggins/</t>
+  </si>
+  <si>
+    <t>https://www.wavy.com/video/virginia-man-loses-mom-to-alzheimers-while-raising-funds-in-her-honor/8762429/</t>
+  </si>
+  <si>
+    <t>stltoday.com</t>
+  </si>
+  <si>
+    <t>https://www.stltoday.com/sports/college/josh-eilert-picked-as-interim-coach-at-west-virginia/article_256df374-f246-5186-845b-095cecae47f7.html</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=casino+and+sports+betting+sites+in+virginia&amp;sxsrf=APwXEdd0REezlQJcYkP_g_3Ny3eL-u-CmQ%3A1687776297825&amp;ei=KWyZZLqCMqqbwbkPmYie-AE&amp;ved=0ahUKEwj6usTV4OD_AhWqTTABHRmEBx8Q4dUDCBA&amp;uact=5&amp;oq=casino+and+sports+betting+sites+in+virginia&amp;gs_lcp=Cgxnd3Mtd2l6LXNlcnAQAzIICCEQoAEQwwQ6BAgAEEc6BQgAEIAEOggIABAFEAcQHjoHCC4QigUQQzoGCAAQBxAeOhUILhCKBRBDEJcFENwEEN4EEOAEGAE6CAgAEAgQBxAeOggIABAIEB4QDToICAAQigUQhgM6BQgAEKIESgQIQRgAUM6HAVj40gJg79sCaANwAngBgAHUBogBjmiSAQwyLTQuMzIuMi4wLjGYAQCgAQHAAQHIAQjaAQYIARABGBQ&amp;sclient=gws-wiz-serp#</t>
+  </si>
+  <si>
+    <t>bettingusa.com</t>
+  </si>
+  <si>
+    <t>https://www.bettingusa.com/states/va/</t>
   </si>
   <si>
     <t>gamingtoday.com</t>
   </si>
   <si>
-    <t>https://www.gamingtoday.com/kentucky/#:~:text=will%20be%20soon.-,Gov.,first%20sportsbook%20apps%20to%20launch.</t>
-  </si>
-  <si>
-    <t>betkentucky.com</t>
-  </si>
-  <si>
-    <t>https://www.betkentucky.com/apps</t>
-  </si>
-  <si>
-    <t>casino.org</t>
-  </si>
-  <si>
-    <t>https://www.casino.org/us/ky/#:~:text=No%2C%20you%20cannot%20use%20online,like%20slots%20and%20table%20games.</t>
-  </si>
-  <si>
-    <t>covers.com</t>
-  </si>
-  <si>
-    <t>https://www.covers.com/betting/usa/kentucky</t>
-  </si>
-  <si>
-    <t>betting.us</t>
-  </si>
-  <si>
-    <t>https://www.betting.us/kentucky/</t>
-  </si>
-  <si>
-    <t>oddsshark.com</t>
-  </si>
-  <si>
-    <t>https://www.oddsshark.com/usa/kentucky</t>
+    <t>https://www.gamingtoday.com/virginia/</t>
+  </si>
+  <si>
+    <t>https://www.casino.org/us/va/</t>
+  </si>
+  <si>
+    <t>https://www.lineups.com/betting/virginia-sports-betting/</t>
   </si>
   <si>
     <t>gambling.com</t>
   </si>
   <si>
-    <t>https://www.gambling.com/us/online-casinos/kentucky</t>
-  </si>
-  <si>
-    <t>legaluspokersites.com</t>
-  </si>
-  <si>
-    <t>https://www.legaluspokersites.com/state-laws/kentucky/#:~:text=Online%20poker%20and%20online%20casino,licensed%20and%20regulated%20in%20Kentucky.</t>
+    <t>https://www.gambling.com/us/online-casinos/virginia</t>
+  </si>
+  <si>
+    <t>https://www.valottery.com/aboutus/casinosandsportsbetting/sportsbetting</t>
+  </si>
+  <si>
+    <t>miamiherald.com</t>
+  </si>
+  <si>
+    <t>https://www.miamiherald.com/betting/article258716428.html</t>
+  </si>
+  <si>
+    <t>sportsbetting18.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsbetting18.com/states/va/</t>
+  </si>
+  <si>
+    <t>500nations.com</t>
+  </si>
+  <si>
+    <t>https://www.500nations.com/Virginia_Casinos.asp</t>
+  </si>
+  <si>
+    <t>wynnbet.com</t>
+  </si>
+  <si>
+    <t>https://www.wynnbet.com/va/</t>
+  </si>
+  <si>
+    <t>https://www.fanduel.com/sportsbook-va</t>
+  </si>
+  <si>
+    <t>the-sun.com</t>
+  </si>
+  <si>
+    <t>https://www.the-sun.com/betting/8409676/virginia-sports-betting/</t>
+  </si>
+  <si>
+    <t>https://www.cbssports.com/general/news/u-s-sports-betting-heres-where-all-50-states-currently-stand-on-legalizing-sports-gambling-mobile-betting/</t>
+  </si>
+  <si>
+    <t>realmoneyaction.com</t>
+  </si>
+  <si>
+    <t>https://www.realmoneyaction.com/us-casinos/virginia/</t>
+  </si>
+  <si>
+    <t>sportsbookreview.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsbookreview.com/bonuses-virginia/</t>
+  </si>
+  <si>
+    <t>techopedia.com</t>
+  </si>
+  <si>
+    <t>https://www.techopedia.com/gambling/virginia/sports-betting</t>
+  </si>
+  <si>
+    <t>legalsportsbetting.com</t>
+  </si>
+  <si>
+    <t>https://www.legalsportsbetting.com/virginia/</t>
+  </si>
+  <si>
+    <t>https://www.online-gambling.com/us/virginia/</t>
+  </si>
+  <si>
+    <t>playwv.com</t>
+  </si>
+  <si>
+    <t>https://www.playwv.com/sports-betting/</t>
+  </si>
+  <si>
+    <t>americangambler.com</t>
+  </si>
+  <si>
+    <t>https://www.americangambler.com/review/betrivers-virginia/</t>
+  </si>
+  <si>
+    <t>accessportsmouthva.com</t>
+  </si>
+  <si>
+    <t>https://www.accessportsmouthva.com/media/2mdnec0s/10_28.pdf</t>
+  </si>
+  <si>
+    <t>riverscasino.com</t>
+  </si>
+  <si>
+    <t>https://www.riverscasino.com/portsmouth/casino/sportsbook</t>
+  </si>
+  <si>
+    <t>https://www.usatoday.com/betting/sports/sportsbook</t>
   </si>
   <si>
     <t>sportsbettingdime.com</t>
   </si>
   <si>
-    <t>https://www.sportsbettingdime.com/us/kentucky/fanduel/#:~:text=Yes%2C%20FanDuel%20is%20currently%20legal%20in%20Kentucky.</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?q=casino+and+sports+betting+sites+in+kentucky+usa&amp;rlz=1C1KNTJ_enNG1063NG1063&amp;sxsrf=APwXEdf_Xaih6J9T3DMveQdURVqPwdEHwg%3A1687480654920&amp;ei=TumUZKnKNuKpxc8P_uW42AQ&amp;ved=0ahUKEwipqYCok9j_AhXiVPEDHf4yDksQ4dUDCA8&amp;uact=5&amp;oq=casino+and+sports+betting+sites+in+kentucky+usa&amp;gs_lcp=Cgxnd3Mtd2l6LXNlcnAQAzIKCAAQRxDWBBCwAzIKCAAQRxDWBBCwAzIKCAAQRxDWBBCwAzIKCAAQRxDWBBCwAzIKCAAQRxDWBBCwAzIKCAAQRxDWBBCwAzIKCAAQRxDWBBCwAzIKCAAQRxDWBBCwA0oECEEYAFAAWABgoZABaAFwAXgAgAEAiAEAkgEAmAEAwAEByAEI&amp;sclient=gws-wiz-serp#</t>
-  </si>
-  <si>
-    <t>https://www.legalsportsreport.com/kentucky/#:~:text=Yes%2C%20Kentucky%20sports%20betting%20is,in%20the%20state%20officially%20launch.</t>
-  </si>
-  <si>
-    <t>onlinesportsbetting.net</t>
-  </si>
-  <si>
-    <t>https://www.onlinesportsbetting.net/usa/kentucky/</t>
+    <t>https://www.sportsbettingdime.com/sportsbooks/</t>
+  </si>
+  <si>
+    <t>mardigrascasinowv.com</t>
+  </si>
+  <si>
+    <t>https://www.mardigrascasinowv.com/sportsbook/online-sportsbook</t>
+  </si>
+  <si>
+    <t>hardrocksportsbook.com</t>
+  </si>
+  <si>
+    <t>https://www.hardrocksportsbook.com/va/</t>
+  </si>
+  <si>
+    <t>https://www.oddschecker.com/us/free-bets</t>
+  </si>
+  <si>
+    <t>americangaming.org</t>
+  </si>
+  <si>
+    <t>https://www.americangaming.org/state/virginia/</t>
+  </si>
+  <si>
+    <t>olbg.com</t>
+  </si>
+  <si>
+    <t>https://www.olbg.com/us/sportsbooks</t>
+  </si>
+  <si>
+    <t>hardrockhotelcasinobristol.com</t>
+  </si>
+  <si>
+    <t>https://www.hardrockhotelcasinobristol.com/sportsbook</t>
+  </si>
+  <si>
+    <t>https://www.usbets.com/sports-betting/</t>
+  </si>
+  <si>
+    <t>cnty.com</t>
+  </si>
+  <si>
+    <t>https://www.cnty.com/mountaineer/betting</t>
+  </si>
+  <si>
+    <t>wheelingisland.com</t>
+  </si>
+  <si>
+    <t>https://www.wheelingisland.com/sportsbook/online-sportsbook</t>
+  </si>
+  <si>
+    <t>lines.com</t>
+  </si>
+  <si>
+    <t>https://www.lines.com/guides/best-betting-apps/1281</t>
+  </si>
+  <si>
+    <t>hollywoodcasinocharlestown.com</t>
+  </si>
+  <si>
+    <t>https://www.hollywoodcasinocharlestown.com/casino/barstool-sportsbook</t>
+  </si>
+  <si>
+    <t>mgmresorts.com</t>
+  </si>
+  <si>
+    <t>https://www.mgmresorts.com/en/casino/sportsbooks.html</t>
+  </si>
+  <si>
+    <t>lasvegas-how-to.com</t>
+  </si>
+  <si>
+    <t>https://www.lasvegas-how-to.com/virginia/sports-betting/</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/dc-md-va/2022/11/22/maryland-sports-betting-launch/</t>
+  </si>
+  <si>
+    <t>https://www.virginiamercury.com/2023/01/03/virginia-lawmakers-want-to-create-new-state-committee-on-gambling-addiction/</t>
+  </si>
+  <si>
+    <t>scams.info</t>
+  </si>
+  <si>
+    <t>https://www.scams.info/blog/gambling-laws/virginia-gambling-laws/</t>
+  </si>
+  <si>
+    <t>https://www.espn.com/chalk/story/_/id/19740480/the-united-states-sports-betting-where-all-50-states-stand-legalization</t>
+  </si>
+  <si>
+    <t>vabeach.com</t>
+  </si>
+  <si>
+    <t>https://www.vabeach.com/virginia-beach-articles/virginia-beach-gambling-industry-overview-for-tourists/</t>
+  </si>
+  <si>
+    <t>https://www.crossingbroad.com/sports-betting/pa</t>
+  </si>
+  <si>
+    <t>casinos18.com</t>
+  </si>
+  <si>
+    <t>https://www.casinos18.com/states/virginia/</t>
+  </si>
+  <si>
+    <t>odu.edu</t>
+  </si>
+  <si>
+    <t>https://www.odu.edu/article/a-new-bet-for-the-commonwealth-sports-wagering-casinos-join-growing-legal-gambling-options</t>
+  </si>
+  <si>
+    <t>https://www.thesportsgeek.com/sportsbooks/us/oklahoma/</t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/betting/sports-betting/maryland/</t>
+  </si>
+  <si>
+    <t>sportsgamblingpodcast.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsgamblingpodcast.com/online-sports-betting/</t>
+  </si>
+  <si>
+    <t>bovada.lv</t>
+  </si>
+  <si>
+    <t>https://www.bovada.lv/</t>
+  </si>
+  <si>
+    <t>nytimes.com</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2022/11/20/business/sports-betting-lobbying-kansas.html</t>
+  </si>
+  <si>
+    <t>insider.com</t>
+  </si>
+  <si>
+    <t>https://www.insider.com/legal-sports-betting-gambling-states-2022-5</t>
+  </si>
+  <si>
+    <t>wtvr.com</t>
+  </si>
+  <si>
+    <t>https://www.wtvr.com/news/local-news/when-sports-gambling-comes-to-virginia-some-fans-wont-be-allowed-to-bet-on-their-favorite-team</t>
+  </si>
+  <si>
+    <t>https://www.saturdaydownsouth.com/sports-betting/north-carolina/</t>
+  </si>
+  <si>
+    <t>ballybet.com</t>
+  </si>
+  <si>
+    <t>https://www.ballybet.com/</t>
+  </si>
+  <si>
+    <t>https://www.gamblingsites.org/gambling/us/virginia/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2WPkdddxtXs</t>
+  </si>
+  <si>
+    <t>kansascity.com</t>
+  </si>
+  <si>
+    <t>https://www.kansascity.com/betting/article258886058.html</t>
+  </si>
+  <si>
+    <t>gambleonline.co</t>
+  </si>
+  <si>
+    <t>https://www.gambleonline.co/usa/virginia/</t>
+  </si>
+  <si>
+    <t>bestuscasinos.org</t>
+  </si>
+  <si>
+    <t>https://www.bestuscasinos.org/legal/virginia/</t>
   </si>
   <si>
     <t>basketballinsiders.com</t>
   </si>
   <si>
-    <t>https://www.basketballinsiders.com/ky/</t>
-  </si>
-  <si>
-    <t>thesportsgeek.com</t>
-  </si>
-  <si>
-    <t>https://www.thesportsgeek.com/sportsbooks/us/kentucky/</t>
-  </si>
-  <si>
-    <t>https://www.betkentucky.com/</t>
-  </si>
-  <si>
-    <t>compare.bet</t>
-  </si>
-  <si>
-    <t>https://www.compare.bet/en-us/betting/kentucky</t>
-  </si>
-  <si>
-    <t>americangambler.com</t>
-  </si>
-  <si>
-    <t>https://www.americangambler.com/betting_app/kentucky-betting-apps/</t>
-  </si>
-  <si>
-    <t>bettingusa.com</t>
-  </si>
-  <si>
-    <t>https://www.bettingusa.com/states/ky/</t>
-  </si>
-  <si>
-    <t>usatoday.com</t>
-  </si>
-  <si>
-    <t>https://www.usatoday.com/betting/sports/kentucky/sites</t>
-  </si>
-  <si>
-    <t>lineups.com</t>
-  </si>
-  <si>
-    <t>https://www.lineups.com/betting/kentucky-sports-betting/</t>
-  </si>
-  <si>
-    <t>wsn.com</t>
-  </si>
-  <si>
-    <t>https://www.wsn.com/sports-betting-usa/kentucky/</t>
-  </si>
-  <si>
-    <t>realmoneyaction.com</t>
-  </si>
-  <si>
-    <t>https://www.realmoneyaction.com/us-casinos/kentucky/</t>
-  </si>
-  <si>
-    <t>playusa.com</t>
-  </si>
-  <si>
-    <t>https://www.playusa.com/kentucky/</t>
-  </si>
-  <si>
-    <t>cbssports.com</t>
-  </si>
-  <si>
-    <t>https://www.cbssports.com/general/news/u-s-sports-betting-heres-where-all-50-states-currently-stand-on-legalizing-sports-gambling-betting-sites/</t>
-  </si>
-  <si>
-    <t>usaonlinesportsbooks.com</t>
-  </si>
-  <si>
-    <t>https://www.usaonlinesportsbooks.com/states/kentucky.html</t>
-  </si>
-  <si>
-    <t>https://www.gamingtoday.com/kentucky/</t>
-  </si>
-  <si>
-    <t>actionnetwork.com</t>
-  </si>
-  <si>
-    <t>https://www.actionnetwork.com/news/legal-sports-betting-united-states-projections</t>
-  </si>
-  <si>
-    <t>sportsbetting18.com</t>
-  </si>
-  <si>
-    <t>https://www.sportsbetting18.com/states/ky/</t>
-  </si>
-  <si>
-    <t>outlookindia.com</t>
-  </si>
-  <si>
-    <t>https://www.outlookindia.com/outlook-spotlight/how-to-bet-on-kentucky-derby-from-all-us-states-comprehensive-guide-with-the-top-7-sites-news-283643</t>
-  </si>
-  <si>
-    <t>legalgamblingusa.com</t>
-  </si>
-  <si>
-    <t>https://www.legalgamblingusa.com/states/kentucky-online-gambling.html</t>
-  </si>
-  <si>
-    <t>gamblingsites.com</t>
-  </si>
-  <si>
-    <t>https://www.gamblingsites.com/us/kentucky/</t>
-  </si>
-  <si>
-    <t>online-gambling.com</t>
-  </si>
-  <si>
-    <t>https://www.online-gambling.com/us/kentucky/</t>
-  </si>
-  <si>
-    <t>americangaming.org</t>
-  </si>
-  <si>
-    <t>https://www.americangaming.org/research/state-gaming-map/</t>
-  </si>
-  <si>
-    <t>sportsbookreview.com</t>
-  </si>
-  <si>
-    <t>https://www.sportsbookreview.com/best-sportsbooks/</t>
-  </si>
-  <si>
-    <t>miamiherald.com</t>
-  </si>
-  <si>
-    <t>https://www.miamiherald.com/betting/article260519052.html</t>
-  </si>
-  <si>
-    <t>legalsportsbetting.com</t>
-  </si>
-  <si>
-    <t>https://www.legalsportsbetting.com/kentucky/</t>
-  </si>
-  <si>
-    <t>derbycitygaming.com</t>
-  </si>
-  <si>
-    <t>https://www.derbycitygaming.com/</t>
-  </si>
-  <si>
-    <t>thelines.com</t>
-  </si>
-  <si>
-    <t>https://www.thelines.com/betting/</t>
+    <t>https://www.basketballinsiders.com/online-casinos/va/</t>
+  </si>
+  <si>
+    <t>greenspunlaw.com</t>
+  </si>
+  <si>
+    <t>https://www.greenspunlaw.com/library/virginia-gambling-criminal-defense-lawyer.cfm</t>
+  </si>
+  <si>
+    <t>wxii12.com</t>
+  </si>
+  <si>
+    <t>https://www.wxii12.com/article/north-carolina-vegas-style-casino-opening-near-virginia-north-carolina-state-line/43880690</t>
+  </si>
+  <si>
+    <t>circalasvegas.com</t>
+  </si>
+  <si>
+    <t>https://www.circalasvegas.com/sportsbook/</t>
+  </si>
+  <si>
+    <t>whsv.com</t>
+  </si>
+  <si>
+    <t>https://www.whsv.com/video/2023/06/20/warhorse-casino-sports-betting-opens-thursday-lincoln/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/wavytv10/videos/live-conversation-about-rivers-casino-portsmouth/613830160510483/</t>
+  </si>
+  <si>
+    <t>https://www.nbc12.com/video/2023/06/20/warhorse-casino-sports-betting-opens-thursday-lincoln/</t>
+  </si>
+  <si>
+    <t>https://www.nbcwashington.com/entertainment/the-scene/mgm-national-harbor-to-launch-sports-betting/2905135/</t>
+  </si>
+  <si>
+    <t>rushstreetinteractive.com</t>
+  </si>
+  <si>
+    <t>https://www.rushstreetinteractive.com/</t>
+  </si>
+  <si>
+    <t>wapt.com</t>
+  </si>
+  <si>
+    <t>https://www.wapt.com/article/2-more-vicksburg-casinos-open-sports-betting/22888565</t>
+  </si>
+  <si>
+    <t>trasportopersone.it</t>
+  </si>
+  <si>
+    <t>http://www.trasportopersone.it/redirect.aspx?url=http://bpixnhyz.pklt.ru</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=sport+update+sites+in+virginia&amp;sxsrf=APwXEdfHplewLJ5GsLsLcV26hQ2nvyxdeg%3A1687777647625&amp;ei=b3GZZOfnJdf8wbkPk-yS4AM&amp;ved=0ahUKEwin25XZ5eD_AhVXfjABHRO2BDwQ4dUDCBA&amp;uact=5&amp;oq=sport+update+sites+in+virginia&amp;gs_lcp=Cgxnd3Mtd2l6LXNlcnAQAzIICCEQoAEQwwQ6BggAEAcQHjoFCAAQgAQ6BggAEAgQHjoFCC4QgAQ6CgghEKABEMMEEAo6BQgAEKIEOggIABCJBRCiBEoECEEYAFAAWOe4AWCOzwFoAXABeACAAfwCiAHxP5IBBjItNy4xOZgBAKABAcABAQ&amp;sclient=gws-wiz-serp#</t>
+  </si>
+  <si>
+    <t>https://www.wsn.com/sports-betting-usa/virginia/#:~:text=Online%20sports%20betting%20is%20legal,betting%20to%20the%20Old%20Dominion.</t>
+  </si>
+  <si>
+    <t>https://www.wdbj7.com/</t>
+  </si>
+  <si>
+    <t>https://www.loudoun.gov/1306/Field-Facility-Status</t>
+  </si>
+  <si>
+    <t>https://www.si.com/college/virginia/football/virginia-football-2023-transfer-portal-updates</t>
+  </si>
+  <si>
+    <t>yorkcounty.gov</t>
+  </si>
+  <si>
+    <t>https://www.yorkcounty.gov/1843/McReynolds-Athletic-Complex</t>
+  </si>
+  <si>
+    <t>https://www.whsv.com/</t>
+  </si>
+  <si>
+    <t>viennava.gov</t>
+  </si>
+  <si>
+    <t>https://www.viennava.gov/residents/parks-recreation/community-sports-organizations</t>
+  </si>
+  <si>
+    <t>https://www.vpcc.edu/news/2022/11/sports-update-mens-basketball-wins-opener.html?image</t>
+  </si>
+  <si>
+    <t>https://www.virginia.edu/</t>
+  </si>
+  <si>
+    <t>alexandriava.gov</t>
+  </si>
+  <si>
+    <t>https://www.alexandriava.gov/sports/youth-sports</t>
+  </si>
+  <si>
+    <t>https://www.wboy.com/</t>
+  </si>
+  <si>
+    <t>https://www.maxpreps.com/</t>
+  </si>
+  <si>
+    <t>jobs.virginia.gov</t>
+  </si>
+  <si>
+    <t>https://www.jobs.virginia.gov/jobs/head-football-athletic-trainer-assistant-athletic-trainer-lexington-virginia-united-states</t>
+  </si>
+  <si>
+    <t>http://www.dinwiddieva.us/298/Parks-Recreation</t>
+  </si>
+  <si>
+    <t>jamescitycountyva.gov</t>
+  </si>
+  <si>
+    <t>https://www.jamescitycountyva.gov/Facilities/Facility/Details/Warhill-Sports-Complex-27</t>
+  </si>
+  <si>
+    <t>co.isle-of-wight.va.us</t>
+  </si>
+  <si>
+    <t>https://www.co.isle-of-wight.va.us/departments/parks_and_recreation/youth_sports.php</t>
+  </si>
+  <si>
+    <t>https://www.nbc29.com/</t>
+  </si>
+  <si>
+    <t>https://www.fairfaxcounty.gov/neighborhood-community-services/athletics/athletic-council</t>
+  </si>
+  <si>
+    <t>vbgov.com</t>
+  </si>
+  <si>
+    <t>https://www.vbgov.com/Pages/default.aspx</t>
+  </si>
+  <si>
+    <t>colonialheightsva.gov</t>
+  </si>
+  <si>
+    <t>https://www.colonialheightsva.gov/943/Recreation-Athletics-Updates</t>
+  </si>
+  <si>
+    <t>https://www.visitmartinsville.com/groups/tournaments</t>
+  </si>
+  <si>
+    <t>wsaz.com</t>
+  </si>
+  <si>
+    <t>https://www.wsaz.com/</t>
+  </si>
+  <si>
+    <t>https://www.visitroanokeva.com/sports/</t>
+  </si>
+  <si>
+    <t>wfxrtv.com</t>
+  </si>
+  <si>
+    <t>https://www.wfxrtv.com/</t>
+  </si>
+  <si>
+    <t>https://www.cbssports.com/college-football/teams/VATECH/virginia-tech-hokies/</t>
+  </si>
+  <si>
+    <t>https://www.loudountimes.com/</t>
+  </si>
+  <si>
+    <t>fallschurchva.gov</t>
+  </si>
+  <si>
+    <t>https://www.fallschurchva.gov/452/Recreation-Parks</t>
+  </si>
+  <si>
+    <t>powhatanva.gov</t>
+  </si>
+  <si>
+    <t>https://www.powhatanva.gov/291/Parks-Recreation</t>
   </si>
   <si>
     <t>tripadvisor.com</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/Attractions-g28938-Activities-c53-Kentucky.html</t>
-  </si>
-  <si>
-    <t>betus.com.pa</t>
-  </si>
-  <si>
-    <t>https://www.betus.com.pa/</t>
-  </si>
-  <si>
-    <t>legalsportsbettingstates.com</t>
-  </si>
-  <si>
-    <t>https://www.legalsportsbettingstates.com/kentucky/</t>
-  </si>
-  <si>
-    <t>wynnbet.com</t>
-  </si>
-  <si>
-    <t>https://www.wynnbet.com/</t>
-  </si>
-  <si>
-    <t>mytopsportsbooks.com</t>
-  </si>
-  <si>
-    <t>https://www.mytopsportsbooks.com/</t>
-  </si>
-  <si>
-    <t>wcpo.com</t>
-  </si>
-  <si>
-    <t>https://www.wcpo.com/news/local-news/i-team/ohio-casino-regulator-blasts-kentuckys-sports-betting-law</t>
-  </si>
-  <si>
-    <t>oddschecker.com</t>
-  </si>
-  <si>
-    <t>https://www.oddschecker.com/us/insight/specials/20230331-kentucky-sports-betting-bill-passed-in-kentucky-to-legalize-sports-betting</t>
-  </si>
-  <si>
-    <t>fanduel.com</t>
-  </si>
-  <si>
-    <t>https://www.fanduel.com/</t>
-  </si>
-  <si>
-    <t>twinspires.com</t>
-  </si>
-  <si>
-    <t>https://www.twinspires.com/sports</t>
-  </si>
-  <si>
-    <t>forbes.com</t>
-  </si>
-  <si>
-    <t>https://www.forbes.com/sites/willyakowicz/2023/06/15/where-is-sports-betting-legal-america-2022/</t>
-  </si>
-  <si>
-    <t>analyticsinsight.net</t>
-  </si>
-  <si>
-    <t>https://www.analyticsinsight.net/how-to-bet-on-kentucky-derby-top-10-sites-accepting-wagers-from-every-us-state/</t>
-  </si>
-  <si>
-    <t>olbg.com</t>
-  </si>
-  <si>
-    <t>https://www.olbg.com/us/sportsbooks</t>
-  </si>
-  <si>
-    <t>nj.com</t>
-  </si>
-  <si>
-    <t>https://www.nj.com/betting/online-sports-betting/best-sports-betting-sites-usa.html</t>
-  </si>
-  <si>
-    <t>unitedstatesgamblingonline.com</t>
-  </si>
-  <si>
-    <t>https://www.unitedstatesgamblingonline.com/kentucky/laws/</t>
-  </si>
-  <si>
-    <t>bestuscasinos.org</t>
-  </si>
-  <si>
-    <t>https://www.bestuscasinos.org/legal/kentucky/</t>
-  </si>
-  <si>
-    <t>https://www.sportsbettingdime.com/</t>
-  </si>
-  <si>
-    <t>wbko.com</t>
-  </si>
-  <si>
-    <t>https://www.wbko.com/video/2023/03/31/sports-betting-now-legal-kentucky-how-will-it-affect-gaming-halls/</t>
-  </si>
-  <si>
-    <t>churchilldownsincorporated.com</t>
-  </si>
-  <si>
-    <t>https://www.churchilldownsincorporated.com/resources/company-update/churchill-downs-incorporated-enters-into-agreement-with-bet365-to-offer-online-sports-betting-and-igaming-in-pennsylvania/</t>
-  </si>
-  <si>
-    <t>bovada.lv</t>
-  </si>
-  <si>
-    <t>https://www.bovada.lv/</t>
-  </si>
-  <si>
-    <t>theplaidhorse.com</t>
-  </si>
-  <si>
-    <t>https://www.theplaidhorse.com/2023/06/22/online-sports-betting-in-kentucky-the-beating-heart-of-horse-racing-caesars-partners-with-two-historic-racetracks-ahead-of-their-official-launch-in-the-state/</t>
-  </si>
-  <si>
-    <t>courier-journal.com</t>
-  </si>
-  <si>
-    <t>https://www.courier-journal.com/story/news/politics/ky-general-assembly/2022/03/17/kentucky-general-assembly-gambling-sports-pari-mutuel-wagering/7060142001/</t>
-  </si>
-  <si>
-    <t>riversidecasinoandresort.com</t>
-  </si>
-  <si>
-    <t>https://www.riversidecasinoandresort.com/elitesportsbook.html</t>
-  </si>
-  <si>
-    <t>sportsbetrhodeisland.com</t>
-  </si>
-  <si>
-    <t>https://www.sportsbetrhodeisland.com/sports</t>
-  </si>
-  <si>
-    <t>espn.com</t>
-  </si>
-  <si>
-    <t>https://www.espn.com/chalk/story/_/id/19740480/the-united-states-sports-betting-where-all-50-states-stand-legalization</t>
-  </si>
-  <si>
-    <t>gamblingnews.com</t>
-  </si>
-  <si>
-    <t>https://www.gamblingnews.com/news/kentucky-horse-racing-commission-drafts-sports-betting-regulations/</t>
-  </si>
-  <si>
-    <t>nytimes.com</t>
-  </si>
-  <si>
-    <t>https://www.nytimes.com/2022/11/20/business/sports-betting-lobbying-kansas.html</t>
-  </si>
-  <si>
-    <t>investopedia.com</t>
-  </si>
-  <si>
-    <t>https://www.investopedia.com/top-sports-betting-stocks-q2-2023-7501118</t>
-  </si>
-  <si>
-    <t>onlineunitedstatescasinos.com</t>
-  </si>
-  <si>
-    <t>https://www.onlineunitedstatescasinos.com/states/kentucky-gambling/</t>
-  </si>
-  <si>
-    <t>gambleonline.co</t>
-  </si>
-  <si>
-    <t>https://www.gambleonline.co/usa/kentucky/</t>
-  </si>
-  <si>
-    <t>yelp.com</t>
-  </si>
-  <si>
-    <t>https://www.yelp.com/search?cflt=sportsbetting&amp;find_loc=Louisville%2C+KY</t>
-  </si>
-  <si>
-    <t>caesars.com</t>
-  </si>
-  <si>
-    <t>https://www.caesars.com/sportsbook-and-casino</t>
-  </si>
-  <si>
-    <t>paysbig.com</t>
-  </si>
-  <si>
-    <t>https://www.paysbig.com/casino/sportsbook</t>
-  </si>
-  <si>
-    <t>soaringeaglecasino.com</t>
-  </si>
-  <si>
-    <t>https://www.soaringeaglecasino.com/iGaming/ascend-sportsbook.html</t>
-  </si>
-  <si>
-    <t>wdrb.com</t>
-  </si>
-  <si>
-    <t>https://www.wdrb.com/news/business/a-nice-bonus-churchill-downs-lays-out-plan-for-kentucky-sports-betting/article_2e3b7528-e51f-11ed-97a3-939ae0ca354f.html</t>
-  </si>
-  <si>
-    <t>kansascity.com</t>
-  </si>
-  <si>
-    <t>https://www.kansascity.com/betting/article261739587.html</t>
-  </si>
-  <si>
-    <t>gamblingsites.org</t>
-  </si>
-  <si>
-    <t>https://www.gamblingsites.org/casino/us/kentucky/</t>
-  </si>
-  <si>
-    <t>tn.gov</t>
-  </si>
-  <si>
-    <t>https://www.tn.gov/swac/licensees-registrants.html</t>
-  </si>
-  <si>
-    <t>washingtonpost.com</t>
-  </si>
-  <si>
-    <t>https://www.washingtonpost.com/sports/2022/08/29/sports-betting-laws-by-state/</t>
-  </si>
-  <si>
-    <t>14news.com</t>
-  </si>
-  <si>
-    <t>https://www.14news.com/2023/04/02/sports-betting-is-legal-kentucky-what-you-need-know/</t>
-  </si>
-  <si>
-    <t>amnews.com</t>
-  </si>
-  <si>
-    <t>https://www.amnews.com/2022/03/02/time-to-legalize-sports-betting-in-kentucky/</t>
-  </si>
-  <si>
-    <t>500nations.com</t>
-  </si>
-  <si>
-    <t>https://www.500nations.com/Kentucky_Casinos.asp</t>
-  </si>
-  <si>
-    <t>wkyt.com</t>
-  </si>
-  <si>
-    <t>https://www.wkyt.com/video/2023/06/20/warhorse-casino-sports-betting-opens-thursday-lincoln/</t>
-  </si>
-  <si>
-    <t>beernews.se</t>
-  </si>
-  <si>
-    <t>https://www.beernews.se/wp-content/redirect.php?creative_id=174&amp;ad_id=79&amp;redirect_link=//slots-wizard-of-oz-community-itzno.germany-spielautomaten.ru</t>
-  </si>
-  <si>
-    <t>youtube.com</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IHhp7ZKZtB8</t>
-  </si>
-  <si>
-    <t>eluniversal.com.co</t>
-  </si>
-  <si>
-    <t>https://www.eluniversal.com.co/user-portlet/refreshuserentitlements?redirect=https://online-casino-echtgeld-empfehlung-wildz-iuskp.casino-spielautomaten.store</t>
-  </si>
-  <si>
-    <t>wymt.com</t>
-  </si>
-  <si>
-    <t>https://www.wymt.com/video/2023/06/20/warhorse-casino-sports-betting-opens-thursday-lincoln/</t>
-  </si>
-  <si>
-    <t>usbets.com</t>
-  </si>
-  <si>
-    <t>https://www.usbets.com/sports-betting/</t>
-  </si>
-  <si>
-    <t>wralsportsfan.com</t>
-  </si>
-  <si>
-    <t>https://www.wralsportsfan.com/sports-gambling-comes-to-catawba-two-kings-casino/20464115/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?rlz=1C1KNTJ_enNG1063NG1063&amp;sxsrf=APwXEdf45zFtbg4UQ91_boq9UntIRzvm6Q:1687481341694&amp;q=sport+sites+and+blogs+in+kentucky+%22usa%22&amp;sa=X&amp;ved=2ahUKEwiv1r7vldj_AhVBEFkFHf3JDF4Q5t4CegQIERAB</t>
-  </si>
-  <si>
-    <t>websitebuilderexpert.com</t>
-  </si>
-  <si>
-    <t>https://www.websitebuilderexpert.com/building-websites/how-to-start-a-sports-blog/</t>
-  </si>
-  <si>
-    <t>worldatlas.com</t>
-  </si>
-  <si>
-    <t>https://www.worldatlas.com/articles/states-without-professional-sports-teams.html#:~:text=Although%20Kentucky%20does%20not%20have,top%20teams%20in%20college%20basketball.</t>
-  </si>
-  <si>
-    <t>aseaofblue.com</t>
-  </si>
-  <si>
-    <t>https://www.aseaofblue.com/</t>
-  </si>
-  <si>
-    <t>https://www.kentucky.com/sports/college/kentucky-sports/</t>
-  </si>
-  <si>
-    <t>on3.com</t>
-  </si>
-  <si>
-    <t>https://www.on3.com/teams/kentucky-wildcats/</t>
-  </si>
-  <si>
-    <t>secsports.com</t>
-  </si>
-  <si>
-    <t>https://www.secsports.com/school/kentucky-wildcats</t>
-  </si>
-  <si>
-    <t>visitlex.com</t>
-  </si>
-  <si>
-    <t>https://www.visitlex.com/meetings/intellectual-capital/sports/</t>
-  </si>
-  <si>
-    <t>https://www.courier-journal.com/</t>
-  </si>
-  <si>
-    <t>wlky.com</t>
-  </si>
-  <si>
-    <t>https://www.wlky.com/</t>
-  </si>
-  <si>
-    <t>bellarmine.edu</t>
-  </si>
-  <si>
-    <t>https://www.bellarmine.edu/</t>
-  </si>
-  <si>
-    <t>https://www.betting.us/kentucky/louisville/</t>
-  </si>
-  <si>
-    <t>natsoutdoor.com</t>
-  </si>
-  <si>
-    <t>https://www.natsoutdoor.com/</t>
-  </si>
-  <si>
-    <t>https://www.casino.org/us/ky/sports-betting/</t>
-  </si>
-  <si>
-    <t>sbnation.com</t>
-  </si>
-  <si>
-    <t>https://www.sbnation.com/blogs</t>
-  </si>
-  <si>
-    <t>bgdailynews.com</t>
-  </si>
-  <si>
-    <t>https://www.bgdailynews.com/sports/wku/</t>
-  </si>
-  <si>
-    <t>https://www.wdrb.com/</t>
-  </si>
-  <si>
-    <t>midway.edu</t>
-  </si>
-  <si>
-    <t>https://www.midway.edu/</t>
-  </si>
-  <si>
-    <t>gotrcentralky.org</t>
-  </si>
-  <si>
-    <t>https://www.gotrcentralky.org/news</t>
-  </si>
-  <si>
-    <t>barstoolsports.com</t>
-  </si>
-  <si>
-    <t>https://www.barstoolsports.com/topics/kentucky</t>
-  </si>
-  <si>
-    <t>agilitypr.com</t>
-  </si>
-  <si>
-    <t>https://www.agilitypr.com/resources/top-media-outlets/top-10-kentucky-daily-newspapers-by-circulation/</t>
-  </si>
-  <si>
-    <t>nationofblue.com</t>
-  </si>
-  <si>
-    <t>https://www.nationofblue.com/</t>
-  </si>
-  <si>
-    <t>usef.org</t>
-  </si>
-  <si>
-    <t>https://www.usef.org/</t>
-  </si>
-  <si>
-    <t>https://www.espn.com/</t>
-  </si>
-  <si>
-    <t>visitbgky.com</t>
-  </si>
-  <si>
-    <t>https://www.visitbgky.com/</t>
-  </si>
-  <si>
-    <t>ucumberlands.edu</t>
-  </si>
-  <si>
-    <t>https://www.ucumberlands.edu/</t>
-  </si>
-  <si>
-    <t>https://www.kansascity.com/sports/spt-columns-blogs/vahe-gregorian/article274755691.html</t>
-  </si>
-  <si>
-    <t>frankfort.ky.gov</t>
-  </si>
-  <si>
-    <t>https://www.frankfort.ky.gov/rss.aspx</t>
-  </si>
-  <si>
-    <t>orthopedicandsportsspecialists.com</t>
-  </si>
-  <si>
-    <t>https://www.orthopedicandsportsspecialists.com/blog.html</t>
-  </si>
-  <si>
-    <t>baptisthealth.com</t>
-  </si>
-  <si>
-    <t>https://www.baptisthealth.com/</t>
-  </si>
-  <si>
-    <t>bgky.org</t>
-  </si>
-  <si>
-    <t>https://www.bgky.org/bgpr/athletics</t>
-  </si>
-  <si>
-    <t>https://www.wcpo.com/</t>
-  </si>
-  <si>
-    <t>espnlouisville.com</t>
-  </si>
-  <si>
-    <t>https://www.espnlouisville.com/</t>
-  </si>
-  <si>
-    <t>sportingnews.com</t>
-  </si>
-  <si>
-    <t>https://www.sportingnews.com/us</t>
-  </si>
-  <si>
-    <t>bleachernation.com</t>
-  </si>
-  <si>
-    <t>https://www.bleachernation.com/kentucky-online-sports-betting/</t>
-  </si>
-  <si>
-    <t>https://www.cbssports.com/</t>
-  </si>
-  <si>
-    <t>churchilldowns.com</t>
-  </si>
-  <si>
-    <t>https://www.churchilldowns.com/</t>
-  </si>
-  <si>
-    <t>https://www.thelines.com/kentucky-ky-sports-betting-regulations-kentucky-horse-racing-commission-jonathan-rabinowitz-khrc-2023/</t>
-  </si>
-  <si>
-    <t>jefferson.kyschools.us</t>
-  </si>
-  <si>
-    <t>https://www.jefferson.kyschools.us/schools/profiles/noe</t>
-  </si>
-  <si>
-    <t>specialolympics.org</t>
-  </si>
-  <si>
-    <t>https://www.specialolympics.org/programs/united-states/kentucky</t>
-  </si>
-  <si>
-    <t>kentuckyfootdoctor.com</t>
-  </si>
-  <si>
-    <t>https://www.kentuckyfootdoctor.com/</t>
-  </si>
-  <si>
-    <t>daveandbusters.com</t>
-  </si>
-  <si>
-    <t>https://www.daveandbusters.com/us/en/about/locations/louisville</t>
-  </si>
-  <si>
-    <t>kentuckybb.com</t>
-  </si>
-  <si>
-    <t>https://www.kentuckybb.com/Blog/</t>
-  </si>
-  <si>
-    <t>pulaskigov.com</t>
-  </si>
-  <si>
-    <t>https://www.pulaskigov.com/</t>
-  </si>
-  <si>
-    <t>cincinnati.com</t>
-  </si>
-  <si>
-    <t>https://www.cincinnati.com/</t>
-  </si>
-  <si>
-    <t>meetnky.com</t>
-  </si>
-  <si>
-    <t>https://www.meetnky.com/listing/sports-of-all-sorts/4087/</t>
-  </si>
-  <si>
-    <t>21cmuseumhotels.com</t>
-  </si>
-  <si>
-    <t>https://www.21cmuseumhotels.com/louisville/</t>
-  </si>
-  <si>
-    <t>gotolouisville.com</t>
-  </si>
-  <si>
-    <t>https://www.gotolouisville.com/things-to-do/</t>
-  </si>
-  <si>
-    <t>kysportsreport.com</t>
-  </si>
-  <si>
-    <t>http://www.kysportsreport.com/forums/forum.php</t>
-  </si>
-  <si>
-    <t>nashvillepost.com</t>
-  </si>
-  <si>
-    <t>https://www.nashvillepost.com/sports_business/former-ec-ceo-buys-kentucky-sports-radio-website/article_287a6570-4919-55f7-af27-e7b1f092447e.html</t>
-  </si>
-  <si>
-    <t>kentuckyderby.com</t>
-  </si>
-  <si>
-    <t>https://www.kentuckyderby.com/history/kentucky-derby-history</t>
-  </si>
-  <si>
-    <t>va.gov</t>
-  </si>
-  <si>
-    <t>https://www.va.gov/directory/guide/state.asp?STATE=KY&amp;dnum=ALL</t>
-  </si>
-  <si>
-    <t>coulterreporting.com</t>
-  </si>
-  <si>
-    <t>https://www.coulterreporting.com/sports-teams-in-louisville-ky/</t>
-  </si>
-  <si>
-    <t>kentuckynewera.com</t>
-  </si>
-  <si>
-    <t>https://www.kentuckynewera.com/web/sports/</t>
-  </si>
-  <si>
-    <t>ford.com</t>
-  </si>
-  <si>
-    <t>https://www.ford.com/</t>
-  </si>
-  <si>
-    <t>kentucky-horsewear.com</t>
-  </si>
-  <si>
-    <t>https://www.kentucky-horsewear.com/us-en/</t>
-  </si>
-  <si>
-    <t>sluggermuseum.com</t>
-  </si>
-  <si>
-    <t>https://www.sluggermuseum.com/homepage</t>
-  </si>
-  <si>
-    <t>paulmillerford.com</t>
-  </si>
-  <si>
-    <t>https://www.paulmillerford.com/blogs/2391/lexington-ford-dealer/kentuckys-football-season-better-with-a-ford-truck/</t>
-  </si>
-  <si>
-    <t>https://www.legalsportsreport.com/sports-betting/</t>
-  </si>
-  <si>
-    <t>skysports.com</t>
-  </si>
-  <si>
-    <t>https://www.skysports.com/</t>
-  </si>
-  <si>
-    <t>kentuckythreedayevent.com</t>
-  </si>
-  <si>
-    <t>https://www.kentuckythreedayevent.com/</t>
-  </si>
-  <si>
-    <t>unk.edu</t>
-  </si>
-  <si>
-    <t>https://www.unk.edu/</t>
-  </si>
-  <si>
-    <t>bluegrassrivals.com</t>
-  </si>
-  <si>
-    <t>http://www.bluegrassrivals.com/forum/</t>
-  </si>
-  <si>
-    <t>yardbarker.com</t>
-  </si>
-  <si>
-    <t>https://www.yardbarker.com/college_football/articles/kentucky_lands_commitment_from_2024_3_star_athlete_jiquavious_marshall/s1_17088_38942866</t>
-  </si>
-  <si>
-    <t>pro-football-reference.com</t>
-  </si>
-  <si>
-    <t>https://www.pro-football-reference.com/friv/birthplaces.cgi?country=USA&amp;state=KY</t>
-  </si>
-  <si>
-    <t>eku.edu</t>
-  </si>
-  <si>
-    <t>https://www.eku.edu/</t>
-  </si>
-  <si>
-    <t>bluegrasssports.org</t>
-  </si>
-  <si>
-    <t>http://www.bluegrasssports.org/</t>
-  </si>
-  <si>
-    <t>wave3.com</t>
-  </si>
-  <si>
-    <t>https://www.wave3.com/2023/06/21/baby-surrendered-louisville-safe-haven-baby-box/</t>
-  </si>
-  <si>
-    <t>k105.com</t>
-  </si>
-  <si>
-    <t>https://www.k105.com/2023/06/22/kentucky-to-stay-in-voter-fraud-system-for-another-year-while-seeking-alternatives/</t>
-  </si>
-  <si>
-    <t>transy.edu</t>
-  </si>
-  <si>
-    <t>https://www.transy.edu/</t>
-  </si>
-  <si>
-    <t>catscoverage.com</t>
-  </si>
-  <si>
-    <t>https://www.catscoverage.com/</t>
-  </si>
-  <si>
-    <t>wpsdlocal6.com</t>
-  </si>
-  <si>
-    <t>https://www.wpsdlocal6.com/ott/louisville-shooters-parents-speak-out-in-interview-with-today/video_166f183a-e526-11ed-a6e2-738709cbef9f.html</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?q=sports+teams+and+sport+blogs+in+kentucky+usa&amp;rlz=1C1KNTJ_enNG1063NG1063&amp;sxsrf=APwXEdf45zFtbg4UQ91_boq9UntIRzvm6Q%3A1687481341694&amp;ei=_euUZO_jKcGg5NoP_ZOz8AU&amp;ved=0ahUKEwiv1r7vldj_AhVBEFkFHf3JDF4Q4dUDCBA&amp;uact=5&amp;oq=sports+teams+and+sport+blogs+in+kentucky+usa&amp;gs_lcp=Cgxnd3Mtd2l6LXNlcnAQAzIICCEQoAEQwwQyCAghEKABEMMEMggIIRCgARDDBDIICCEQoAEQwwQyCAghEKABEMMEOgUIABCiBDoKCCEQoAEQwwQQCkoECEEYAFAAWKHRAWDp4QFoAHABeAGAAeASiAGwd5IBEDItMi4xNi42LTEuMC4xLjOYAQCgAQHAAQE&amp;sclient=gws-wiz-serp#</t>
-  </si>
-  <si>
-    <t>https://www.wdrb.com/sports/</t>
-  </si>
-  <si>
-    <t>oxmoorflm.com</t>
-  </si>
-  <si>
-    <t>https://www.oxmoorflm.com/blog/top-sports-teams-in-louisville-ky/</t>
-  </si>
-  <si>
-    <t>niche.com</t>
-  </si>
-  <si>
-    <t>https://www.niche.com/colleges/search/best-college-athletics/s/kentucky/</t>
-  </si>
-  <si>
-    <t>facebook.com</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/p/Rick-Bozich-Sports-Columnist-The-Courier-Journal-100066422712831/</t>
-  </si>
-  <si>
-    <t>https://www.yelp.com/search?find_desc=Amateur+Sports+Teams&amp;find_loc=Louisville%2C+KY</t>
-  </si>
-  <si>
-    <t>https://www.bgky.org/bgpr/special-populations</t>
-  </si>
-  <si>
-    <t>kentuckypress.com</t>
-  </si>
-  <si>
-    <t>https://www.kentuckypress.com/9780813155470/integrated</t>
-  </si>
-  <si>
-    <t>instagram.com</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/kysuathletics/?hl=en</t>
-  </si>
-  <si>
-    <t>mvmlaw.com</t>
-  </si>
-  <si>
-    <t>https://www.mvmlaw.com/kentucky-sports-injury-lawyer/</t>
-  </si>
-  <si>
-    <t>https://www.visitbgky.com/events/sports-recreation/</t>
-  </si>
-  <si>
-    <t>https://www.wave3.com/2023/05/05/blog-wave-news-team-coverage-kentucky-oaks-149/</t>
-  </si>
-  <si>
-    <t>teamworks.com</t>
-  </si>
-  <si>
-    <t>https://www.teamworks.com/</t>
-  </si>
-  <si>
-    <t>linkedin.com</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/michaelaclay</t>
-  </si>
-  <si>
-    <t>salary.com</t>
-  </si>
-  <si>
-    <t>https://www.salary.com/research/salary/hiring/sports-marketing-salary/ky</t>
-  </si>
-  <si>
-    <t>lgbtmap.org</t>
-  </si>
-  <si>
-    <t>https://www.lgbtmap.org/equality-maps/youth/sports_participation_bans</t>
-  </si>
-  <si>
-    <t>teamimpact.org</t>
-  </si>
-  <si>
-    <t>https://www.teamimpact.org/</t>
-  </si>
-  <si>
-    <t>pinterest.com</t>
-  </si>
-  <si>
-    <t>https://www.pinterest.com/pin/kentucky-basketball--2533343514501686/</t>
-  </si>
-  <si>
-    <t>i9sports.com</t>
-  </si>
-  <si>
-    <t>https://www.i9sports.com/venues/northern-kentucky-mary-queen-of-heaven-school-youth-sports-programs/6511</t>
-  </si>
-  <si>
-    <t>kysportsstyle.com</t>
-  </si>
-  <si>
-    <t>https://www.kysportsstyle.com/about</t>
-  </si>
-  <si>
-    <t>visitcincy.com</t>
-  </si>
-  <si>
-    <t>https://www.visitcincy.com/things-to-do/sports/professional/</t>
-  </si>
-  <si>
-    <t>https://www.usatoday.com/betting/sports/kentucky/promos</t>
-  </si>
-  <si>
-    <t>https://www.gotolouisville.com/meeting-planners/sports-events/</t>
-  </si>
-  <si>
-    <t>lanereport.com</t>
-  </si>
-  <si>
-    <t>https://www.lanereport.com/140181/2021/04/one-on-one-the-business-of-sports-in-kentucky/</t>
-  </si>
-  <si>
-    <t>atyourownrisk.org</t>
-  </si>
-  <si>
-    <t>https://www.atyourownrisk.org/advocacy/kentucky</t>
-  </si>
-  <si>
-    <t>game-one.com</t>
-  </si>
-  <si>
-    <t>https://www.game-one.com/</t>
-  </si>
-  <si>
-    <t>skyhawks.com</t>
-  </si>
-  <si>
-    <t>https://www.skyhawks.com/activity/multi-sport/multi-sport-baseball-basketball-soccer/boone-county-parks/KY+union+41094/117199/</t>
-  </si>
-  <si>
-    <t>saturdaydownsouth.com</t>
-  </si>
-  <si>
-    <t>https://www.saturdaydownsouth.com/kentucky-football/</t>
-  </si>
-  <si>
-    <t>bsnsports.com</t>
-  </si>
-  <si>
-    <t>http://www.bsnsports.com/</t>
-  </si>
-  <si>
-    <t>https://www.wsn.com/blog/oldest-sports-teams/</t>
-  </si>
-  <si>
-    <t>city-data.com</t>
-  </si>
-  <si>
-    <t>http://www.city-data.com/states/Kentucky-Sports.html</t>
-  </si>
-  <si>
-    <t>teamexos.com</t>
-  </si>
-  <si>
-    <t>https://www.teamexos.com/</t>
-  </si>
-  <si>
-    <t>https://www.actionnetwork.com/</t>
-  </si>
-  <si>
-    <t>levyrestaurants.com</t>
-  </si>
-  <si>
-    <t>https://www.levyrestaurants.com/</t>
-  </si>
-  <si>
-    <t>https://www.casino.org/news/kentucky-sports-betting-regulations-on-fast-track/</t>
-  </si>
-  <si>
-    <t>stubhub.com</t>
-  </si>
-  <si>
-    <t>https://www.stubhub.com/sports-tickets/category/28/</t>
-  </si>
-  <si>
-    <t>dawgnation.com</t>
-  </si>
-  <si>
-    <t>https://www.dawgnation.com/</t>
-  </si>
-  <si>
-    <t>altoonamirror.com</t>
-  </si>
-  <si>
-    <t>https://www.altoonamirror.com/sports/2023/06/us-markets-aided-by-street-play/</t>
-  </si>
-  <si>
-    <t>the-sun.com</t>
-  </si>
-  <si>
-    <t>https://www.the-sun.com/sport/8433447/taylor-rooks-teams-up-with-hollywood-legend-halle-berry/</t>
-  </si>
-  <si>
-    <t>wvnews.com</t>
-  </si>
-  <si>
-    <t>https://www.wvnews.com/bluegoldnews/zaisberger-earns-academic-all-america-first-team-honors/article_6bbf4af4-1144-11ee-a3ed-073e61be1d56.html</t>
+    <t>https://www.tripadvisor.com/Attractions-g28967-Activities-c47-t120-Virginia.html</t>
+  </si>
+  <si>
+    <t>gloucesterva.info</t>
+  </si>
+  <si>
+    <t>https://www.gloucesterva.info/470/Athletics</t>
+  </si>
+  <si>
+    <t>hanovercounty.gov</t>
+  </si>
+  <si>
+    <t>https://www.hanovercounty.gov/164/Park-Information</t>
+  </si>
+  <si>
+    <t>https://www.wric.com/news/local-news/henrico-county/henrico-lays-foundation-for-new-sports-complex-at-virginia-center-commons/</t>
+  </si>
+  <si>
+    <t>https://www.nbcsports.com/</t>
+  </si>
+  <si>
+    <t>fauquiernow.com</t>
+  </si>
+  <si>
+    <t>https://www.fauquiernow.com/</t>
+  </si>
+  <si>
+    <t>pwcva.gov</t>
+  </si>
+  <si>
+    <t>https://www.pwcva.gov/department/sports-amenities</t>
+  </si>
+  <si>
+    <t>baltimoresun.com</t>
+  </si>
+  <si>
+    <t>https://www.baltimoresun.com/gambling/sns-actnet-virginia-sports-betting-sites-apps-launch-date-20200507-7mcpomilxbfa3m7z7lznzdihxe-story.html</t>
+  </si>
+  <si>
+    <t>vbschools.com</t>
+  </si>
+  <si>
+    <t>https://www.vbschools.com/families/athletics/middle-school-sports</t>
+  </si>
+  <si>
+    <t>sportsengine.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsengine.com/article/volleyball/top-volleyball-sites-stretch-sea-shining-sea</t>
+  </si>
+  <si>
+    <t>fauquiercounty.gov</t>
+  </si>
+  <si>
+    <t>https://www.fauquiercounty.gov/government/departments-h-z/parks-and-recreation/central-fauquier-sports-complex?locale=en</t>
+  </si>
+  <si>
+    <t>vysa.com</t>
+  </si>
+  <si>
+    <t>https://www.vysa.com/</t>
+  </si>
+  <si>
+    <t>https://www.yelp.com/search?cflt=sportgoods&amp;find_loc=Gainesville%2C+VA</t>
+  </si>
+  <si>
+    <t>huskermax.com</t>
+  </si>
+  <si>
+    <t>https://www.huskermax.com/watch-sites/virginia/</t>
+  </si>
+  <si>
+    <t>nnathletics.com</t>
+  </si>
+  <si>
+    <t>https://www.nnathletics.com/</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/q-sports-marketing-l-virginia-jobs.html</t>
+  </si>
+  <si>
+    <t>harrisonburgva.gov</t>
+  </si>
+  <si>
+    <t>https://www.harrisonburgva.gov/athletics</t>
+  </si>
+  <si>
+    <t>https://www.virginia.org/things-to-do/sports-and-recreation/winter-sports/</t>
+  </si>
+  <si>
+    <t>novasc.org</t>
+  </si>
+  <si>
+    <t>https://www.novasc.org/</t>
+  </si>
+  <si>
+    <t>botetourtva.gov</t>
+  </si>
+  <si>
+    <t>https://www.botetourtva.gov/</t>
+  </si>
+  <si>
+    <t>sandsoccer.com</t>
+  </si>
+  <si>
+    <t>https://www.sandsoccer.com/</t>
+  </si>
+  <si>
+    <t>fredericksburgva.gov</t>
+  </si>
+  <si>
+    <t>https://www.fredericksburgva.gov/1346/Recreation</t>
+  </si>
+  <si>
+    <t>https://www.vt.edu/about/traditions.html</t>
+  </si>
+  <si>
+    <t>athletic.net</t>
+  </si>
+  <si>
+    <t>https://www.athletic.net/TrackAndField/Virginia/</t>
+  </si>
+  <si>
+    <t>https://www.13newsnow.com/</t>
+  </si>
+  <si>
+    <t>https://www.pilotonline.com/2023/06/07/virginia-beach-considers-more-action-sports-events-after-jackalope-success/</t>
+  </si>
+  <si>
+    <t>https://www.visaa.org/sports/football</t>
+  </si>
+  <si>
+    <t>cnn.com</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/2022/11/16/us/university-of-virginia-shooting-wednesday/index.html</t>
+  </si>
+  <si>
+    <t>https://www.wvnews.com/bluegoldnews/</t>
+  </si>
+  <si>
+    <t>https://www.virginiaflagfootball.com/Default.aspx?tabid=339702</t>
+  </si>
+  <si>
+    <t>cityofchesapeake.net</t>
+  </si>
+  <si>
+    <t>https://www.cityofchesapeake.net/</t>
+  </si>
+  <si>
+    <t>https://www.wsls.com/</t>
+  </si>
+  <si>
+    <t>hooters.com</t>
+  </si>
+  <si>
+    <t>https://www.hooters.com/locations/31606-virginia-beach</t>
+  </si>
+  <si>
+    <t>win-magazine.com</t>
+  </si>
+  <si>
+    <t>https://www.win-magazine.com/2020/09/21/sept-21-update-virginia-and-kentucky-announce-wrestling-starts/</t>
+  </si>
+  <si>
+    <t>https://www.ncaa.com/news/baseball/article/2023-06-25/2023-ncaa-baseball-bracket-mens-college-world-series-scores-schedule-omaha</t>
+  </si>
+  <si>
+    <t>https://www.bluegoldsports.com/2023/06/23/west-virginia-coaching-search-and-transfer-portal-update/</t>
+  </si>
+  <si>
+    <t>sentara.com</t>
+  </si>
+  <si>
+    <t>https://www.sentara.com/</t>
+  </si>
+  <si>
+    <t>https://www.sportingnews.com/us/ncaa-basketball/news/bob-huggins-dui-updates-details-west-virginia-coach-arrest/vwl0ztad1y1vl6jbkhgiwlvz</t>
+  </si>
+  <si>
+    <t>sportsbusinessjournal.com</t>
+  </si>
+  <si>
+    <t>https://www.sportsbusinessjournal.com/Daily/Weekend-Rap/2023/06/25/washington-capitals-wizards-northern-virginia.aspx</t>
+  </si>
+  <si>
+    <t>newscenter1.tv</t>
+  </si>
+  <si>
+    <t>https://www.newscenter1.tv/sports/national/west-virginia-names-josh-eilert-interim-head-coach-for-2023-24/article_4c25ad4a-113f-5bfc-9dc0-f9ac3506582c.html</t>
+  </si>
+  <si>
+    <t>cavalierdaily.com</t>
+  </si>
+  <si>
+    <t>https://www.cavalierdaily.com/article/2022/07/midsummer-virginia-sports-update-conference-updates-and-athletes-make-national-noise?ct=content_open&amp;cv=cbox_featured</t>
+  </si>
+  <si>
+    <t>https://www.nvdaily.com/sports/local-sports/</t>
+  </si>
+  <si>
+    <t>mlbdraftleague.com</t>
+  </si>
+  <si>
+    <t>https://www.mlbdraftleague.com/west-virginia</t>
+  </si>
+  <si>
+    <t>https://www.sbnation.com/</t>
+  </si>
+  <si>
+    <t>wvgazettemail.com</t>
+  </si>
+  <si>
+    <t>https://www.wvgazettemail.com/more-sites-added-to-the-west-virginia-waterfall-trail/article_feeeeaa0-bcc8-5945-a0dc-e7e429959b34.html</t>
+  </si>
+  <si>
+    <t>theintelligencer.net</t>
+  </si>
+  <si>
+    <t>https://www.theintelligencer.net/news/community/2023/06/18-women-added-to-lawsuit-against-w-va-state-police/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qV5MMkqJRUU</t>
+  </si>
+  <si>
+    <t>swvasports.com</t>
+  </si>
+  <si>
+    <t>https://www.swvasports.com/ipb/index.php</t>
+  </si>
+  <si>
+    <t>https://www.vsu.edu/wvst/broadcast-schedule/sports.php</t>
+  </si>
+  <si>
+    <t>https://www.niche.com/k12/search/best-high-schools-for-sports/s/virginia/</t>
+  </si>
+  <si>
+    <t>c-ville.com</t>
+  </si>
+  <si>
+    <t>https://www.c-ville.com/Virginia_Sports_Medicine_Monday_Football_Update</t>
   </si>
 </sst>
 </file>
@@ -1412,10 +2537,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1423,10 +2548,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -1434,10 +2559,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -1445,10 +2570,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -1456,10 +2581,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -1467,10 +2592,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -1478,10 +2603,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -1489,10 +2614,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -1500,10 +2625,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -1511,10 +2636,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -1522,10 +2647,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -1533,10 +2658,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -1544,10 +2669,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -1555,10 +2680,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -1566,10 +2691,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
@@ -1577,10 +2702,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -1588,10 +2713,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -1599,10 +2724,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
@@ -1610,10 +2735,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -1621,10 +2746,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
@@ -1632,10 +2757,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
@@ -1643,10 +2768,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
@@ -1654,10 +2779,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
@@ -1665,10 +2790,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="J39" t="b">
         <v>0</v>
@@ -1676,10 +2801,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -1687,10 +2812,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -1698,10 +2823,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
@@ -1709,10 +2834,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="J43" t="b">
         <v>0</v>
@@ -1720,10 +2845,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="J44" t="b">
         <v>0</v>
@@ -1731,10 +2856,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="J45" t="b">
         <v>0</v>
@@ -1742,10 +2867,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="J46" t="b">
         <v>0</v>
@@ -1753,10 +2878,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
@@ -1764,10 +2889,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
@@ -1775,10 +2900,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
@@ -1786,10 +2911,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="J50" t="b">
         <v>0</v>
@@ -1797,10 +2922,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
@@ -1808,10 +2933,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J52" t="b">
         <v>0</v>
@@ -1819,10 +2944,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="J53" t="b">
         <v>0</v>
@@ -1830,10 +2955,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="J54" t="b">
         <v>0</v>
@@ -1841,10 +2966,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="J55" t="b">
         <v>0</v>
@@ -1852,10 +2977,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="J56" t="b">
         <v>0</v>
@@ -1863,10 +2988,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
@@ -1874,10 +2999,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
@@ -1885,10 +3010,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
@@ -1896,10 +3021,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="J60" t="b">
         <v>0</v>
@@ -1907,10 +3032,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="J61" t="b">
         <v>0</v>
@@ -1918,10 +3043,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
@@ -1929,10 +3054,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="J63" t="b">
         <v>0</v>
@@ -1940,10 +3065,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="J64" t="b">
         <v>0</v>
@@ -1951,10 +3076,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="J65" t="b">
         <v>0</v>
@@ -1962,10 +3087,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="J66" t="b">
         <v>0</v>
@@ -1973,10 +3098,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="J67" t="b">
         <v>0</v>
@@ -1984,10 +3109,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="J68" t="b">
         <v>0</v>
@@ -1995,10 +3120,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="J69" t="b">
         <v>0</v>
@@ -2006,10 +3131,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="J70" t="b">
         <v>0</v>
@@ -2017,10 +3142,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="J71" t="b">
         <v>0</v>
@@ -2028,10 +3153,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="J72" t="b">
         <v>0</v>
@@ -2039,10 +3164,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="J73" t="b">
         <v>0</v>
@@ -2050,10 +3175,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="J74" t="b">
         <v>0</v>
@@ -2061,10 +3186,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="J75" t="b">
         <v>0</v>
@@ -2072,10 +3197,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="J76" t="b">
         <v>0</v>
@@ -2083,10 +3208,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="J77" t="b">
         <v>0</v>
@@ -2094,10 +3219,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="J78" t="b">
         <v>0</v>
@@ -2105,10 +3230,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="J79" t="b">
         <v>0</v>
@@ -2116,10 +3241,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="J80" t="b">
         <v>0</v>
@@ -2127,10 +3252,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="J81" t="b">
         <v>0</v>
@@ -2138,10 +3263,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J82" t="b">
         <v>0</v>
@@ -2149,10 +3274,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="J83" t="b">
         <v>0</v>
@@ -2160,10 +3285,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="J84" t="b">
         <v>0</v>
@@ -2171,10 +3296,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="J85" t="b">
         <v>0</v>
@@ -2182,10 +3307,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="J86" t="b">
         <v>0</v>
@@ -2193,10 +3318,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="J87" t="b">
         <v>0</v>
@@ -2204,10 +3329,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="J88" t="b">
         <v>0</v>
@@ -2215,10 +3340,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="J89" t="b">
         <v>0</v>
@@ -2226,10 +3351,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J90" t="b">
         <v>0</v>
@@ -2237,10 +3362,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="J91" t="b">
         <v>0</v>
@@ -2248,10 +3373,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="J92" t="b">
         <v>0</v>
@@ -2259,10 +3384,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="J93" t="b">
         <v>0</v>
@@ -2270,10 +3395,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="J94" t="b">
         <v>0</v>
@@ -2281,10 +3406,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="J95" t="b">
         <v>0</v>
@@ -2292,10 +3417,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="J96" t="b">
         <v>0</v>
@@ -2303,10 +3428,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J97" t="b">
         <v>0</v>
@@ -2314,10 +3439,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J98" t="b">
         <v>0</v>
@@ -2325,10 +3450,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J99" t="b">
         <v>0</v>
@@ -2336,10 +3461,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="J100" t="b">
         <v>0</v>
@@ -2347,10 +3472,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J101" t="b">
         <v>0</v>
@@ -2358,10 +3483,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="J102" t="b">
         <v>0</v>
@@ -2369,10 +3494,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="J103" t="b">
         <v>0</v>
@@ -2380,10 +3505,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="J104" t="b">
         <v>0</v>
@@ -2391,10 +3516,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="J105" t="b">
         <v>0</v>
@@ -2402,10 +3527,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B106" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="J106" t="b">
         <v>0</v>
@@ -2413,10 +3538,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="J107" t="b">
         <v>0</v>
@@ -2424,10 +3549,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B108" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="J108" t="b">
         <v>0</v>
@@ -2435,10 +3560,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="B109" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="J109" t="b">
         <v>0</v>
@@ -2446,10 +3571,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B110" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="J110" t="b">
         <v>0</v>
@@ -2457,10 +3582,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="B111" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="J111" t="b">
         <v>0</v>
@@ -2468,10 +3593,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="J112" t="b">
         <v>0</v>
@@ -2479,10 +3604,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="J113" t="b">
         <v>0</v>
@@ -2490,10 +3615,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="J114" t="b">
         <v>0</v>
@@ -2501,10 +3626,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="B115" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J115" t="b">
         <v>0</v>
@@ -2512,10 +3637,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B116" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J116" t="b">
         <v>0</v>
@@ -2523,10 +3648,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="B117" t="s">
-        <v>54</v>
+        <v>232</v>
       </c>
       <c r="J117" t="b">
         <v>0</v>
@@ -2534,10 +3659,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="J118" t="b">
         <v>0</v>
@@ -2545,10 +3670,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="J119" t="b">
         <v>0</v>
@@ -2556,10 +3681,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>215</v>
+        <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="J120" t="b">
         <v>0</v>
@@ -2567,10 +3692,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B121" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="J121" t="b">
         <v>0</v>
@@ -2578,10 +3703,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="B122" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="J122" t="b">
         <v>0</v>
@@ -2589,10 +3714,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="B123" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="J123" t="b">
         <v>0</v>
@@ -2600,10 +3725,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="B124" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="J124" t="b">
         <v>0</v>
@@ -2611,10 +3736,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="B125" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="J125" t="b">
         <v>0</v>
@@ -2622,10 +3747,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="B126" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="J126" t="b">
         <v>0</v>
@@ -2633,10 +3758,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B127" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="J127" t="b">
         <v>0</v>
@@ -2644,10 +3769,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B128" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="J128" t="b">
         <v>0</v>
@@ -2655,10 +3780,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="J129" t="b">
         <v>0</v>
@@ -2666,10 +3791,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B130" t="s">
-        <v>58</v>
+        <v>253</v>
       </c>
       <c r="J130" t="b">
         <v>0</v>
@@ -2677,10 +3802,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="J131" t="b">
         <v>0</v>
@@ -2688,10 +3813,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="J132" t="b">
         <v>0</v>
@@ -2699,10 +3824,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="B133" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="J133" t="b">
         <v>0</v>
@@ -2710,10 +3835,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="B134" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="J134" t="b">
         <v>0</v>
@@ -2721,10 +3846,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="B135" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="J135" t="b">
         <v>0</v>
@@ -2732,10 +3857,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="B136" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="J136" t="b">
         <v>0</v>
@@ -2743,10 +3868,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="B137" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="J137" t="b">
         <v>0</v>
@@ -2754,10 +3879,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B138" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="J138" t="b">
         <v>0</v>
@@ -2765,10 +3890,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="B139" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="J139" t="b">
         <v>0</v>
@@ -2776,10 +3901,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>63</v>
+        <v>271</v>
       </c>
       <c r="B140" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="J140" t="b">
         <v>0</v>
@@ -2787,10 +3912,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="B141" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="J141" t="b">
         <v>0</v>
@@ -2798,10 +3923,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="B142" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="J142" t="b">
         <v>0</v>
@@ -2809,10 +3934,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="B143" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="J143" t="b">
         <v>0</v>
@@ -2820,10 +3945,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="J144" t="b">
         <v>0</v>
@@ -2831,10 +3956,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="B145" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="J145" t="b">
         <v>0</v>
@@ -2842,10 +3967,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="B146" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="J146" t="b">
         <v>0</v>
@@ -2853,10 +3978,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="J147" t="b">
         <v>0</v>
@@ -2864,10 +3989,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="J148" t="b">
         <v>0</v>
@@ -2875,10 +4000,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>264</v>
+        <v>126</v>
       </c>
       <c r="B149" t="s">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="J149" t="b">
         <v>0</v>
@@ -2886,10 +4011,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B150" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="J150" t="b">
         <v>0</v>
@@ -2897,10 +4022,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B151" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="J151" t="b">
         <v>0</v>
@@ -2908,10 +4033,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B152" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="J152" t="b">
         <v>0</v>
@@ -2919,10 +4044,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="B153" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="J153" t="b">
         <v>0</v>
@@ -2930,10 +4055,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="B154" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="J154" t="b">
         <v>0</v>
@@ -2941,10 +4066,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="B155" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="J155" t="b">
         <v>0</v>
@@ -2952,10 +4077,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="B156" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="J156" t="b">
         <v>0</v>
@@ -2963,10 +4088,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="B157" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="J157" t="b">
         <v>0</v>
@@ -2974,10 +4099,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="B158" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="J158" t="b">
         <v>0</v>
@@ -2985,10 +4110,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="B159" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="J159" t="b">
         <v>0</v>
@@ -2996,10 +4121,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>286</v>
+        <v>114</v>
       </c>
       <c r="B160" t="s">
-        <v>287</v>
+        <v>115</v>
       </c>
       <c r="J160" t="b">
         <v>0</v>
@@ -3007,10 +4132,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="B161" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="J161" t="b">
         <v>0</v>
@@ -3018,10 +4143,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="B162" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="J162" t="b">
         <v>0</v>
@@ -3029,10 +4154,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>311</v>
       </c>
       <c r="B163" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="J163" t="b">
         <v>0</v>
@@ -3040,10 +4165,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="B164" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="J164" t="b">
         <v>0</v>
@@ -3051,10 +4176,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>139</v>
+        <v>315</v>
       </c>
       <c r="B165" t="s">
-        <v>140</v>
+        <v>316</v>
       </c>
       <c r="J165" t="b">
         <v>0</v>
@@ -3062,10 +4187,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="B166" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="J166" t="b">
         <v>0</v>
@@ -3073,10 +4198,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>149</v>
+        <v>319</v>
       </c>
       <c r="B167" t="s">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="J167" t="b">
         <v>0</v>
@@ -3084,10 +4209,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="B168" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="J168" t="b">
         <v>0</v>
@@ -3095,10 +4220,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="B169" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="J169" t="b">
         <v>0</v>
@@ -3106,10 +4231,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="B170" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="J170" t="b">
         <v>0</v>
@@ -3117,10 +4242,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="B171" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="J171" t="b">
         <v>0</v>
@@ -3128,10 +4253,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>305</v>
+        <v>124</v>
       </c>
       <c r="B172" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="J172" t="b">
         <v>0</v>
@@ -3139,10 +4264,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="B173" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="J173" t="b">
         <v>0</v>
@@ -3150,10 +4275,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="B174" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="J174" t="b">
         <v>0</v>
@@ -3161,10 +4286,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="B175" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="J175" t="b">
         <v>0</v>
@@ -3172,10 +4297,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="B176" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="J176" t="b">
         <v>0</v>
@@ -3183,10 +4308,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="B177" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="J177" t="b">
         <v>0</v>
@@ -3194,10 +4319,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="B178" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="J178" t="b">
         <v>0</v>
@@ -3205,10 +4330,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="B179" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="J179" t="b">
         <v>0</v>
@@ -3216,10 +4341,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>190</v>
+        <v>344</v>
       </c>
       <c r="B180" t="s">
-        <v>191</v>
+        <v>345</v>
       </c>
       <c r="J180" t="b">
         <v>0</v>
@@ -3227,10 +4352,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>192</v>
+        <v>346</v>
       </c>
       <c r="B181" t="s">
-        <v>193</v>
+        <v>347</v>
       </c>
       <c r="J181" t="b">
         <v>0</v>
@@ -3238,10 +4363,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>16</v>
+        <v>348</v>
       </c>
       <c r="B182" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="J182" t="b">
         <v>0</v>
@@ -3249,10 +4374,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="J183" t="b">
         <v>0</v>
@@ -3260,10 +4385,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>157</v>
+        <v>351</v>
       </c>
       <c r="B184" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="J184" t="b">
         <v>0</v>
@@ -3271,10 +4396,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B185" t="s">
-        <v>198</v>
+        <v>353</v>
       </c>
       <c r="J185" t="b">
         <v>0</v>
@@ -3282,10 +4407,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="B186" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="J186" t="b">
         <v>0</v>
@@ -3293,10 +4418,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="B187" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="J187" t="b">
         <v>0</v>
@@ -3304,10 +4429,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="B188" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="J188" t="b">
         <v>0</v>
@@ -3315,10 +4440,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="B189" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="J189" t="b">
         <v>0</v>
@@ -3326,10 +4451,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="B190" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="J190" t="b">
         <v>0</v>
@@ -3337,10 +4462,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="B191" t="s">
-        <v>213</v>
+        <v>365</v>
       </c>
       <c r="J191" t="b">
         <v>0</v>
@@ -3348,10 +4473,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>327</v>
+        <v>195</v>
       </c>
       <c r="J192" t="b">
         <v>0</v>
@@ -3359,10 +4484,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="B193" t="s">
-        <v>328</v>
+        <v>175</v>
       </c>
       <c r="J193" t="b">
         <v>0</v>
@@ -3370,10 +4495,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>159</v>
+        <v>366</v>
       </c>
       <c r="B194" t="s">
-        <v>232</v>
+        <v>367</v>
       </c>
       <c r="J194" t="b">
         <v>0</v>
@@ -3381,10 +4506,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="B195" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="J195" t="b">
         <v>0</v>
@@ -3392,10 +4517,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="B196" t="s">
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="J196" t="b">
         <v>0</v>
@@ -3403,10 +4528,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>331</v>
+        <v>267</v>
       </c>
       <c r="B197" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="J197" t="b">
         <v>0</v>
@@ -3414,10 +4539,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>137</v>
+        <v>372</v>
       </c>
       <c r="B198" t="s">
-        <v>227</v>
+        <v>373</v>
       </c>
       <c r="J198" t="b">
         <v>0</v>
@@ -3425,10 +4550,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="B199" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="J199" t="b">
         <v>0</v>
@@ -3436,10 +4561,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>305</v>
+        <v>376</v>
       </c>
       <c r="B200" t="s">
-        <v>306</v>
+        <v>377</v>
       </c>
       <c r="J200" t="b">
         <v>0</v>
@@ -3447,10 +4572,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="B201" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="J201" t="b">
         <v>0</v>
@@ -3458,10 +4583,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="B202" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="J202" t="b">
         <v>0</v>
@@ -3469,10 +4594,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>337</v>
+        <v>247</v>
       </c>
       <c r="B203" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="J203" t="b">
         <v>0</v>
@@ -3480,10 +4605,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="B204" t="s">
-        <v>245</v>
+        <v>382</v>
       </c>
       <c r="J204" t="b">
         <v>0</v>
@@ -3491,10 +4616,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>339</v>
+        <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>340</v>
+        <v>209</v>
       </c>
       <c r="J205" t="b">
         <v>0</v>
@@ -3502,10 +4627,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>341</v>
+        <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>342</v>
+        <v>11</v>
       </c>
       <c r="J206" t="b">
         <v>0</v>
@@ -3513,10 +4638,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="B207" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="J207" t="b">
         <v>0</v>
@@ -3524,10 +4649,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="B208" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="J208" t="b">
         <v>0</v>
@@ -3535,10 +4660,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="B209" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="J209" t="b">
         <v>0</v>
@@ -3546,10 +4671,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="B210" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="J210" t="b">
         <v>0</v>
@@ -3557,10 +4682,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="B211" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="J211" t="b">
         <v>0</v>
@@ -3568,10 +4693,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="B212" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="J212" t="b">
         <v>0</v>
@@ -3579,10 +4704,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="J213" t="b">
         <v>0</v>
@@ -3590,10 +4715,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="B214" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="J214" t="b">
         <v>0</v>
@@ -3601,10 +4726,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="B215" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="J215" t="b">
         <v>0</v>
@@ -3612,10 +4737,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="B216" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="J216" t="b">
         <v>0</v>
@@ -3623,10 +4748,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="B217" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="J217" t="b">
         <v>0</v>
@@ -3634,10 +4759,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B218" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="J218" t="b">
         <v>0</v>
@@ -3645,10 +4770,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="B219" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="J219" t="b">
         <v>0</v>
@@ -3656,10 +4781,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>131</v>
+        <v>405</v>
       </c>
       <c r="B220" t="s">
-        <v>201</v>
+        <v>406</v>
       </c>
       <c r="J220" t="b">
         <v>0</v>
@@ -3667,10 +4792,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="B221" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="J221" t="b">
         <v>0</v>
@@ -3678,10 +4803,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>63</v>
+        <v>409</v>
       </c>
       <c r="B222" t="s">
-        <v>248</v>
+        <v>410</v>
       </c>
       <c r="J222" t="b">
         <v>0</v>
@@ -3689,10 +4814,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>367</v>
+        <v>249</v>
       </c>
       <c r="B223" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="J223" t="b">
         <v>0</v>
@@ -3700,10 +4825,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="B224" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="J224" t="b">
         <v>0</v>
@@ -3711,10 +4836,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="B225" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="J225" t="b">
         <v>0</v>
@@ -3722,10 +4847,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>129</v>
+        <v>415</v>
       </c>
       <c r="B226" t="s">
-        <v>130</v>
+        <v>416</v>
       </c>
       <c r="J226" t="b">
         <v>0</v>
@@ -3733,10 +4858,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>417</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>418</v>
       </c>
       <c r="J227" t="b">
         <v>0</v>
@@ -3744,10 +4869,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
       <c r="B228" t="s">
-        <v>294</v>
+        <v>420</v>
       </c>
       <c r="J228" t="b">
         <v>0</v>
@@ -3755,10 +4880,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="B229" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="J229" t="b">
         <v>0</v>
@@ -3766,10 +4891,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>288</v>
+        <v>423</v>
       </c>
       <c r="B230" t="s">
-        <v>289</v>
+        <v>424</v>
       </c>
       <c r="J230" t="b">
         <v>0</v>
@@ -3777,10 +4902,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="B231" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="J231" t="b">
         <v>0</v>
@@ -3788,10 +4913,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="B232" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="J232" t="b">
         <v>0</v>
@@ -3799,10 +4924,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="B233" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="J233" t="b">
         <v>0</v>
@@ -3810,10 +4935,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>301</v>
+        <v>429</v>
       </c>
       <c r="B234" t="s">
-        <v>302</v>
+        <v>430</v>
       </c>
       <c r="J234" t="b">
         <v>0</v>
@@ -3821,10 +4946,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="B235" t="s">
-        <v>265</v>
+        <v>432</v>
       </c>
       <c r="J235" t="b">
         <v>0</v>
@@ -3832,10 +4957,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>24</v>
+        <v>433</v>
       </c>
       <c r="B236" t="s">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="J236" t="b">
         <v>0</v>
@@ -3843,10 +4968,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="B237" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="J237" t="b">
         <v>0</v>
@@ -3854,10 +4979,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>380</v>
+        <v>185</v>
       </c>
       <c r="B238" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="J238" t="b">
         <v>0</v>
@@ -3865,10 +4990,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>284</v>
+        <v>438</v>
       </c>
       <c r="B239" t="s">
-        <v>285</v>
+        <v>439</v>
       </c>
       <c r="J239" t="b">
         <v>0</v>
@@ -3876,10 +5001,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>382</v>
+        <v>222</v>
       </c>
       <c r="B240" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="J240" t="b">
         <v>0</v>
@@ -3887,10 +5012,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="B241" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="J241" t="b">
         <v>0</v>
@@ -3898,12 +5023,2729 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="B242" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="J242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>445</v>
+      </c>
+      <c r="B243" t="s">
+        <v>446</v>
+      </c>
+      <c r="J243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>447</v>
+      </c>
+      <c r="B244" t="s">
+        <v>448</v>
+      </c>
+      <c r="J244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>449</v>
+      </c>
+      <c r="B245" t="s">
+        <v>450</v>
+      </c>
+      <c r="J245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>451</v>
+      </c>
+      <c r="B246" t="s">
+        <v>452</v>
+      </c>
+      <c r="J246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>453</v>
+      </c>
+      <c r="B247" t="s">
+        <v>454</v>
+      </c>
+      <c r="J247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>136</v>
+      </c>
+      <c r="B248" t="s">
+        <v>455</v>
+      </c>
+      <c r="J248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>218</v>
+      </c>
+      <c r="B249" t="s">
+        <v>219</v>
+      </c>
+      <c r="J249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>456</v>
+      </c>
+      <c r="B250" t="s">
+        <v>457</v>
+      </c>
+      <c r="J250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>305</v>
+      </c>
+      <c r="B251" t="s">
+        <v>458</v>
+      </c>
+      <c r="J251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>459</v>
+      </c>
+      <c r="B252" t="s">
+        <v>460</v>
+      </c>
+      <c r="J252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>461</v>
+      </c>
+      <c r="B253" t="s">
+        <v>462</v>
+      </c>
+      <c r="J253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>463</v>
+      </c>
+      <c r="B254" t="s">
+        <v>464</v>
+      </c>
+      <c r="J254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>465</v>
+      </c>
+      <c r="B255" t="s">
+        <v>466</v>
+      </c>
+      <c r="J255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>467</v>
+      </c>
+      <c r="B256" t="s">
+        <v>468</v>
+      </c>
+      <c r="J256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>469</v>
+      </c>
+      <c r="B257" t="s">
+        <v>470</v>
+      </c>
+      <c r="J257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>471</v>
+      </c>
+      <c r="B258" t="s">
+        <v>472</v>
+      </c>
+      <c r="J258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>473</v>
+      </c>
+      <c r="B259" t="s">
+        <v>474</v>
+      </c>
+      <c r="J259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>475</v>
+      </c>
+      <c r="B260" t="s">
+        <v>476</v>
+      </c>
+      <c r="J260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>477</v>
+      </c>
+      <c r="B261" t="s">
+        <v>478</v>
+      </c>
+      <c r="J261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>288</v>
+      </c>
+      <c r="B262" t="s">
+        <v>479</v>
+      </c>
+      <c r="J262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>132</v>
+      </c>
+      <c r="B263" t="s">
+        <v>480</v>
+      </c>
+      <c r="J263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>481</v>
+      </c>
+      <c r="B264" t="s">
+        <v>482</v>
+      </c>
+      <c r="J264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>483</v>
+      </c>
+      <c r="B265" t="s">
+        <v>484</v>
+      </c>
+      <c r="J265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>18</v>
+      </c>
+      <c r="B266" t="s">
+        <v>485</v>
+      </c>
+      <c r="J266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>486</v>
+      </c>
+      <c r="B267" t="s">
+        <v>487</v>
+      </c>
+      <c r="J267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>488</v>
+      </c>
+      <c r="B268" t="s">
+        <v>489</v>
+      </c>
+      <c r="J268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>490</v>
+      </c>
+      <c r="B269" t="s">
+        <v>491</v>
+      </c>
+      <c r="J269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>492</v>
+      </c>
+      <c r="B270" t="s">
+        <v>493</v>
+      </c>
+      <c r="J270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>494</v>
+      </c>
+      <c r="B271" t="s">
+        <v>495</v>
+      </c>
+      <c r="J271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>496</v>
+      </c>
+      <c r="B272" t="s">
+        <v>497</v>
+      </c>
+      <c r="J272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>498</v>
+      </c>
+      <c r="B273" t="s">
+        <v>499</v>
+      </c>
+      <c r="J273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>237</v>
+      </c>
+      <c r="B274" t="s">
+        <v>500</v>
+      </c>
+      <c r="J274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>501</v>
+      </c>
+      <c r="B275" t="s">
+        <v>502</v>
+      </c>
+      <c r="J275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>503</v>
+      </c>
+      <c r="B276" t="s">
+        <v>504</v>
+      </c>
+      <c r="J276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>505</v>
+      </c>
+      <c r="B277" t="s">
+        <v>506</v>
+      </c>
+      <c r="J277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>507</v>
+      </c>
+      <c r="B278" t="s">
+        <v>508</v>
+      </c>
+      <c r="J278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>509</v>
+      </c>
+      <c r="B279" t="s">
+        <v>510</v>
+      </c>
+      <c r="J279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>511</v>
+      </c>
+      <c r="B280" t="s">
+        <v>512</v>
+      </c>
+      <c r="J280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>513</v>
+      </c>
+      <c r="B281" t="s">
+        <v>514</v>
+      </c>
+      <c r="J281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>515</v>
+      </c>
+      <c r="B282" t="s">
+        <v>516</v>
+      </c>
+      <c r="J282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>269</v>
+      </c>
+      <c r="B283" t="s">
+        <v>517</v>
+      </c>
+      <c r="J283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>518</v>
+      </c>
+      <c r="B284" t="s">
+        <v>519</v>
+      </c>
+      <c r="J284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>18</v>
+      </c>
+      <c r="B285" t="s">
+        <v>19</v>
+      </c>
+      <c r="J285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286" t="s">
+        <v>520</v>
+      </c>
+      <c r="J286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>10</v>
+      </c>
+      <c r="B287" t="s">
+        <v>11</v>
+      </c>
+      <c r="J287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>16</v>
+      </c>
+      <c r="B288" t="s">
+        <v>17</v>
+      </c>
+      <c r="J288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>521</v>
+      </c>
+      <c r="B289" t="s">
+        <v>522</v>
+      </c>
+      <c r="J289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>24</v>
+      </c>
+      <c r="B290" t="s">
+        <v>25</v>
+      </c>
+      <c r="J290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>20</v>
+      </c>
+      <c r="B291" t="s">
+        <v>21</v>
+      </c>
+      <c r="J291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>523</v>
+      </c>
+      <c r="B292" t="s">
+        <v>524</v>
+      </c>
+      <c r="J292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>22</v>
+      </c>
+      <c r="B293" t="s">
+        <v>23</v>
+      </c>
+      <c r="J293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>46</v>
+      </c>
+      <c r="B294" t="s">
+        <v>525</v>
+      </c>
+      <c r="J294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>14</v>
+      </c>
+      <c r="B295" t="s">
+        <v>526</v>
+      </c>
+      <c r="J295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>383</v>
+      </c>
+      <c r="B296" t="s">
+        <v>384</v>
+      </c>
+      <c r="J296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>527</v>
+      </c>
+      <c r="B297" t="s">
+        <v>528</v>
+      </c>
+      <c r="J297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>323</v>
+      </c>
+      <c r="B298" t="s">
+        <v>324</v>
+      </c>
+      <c r="J298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>218</v>
+      </c>
+      <c r="B299" t="s">
+        <v>219</v>
+      </c>
+      <c r="J299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>226</v>
+      </c>
+      <c r="B300" t="s">
+        <v>529</v>
+      </c>
+      <c r="J300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>530</v>
+      </c>
+      <c r="B301" t="s">
+        <v>531</v>
+      </c>
+      <c r="J301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>532</v>
+      </c>
+      <c r="B302" t="s">
+        <v>533</v>
+      </c>
+      <c r="J302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>239</v>
+      </c>
+      <c r="B303" t="s">
+        <v>240</v>
+      </c>
+      <c r="J303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>471</v>
+      </c>
+      <c r="B304" t="s">
+        <v>472</v>
+      </c>
+      <c r="J304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>282</v>
+      </c>
+      <c r="B305" t="s">
+        <v>425</v>
+      </c>
+      <c r="J305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>534</v>
+      </c>
+      <c r="B306" t="s">
+        <v>535</v>
+      </c>
+      <c r="J306" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>42</v>
+      </c>
+      <c r="B307" t="s">
+        <v>43</v>
+      </c>
+      <c r="J307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>536</v>
+      </c>
+      <c r="B308" t="s">
+        <v>537</v>
+      </c>
+      <c r="J308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>292</v>
+      </c>
+      <c r="B309" t="s">
+        <v>538</v>
+      </c>
+      <c r="J309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>539</v>
+      </c>
+      <c r="B310" t="s">
+        <v>540</v>
+      </c>
+      <c r="J310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>230</v>
+      </c>
+      <c r="B311" t="s">
+        <v>541</v>
+      </c>
+      <c r="J311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>28</v>
+      </c>
+      <c r="B312" t="s">
+        <v>29</v>
+      </c>
+      <c r="J312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>30</v>
+      </c>
+      <c r="B313" t="s">
+        <v>206</v>
+      </c>
+      <c r="J313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>542</v>
+      </c>
+      <c r="B314" t="s">
+        <v>543</v>
+      </c>
+      <c r="J314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>544</v>
+      </c>
+      <c r="B315" t="s">
+        <v>545</v>
+      </c>
+      <c r="J315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>52</v>
+      </c>
+      <c r="B316" t="s">
+        <v>53</v>
+      </c>
+      <c r="J316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>40</v>
+      </c>
+      <c r="B317" t="s">
+        <v>41</v>
+      </c>
+      <c r="J317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>546</v>
+      </c>
+      <c r="B318" t="s">
+        <v>547</v>
+      </c>
+      <c r="J318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>548</v>
+      </c>
+      <c r="B319" t="s">
+        <v>549</v>
+      </c>
+      <c r="J319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>82</v>
+      </c>
+      <c r="B320" t="s">
+        <v>83</v>
+      </c>
+      <c r="J320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>64</v>
+      </c>
+      <c r="B321" t="s">
+        <v>550</v>
+      </c>
+      <c r="J321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>551</v>
+      </c>
+      <c r="B322" t="s">
+        <v>552</v>
+      </c>
+      <c r="J322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>553</v>
+      </c>
+      <c r="B323" t="s">
+        <v>554</v>
+      </c>
+      <c r="J323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>68</v>
+      </c>
+      <c r="B324" t="s">
+        <v>69</v>
+      </c>
+      <c r="J324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>555</v>
+      </c>
+      <c r="B325" t="s">
+        <v>556</v>
+      </c>
+      <c r="J325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>557</v>
+      </c>
+      <c r="B326" t="s">
+        <v>558</v>
+      </c>
+      <c r="J326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>301</v>
+      </c>
+      <c r="B327" t="s">
+        <v>559</v>
+      </c>
+      <c r="J327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>560</v>
+      </c>
+      <c r="B328" t="s">
+        <v>561</v>
+      </c>
+      <c r="J328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>562</v>
+      </c>
+      <c r="B329" t="s">
+        <v>563</v>
+      </c>
+      <c r="J329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>564</v>
+      </c>
+      <c r="B330" t="s">
+        <v>565</v>
+      </c>
+      <c r="J330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>72</v>
+      </c>
+      <c r="B331" t="s">
+        <v>73</v>
+      </c>
+      <c r="J331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>26</v>
+      </c>
+      <c r="B332" t="s">
+        <v>566</v>
+      </c>
+      <c r="J332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>567</v>
+      </c>
+      <c r="B333" t="s">
+        <v>568</v>
+      </c>
+      <c r="J333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>569</v>
+      </c>
+      <c r="B334" t="s">
+        <v>570</v>
+      </c>
+      <c r="J334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>571</v>
+      </c>
+      <c r="B335" t="s">
+        <v>572</v>
+      </c>
+      <c r="J335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>106</v>
+      </c>
+      <c r="B336" t="s">
+        <v>573</v>
+      </c>
+      <c r="J336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>574</v>
+      </c>
+      <c r="B337" t="s">
+        <v>575</v>
+      </c>
+      <c r="J337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>576</v>
+      </c>
+      <c r="B338" t="s">
+        <v>577</v>
+      </c>
+      <c r="J338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>578</v>
+      </c>
+      <c r="B339" t="s">
+        <v>579</v>
+      </c>
+      <c r="J339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>580</v>
+      </c>
+      <c r="B340" t="s">
+        <v>581</v>
+      </c>
+      <c r="J340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>96</v>
+      </c>
+      <c r="B341" t="s">
+        <v>97</v>
+      </c>
+      <c r="J341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>582</v>
+      </c>
+      <c r="B342" t="s">
+        <v>583</v>
+      </c>
+      <c r="J342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>584</v>
+      </c>
+      <c r="B343" t="s">
+        <v>585</v>
+      </c>
+      <c r="J343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>38</v>
+      </c>
+      <c r="B344" t="s">
+        <v>586</v>
+      </c>
+      <c r="J344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>210</v>
+      </c>
+      <c r="B345" t="s">
+        <v>587</v>
+      </c>
+      <c r="J345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>588</v>
+      </c>
+      <c r="B346" t="s">
+        <v>589</v>
+      </c>
+      <c r="J346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>120</v>
+      </c>
+      <c r="B347" t="s">
+        <v>121</v>
+      </c>
+      <c r="J347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>170</v>
+      </c>
+      <c r="B348" t="s">
+        <v>590</v>
+      </c>
+      <c r="J348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>591</v>
+      </c>
+      <c r="B349" t="s">
+        <v>592</v>
+      </c>
+      <c r="J349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>108</v>
+      </c>
+      <c r="B350" t="s">
+        <v>593</v>
+      </c>
+      <c r="J350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>594</v>
+      </c>
+      <c r="B351" t="s">
+        <v>595</v>
+      </c>
+      <c r="J351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>596</v>
+      </c>
+      <c r="B352" t="s">
+        <v>597</v>
+      </c>
+      <c r="J352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>110</v>
+      </c>
+      <c r="B353" t="s">
+        <v>598</v>
+      </c>
+      <c r="J353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>124</v>
+      </c>
+      <c r="B354" t="s">
+        <v>599</v>
+      </c>
+      <c r="J354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>600</v>
+      </c>
+      <c r="B355" t="s">
+        <v>601</v>
+      </c>
+      <c r="J355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>602</v>
+      </c>
+      <c r="B356" t="s">
+        <v>603</v>
+      </c>
+      <c r="J356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>604</v>
+      </c>
+      <c r="B357" t="s">
+        <v>605</v>
+      </c>
+      <c r="J357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>98</v>
+      </c>
+      <c r="B358" t="s">
+        <v>99</v>
+      </c>
+      <c r="J358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>606</v>
+      </c>
+      <c r="B359" t="s">
+        <v>607</v>
+      </c>
+      <c r="J359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>608</v>
+      </c>
+      <c r="B360" t="s">
+        <v>609</v>
+      </c>
+      <c r="J360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>162</v>
+      </c>
+      <c r="B361" t="s">
+        <v>610</v>
+      </c>
+      <c r="J361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>126</v>
+      </c>
+      <c r="B362" t="s">
+        <v>127</v>
+      </c>
+      <c r="J362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>611</v>
+      </c>
+      <c r="B363" t="s">
+        <v>612</v>
+      </c>
+      <c r="J363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>140</v>
+      </c>
+      <c r="B364" t="s">
+        <v>141</v>
+      </c>
+      <c r="J364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>76</v>
+      </c>
+      <c r="B365" t="s">
+        <v>613</v>
+      </c>
+      <c r="J365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>154</v>
+      </c>
+      <c r="B366" t="s">
+        <v>614</v>
+      </c>
+      <c r="J366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>615</v>
+      </c>
+      <c r="B367" t="s">
+        <v>616</v>
+      </c>
+      <c r="J367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>144</v>
+      </c>
+      <c r="B368" t="s">
+        <v>145</v>
+      </c>
+      <c r="J368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>134</v>
+      </c>
+      <c r="B369" t="s">
+        <v>135</v>
+      </c>
+      <c r="J369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>617</v>
+      </c>
+      <c r="B370" t="s">
+        <v>618</v>
+      </c>
+      <c r="J370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>619</v>
+      </c>
+      <c r="B371" t="s">
+        <v>620</v>
+      </c>
+      <c r="J371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>621</v>
+      </c>
+      <c r="B372" t="s">
+        <v>622</v>
+      </c>
+      <c r="J372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>623</v>
+      </c>
+      <c r="B373" t="s">
+        <v>624</v>
+      </c>
+      <c r="J373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>94</v>
+      </c>
+      <c r="B374" t="s">
+        <v>95</v>
+      </c>
+      <c r="J374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>146</v>
+      </c>
+      <c r="B375" t="s">
+        <v>147</v>
+      </c>
+      <c r="J375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>625</v>
+      </c>
+      <c r="B376" t="s">
+        <v>626</v>
+      </c>
+      <c r="J376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>627</v>
+      </c>
+      <c r="B377" t="s">
+        <v>628</v>
+      </c>
+      <c r="J377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>629</v>
+      </c>
+      <c r="B378" t="s">
+        <v>630</v>
+      </c>
+      <c r="J378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>403</v>
+      </c>
+      <c r="B379" t="s">
+        <v>631</v>
+      </c>
+      <c r="J379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>307</v>
+      </c>
+      <c r="B380" t="s">
+        <v>632</v>
+      </c>
+      <c r="J380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>503</v>
+      </c>
+      <c r="B381" t="s">
+        <v>633</v>
+      </c>
+      <c r="J381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>634</v>
+      </c>
+      <c r="B382" t="s">
+        <v>635</v>
+      </c>
+      <c r="J382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>636</v>
+      </c>
+      <c r="B383" t="s">
+        <v>637</v>
+      </c>
+      <c r="J383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>638</v>
+      </c>
+      <c r="B384" t="s">
+        <v>639</v>
+      </c>
+      <c r="J384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>16</v>
+      </c>
+      <c r="B385" t="s">
+        <v>17</v>
+      </c>
+      <c r="J385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>12</v>
+      </c>
+      <c r="B386" t="s">
+        <v>640</v>
+      </c>
+      <c r="J386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>24</v>
+      </c>
+      <c r="B387" t="s">
+        <v>641</v>
+      </c>
+      <c r="J387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>10</v>
+      </c>
+      <c r="B388" t="s">
+        <v>11</v>
+      </c>
+      <c r="J388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>194</v>
+      </c>
+      <c r="B389" t="s">
+        <v>195</v>
+      </c>
+      <c r="J389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>214</v>
+      </c>
+      <c r="B390" t="s">
+        <v>412</v>
+      </c>
+      <c r="J390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>417</v>
+      </c>
+      <c r="B391" t="s">
+        <v>418</v>
+      </c>
+      <c r="J391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>185</v>
+      </c>
+      <c r="B392" t="s">
+        <v>437</v>
+      </c>
+      <c r="J392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>136</v>
+      </c>
+      <c r="B393" t="s">
+        <v>642</v>
+      </c>
+      <c r="J393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>172</v>
+      </c>
+      <c r="B394" t="s">
+        <v>173</v>
+      </c>
+      <c r="J394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>202</v>
+      </c>
+      <c r="B395" t="s">
+        <v>643</v>
+      </c>
+      <c r="J395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>247</v>
+      </c>
+      <c r="B396" t="s">
+        <v>248</v>
+      </c>
+      <c r="J396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>170</v>
+      </c>
+      <c r="B397" t="s">
+        <v>232</v>
+      </c>
+      <c r="J397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>18</v>
+      </c>
+      <c r="B398" t="s">
+        <v>19</v>
+      </c>
+      <c r="J398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>523</v>
+      </c>
+      <c r="B399" t="s">
+        <v>524</v>
+      </c>
+      <c r="J399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>260</v>
+      </c>
+      <c r="B400" t="s">
+        <v>644</v>
+      </c>
+      <c r="J400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>405</v>
+      </c>
+      <c r="B401" t="s">
+        <v>406</v>
+      </c>
+      <c r="J401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>645</v>
+      </c>
+      <c r="B402" t="s">
+        <v>646</v>
+      </c>
+      <c r="J402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>534</v>
+      </c>
+      <c r="B403" t="s">
+        <v>535</v>
+      </c>
+      <c r="J403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>629</v>
+      </c>
+      <c r="B404" t="s">
+        <v>647</v>
+      </c>
+      <c r="J404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>648</v>
+      </c>
+      <c r="B405" t="s">
+        <v>649</v>
+      </c>
+      <c r="J405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>190</v>
+      </c>
+      <c r="B406" t="s">
+        <v>191</v>
+      </c>
+      <c r="J406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>401</v>
+      </c>
+      <c r="B407" t="s">
+        <v>650</v>
+      </c>
+      <c r="J407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>176</v>
+      </c>
+      <c r="B408" t="s">
+        <v>651</v>
+      </c>
+      <c r="J408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>652</v>
+      </c>
+      <c r="B409" t="s">
+        <v>653</v>
+      </c>
+      <c r="J409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>505</v>
+      </c>
+      <c r="B410" t="s">
+        <v>654</v>
+      </c>
+      <c r="J410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>385</v>
+      </c>
+      <c r="B411" t="s">
+        <v>655</v>
+      </c>
+      <c r="J411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>656</v>
+      </c>
+      <c r="B412" t="s">
+        <v>657</v>
+      </c>
+      <c r="J412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>269</v>
+      </c>
+      <c r="B413" t="s">
+        <v>270</v>
+      </c>
+      <c r="J413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>245</v>
+      </c>
+      <c r="B414" t="s">
+        <v>658</v>
+      </c>
+      <c r="J414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>659</v>
+      </c>
+      <c r="B415" t="s">
+        <v>660</v>
+      </c>
+      <c r="J415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>14</v>
+      </c>
+      <c r="B416" t="s">
+        <v>526</v>
+      </c>
+      <c r="J416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>661</v>
+      </c>
+      <c r="B417" t="s">
+        <v>662</v>
+      </c>
+      <c r="J417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>44</v>
+      </c>
+      <c r="B418" t="s">
+        <v>663</v>
+      </c>
+      <c r="J418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>264</v>
+      </c>
+      <c r="B419" t="s">
+        <v>664</v>
+      </c>
+      <c r="J419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>665</v>
+      </c>
+      <c r="B420" t="s">
+        <v>666</v>
+      </c>
+      <c r="J420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>667</v>
+      </c>
+      <c r="B421" t="s">
+        <v>668</v>
+      </c>
+      <c r="J421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>212</v>
+      </c>
+      <c r="B422" t="s">
+        <v>213</v>
+      </c>
+      <c r="J422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>297</v>
+      </c>
+      <c r="B423" t="s">
+        <v>669</v>
+      </c>
+      <c r="J423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>670</v>
+      </c>
+      <c r="B424" t="s">
+        <v>671</v>
+      </c>
+      <c r="J424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>366</v>
+      </c>
+      <c r="B425" t="s">
+        <v>672</v>
+      </c>
+      <c r="J425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>673</v>
+      </c>
+      <c r="B426" t="s">
+        <v>674</v>
+      </c>
+      <c r="J426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>230</v>
+      </c>
+      <c r="B427" t="s">
+        <v>675</v>
+      </c>
+      <c r="J427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>441</v>
+      </c>
+      <c r="B428" t="s">
+        <v>676</v>
+      </c>
+      <c r="J428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>677</v>
+      </c>
+      <c r="B429" t="s">
+        <v>678</v>
+      </c>
+      <c r="J429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>679</v>
+      </c>
+      <c r="B430" t="s">
+        <v>680</v>
+      </c>
+      <c r="J430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>681</v>
+      </c>
+      <c r="B431" t="s">
+        <v>682</v>
+      </c>
+      <c r="J431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>683</v>
+      </c>
+      <c r="B432" t="s">
+        <v>684</v>
+      </c>
+      <c r="J432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>685</v>
+      </c>
+      <c r="B433" t="s">
+        <v>686</v>
+      </c>
+      <c r="J433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>521</v>
+      </c>
+      <c r="B434" t="s">
+        <v>522</v>
+      </c>
+      <c r="J434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>102</v>
+      </c>
+      <c r="B435" t="s">
+        <v>687</v>
+      </c>
+      <c r="J435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>235</v>
+      </c>
+      <c r="B436" t="s">
+        <v>688</v>
+      </c>
+      <c r="J436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>689</v>
+      </c>
+      <c r="B437" t="s">
+        <v>690</v>
+      </c>
+      <c r="J437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>691</v>
+      </c>
+      <c r="B438" t="s">
+        <v>692</v>
+      </c>
+      <c r="J438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>693</v>
+      </c>
+      <c r="B439" t="s">
+        <v>694</v>
+      </c>
+      <c r="J439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>695</v>
+      </c>
+      <c r="B440" t="s">
+        <v>696</v>
+      </c>
+      <c r="J440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>22</v>
+      </c>
+      <c r="B441" t="s">
+        <v>23</v>
+      </c>
+      <c r="J441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>697</v>
+      </c>
+      <c r="B442" t="s">
+        <v>698</v>
+      </c>
+      <c r="J442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>699</v>
+      </c>
+      <c r="B443" t="s">
+        <v>700</v>
+      </c>
+      <c r="J443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>282</v>
+      </c>
+      <c r="B444" t="s">
+        <v>425</v>
+      </c>
+      <c r="J444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>701</v>
+      </c>
+      <c r="B445" t="s">
+        <v>702</v>
+      </c>
+      <c r="J445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>362</v>
+      </c>
+      <c r="B446" t="s">
+        <v>703</v>
+      </c>
+      <c r="J446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>704</v>
+      </c>
+      <c r="B447" t="s">
+        <v>705</v>
+      </c>
+      <c r="J447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>706</v>
+      </c>
+      <c r="B448" t="s">
+        <v>707</v>
+      </c>
+      <c r="J448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>421</v>
+      </c>
+      <c r="B449" t="s">
+        <v>708</v>
+      </c>
+      <c r="J449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>709</v>
+      </c>
+      <c r="B450" t="s">
+        <v>710</v>
+      </c>
+      <c r="J450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>196</v>
+      </c>
+      <c r="B451" t="s">
+        <v>711</v>
+      </c>
+      <c r="J451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>712</v>
+      </c>
+      <c r="B452" t="s">
+        <v>713</v>
+      </c>
+      <c r="J452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>714</v>
+      </c>
+      <c r="B453" t="s">
+        <v>715</v>
+      </c>
+      <c r="J453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>716</v>
+      </c>
+      <c r="B454" t="s">
+        <v>717</v>
+      </c>
+      <c r="J454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>718</v>
+      </c>
+      <c r="B455" t="s">
+        <v>719</v>
+      </c>
+      <c r="J455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>372</v>
+      </c>
+      <c r="B456" t="s">
+        <v>720</v>
+      </c>
+      <c r="J456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>376</v>
+      </c>
+      <c r="B457" t="s">
+        <v>377</v>
+      </c>
+      <c r="J457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>721</v>
+      </c>
+      <c r="B458" t="s">
+        <v>722</v>
+      </c>
+      <c r="J458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>94</v>
+      </c>
+      <c r="B459" t="s">
+        <v>723</v>
+      </c>
+      <c r="J459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>132</v>
+      </c>
+      <c r="B460" t="s">
+        <v>724</v>
+      </c>
+      <c r="J460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>397</v>
+      </c>
+      <c r="B461" t="s">
+        <v>725</v>
+      </c>
+      <c r="J461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>438</v>
+      </c>
+      <c r="B462" t="s">
+        <v>439</v>
+      </c>
+      <c r="J462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>726</v>
+      </c>
+      <c r="B463" t="s">
+        <v>727</v>
+      </c>
+      <c r="J463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>488</v>
+      </c>
+      <c r="B464" t="s">
+        <v>728</v>
+      </c>
+      <c r="J464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>407</v>
+      </c>
+      <c r="B465" t="s">
+        <v>729</v>
+      </c>
+      <c r="J465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>20</v>
+      </c>
+      <c r="B466" t="s">
+        <v>21</v>
+      </c>
+      <c r="J466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>730</v>
+      </c>
+      <c r="B467" t="s">
+        <v>731</v>
+      </c>
+      <c r="J467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>477</v>
+      </c>
+      <c r="B468" t="s">
+        <v>732</v>
+      </c>
+      <c r="J468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>733</v>
+      </c>
+      <c r="B469" t="s">
+        <v>734</v>
+      </c>
+      <c r="J469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>735</v>
+      </c>
+      <c r="B470" t="s">
+        <v>736</v>
+      </c>
+      <c r="J470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>498</v>
+      </c>
+      <c r="B471" t="s">
+        <v>737</v>
+      </c>
+      <c r="J471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>507</v>
+      </c>
+      <c r="B472" t="s">
+        <v>738</v>
+      </c>
+      <c r="J472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>739</v>
+      </c>
+      <c r="B473" t="s">
+        <v>740</v>
+      </c>
+      <c r="J473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>96</v>
+      </c>
+      <c r="B474" t="s">
+        <v>741</v>
+      </c>
+      <c r="J474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>742</v>
+      </c>
+      <c r="B475" t="s">
+        <v>743</v>
+      </c>
+      <c r="J475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>744</v>
+      </c>
+      <c r="B476" t="s">
+        <v>745</v>
+      </c>
+      <c r="J476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>746</v>
+      </c>
+      <c r="B477" t="s">
+        <v>747</v>
+      </c>
+      <c r="J477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>449</v>
+      </c>
+      <c r="B478" t="s">
+        <v>748</v>
+      </c>
+      <c r="J478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>749</v>
+      </c>
+      <c r="B479" t="s">
+        <v>750</v>
+      </c>
+      <c r="J479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>183</v>
+      </c>
+      <c r="B480" t="s">
+        <v>751</v>
+      </c>
+      <c r="J480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>288</v>
+      </c>
+      <c r="B481" t="s">
+        <v>289</v>
+      </c>
+      <c r="J481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>146</v>
+      </c>
+      <c r="B482" t="s">
+        <v>147</v>
+      </c>
+      <c r="J482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>752</v>
+      </c>
+      <c r="B483" t="s">
+        <v>753</v>
+      </c>
+      <c r="J483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>754</v>
+      </c>
+      <c r="B484" t="s">
+        <v>755</v>
+      </c>
+      <c r="J484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>154</v>
+      </c>
+      <c r="B485" t="s">
+        <v>756</v>
+      </c>
+      <c r="J485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>757</v>
+      </c>
+      <c r="B486" t="s">
+        <v>758</v>
+      </c>
+      <c r="J486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>415</v>
+      </c>
+      <c r="B487" t="s">
+        <v>759</v>
+      </c>
+      <c r="J487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>267</v>
+      </c>
+      <c r="B488" t="s">
+        <v>760</v>
+      </c>
+      <c r="J488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>761</v>
+      </c>
+      <c r="B489" t="s">
+        <v>762</v>
+      </c>
+      <c r="J489" t="b">
         <v>0</v>
       </c>
     </row>
